--- a/docs/Examples/Example1c_HORIBA_Calibration/Weak_Diads.xlsx
+++ b/docs/Examples/Example1c_HORIBA_Calibration/Weak_Diads.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="74">
   <si>
     <t>filename</t>
   </si>
@@ -124,6 +124,9 @@
     <t>Diad1_Gauss_Sigma</t>
   </si>
   <si>
+    <t>10mol_FIE_R3</t>
+  </si>
+  <si>
     <t>1mol_FIA_R1</t>
   </si>
   <si>
@@ -151,42 +154,6 @@
     <t>4mol_FID_R3</t>
   </si>
   <si>
-    <t>10mol_FID_R1</t>
-  </si>
-  <si>
-    <t>10mol_FID_R1_FIN</t>
-  </si>
-  <si>
-    <t>10mol_FID_R2</t>
-  </si>
-  <si>
-    <t>10mol_FID_R2_FIN</t>
-  </si>
-  <si>
-    <t>10mol_FID_R3</t>
-  </si>
-  <si>
-    <t>10mol_FID_R3_FIN</t>
-  </si>
-  <si>
-    <t>10mol_FIE_R1</t>
-  </si>
-  <si>
-    <t>10mol_FIE_R1_FIN</t>
-  </si>
-  <si>
-    <t>10mol_FIE_R2</t>
-  </si>
-  <si>
-    <t>10mol_FIE_R2_FIN</t>
-  </si>
-  <si>
-    <t>10mol_FIE_R3</t>
-  </si>
-  <si>
-    <t>10mol_FIE_R3_FIN</t>
-  </si>
-  <si>
     <t>LL8_404a_r1</t>
   </si>
   <si>
@@ -269,9 +236,6 @@
   </si>
   <si>
     <t>Flagged Warnings:</t>
-  </si>
-  <si>
-    <t>Flagged Warnings: HB1_HighAmp</t>
   </si>
 </sst>
 </file>
@@ -629,7 +593,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK49"/>
+  <dimension ref="A1:AK38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -753,79 +717,70 @@
         <v>36</v>
       </c>
       <c r="C2">
-        <v>102.7553872492242</v>
+        <v>102.7923167709002</v>
       </c>
       <c r="D2">
-        <v>1286.320660822022</v>
+        <v>1285.966474364443</v>
       </c>
       <c r="E2">
-        <v>2541.43149238707</v>
+        <v>980.1919888873797</v>
       </c>
       <c r="F2">
-        <v>1286.320660822022</v>
+        <v>1285.966474364443</v>
       </c>
       <c r="G2">
-        <v>5434.007113842064</v>
+        <v>2766.40068457906</v>
       </c>
       <c r="H2">
-        <v>0.8564673404843547</v>
+        <v>1.078726381406422</v>
       </c>
       <c r="I2">
-        <v>14.4926723347613</v>
+        <v>19.78323505442969</v>
       </c>
       <c r="J2">
-        <v>0.4567590391442615</v>
+        <v>0.5949580315868629</v>
       </c>
       <c r="K2">
-        <v>1.712934680968709</v>
+        <v>2.157452762812843</v>
       </c>
       <c r="L2" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="M2">
-        <v>1389.076048071246</v>
+        <v>1388.758791135343</v>
       </c>
       <c r="N2">
-        <v>3572.500062094447</v>
+        <v>1525.266741684756</v>
       </c>
       <c r="O2">
-        <v>1389.076048071246</v>
+        <v>1388.758791135343</v>
       </c>
       <c r="P2">
-        <v>7644.223085986167</v>
+        <v>5518.446372591312</v>
       </c>
       <c r="Q2">
-        <v>0.9673565447115979</v>
+        <v>1.151651698374974</v>
       </c>
       <c r="S2">
-        <v>23.59169185652229</v>
+        <v>40.56118923461581</v>
       </c>
       <c r="T2">
-        <v>0.1164268860897188</v>
+        <v>0.9999999999099253</v>
       </c>
       <c r="U2">
-        <v>1.934713089423196</v>
+        <v>2.303303396749947</v>
       </c>
       <c r="V2" t="s">
-        <v>84</v>
-      </c>
-      <c r="W2">
-        <v>1266.235983345746</v>
-      </c>
-      <c r="X2">
-        <v>476.4437239530258</v>
-      </c>
-      <c r="Y2">
-        <v>0.8298294814739771</v>
+        <v>73</v>
       </c>
       <c r="Z2">
-        <v>1410.335833011463</v>
+        <v>1410.218958944591</v>
       </c>
       <c r="AA2">
-        <v>683.6848535051748</v>
+        <v>304.0459624127931</v>
       </c>
       <c r="AB2">
-        <v>0.5376657107603281</v>
+        <v>1.42093956415605</v>
       </c>
     </row>
     <row r="3" spans="1:37">
@@ -836,79 +791,70 @@
         <v>37</v>
       </c>
       <c r="C3">
-        <v>102.7048352775996</v>
+        <v>102.7548193590515</v>
       </c>
       <c r="D3">
-        <v>1286.472664755464</v>
+        <v>1286.319385121787</v>
       </c>
       <c r="E3">
-        <v>2178.012055829394</v>
+        <v>2544.2957377574</v>
       </c>
       <c r="F3">
-        <v>1286.472714757964</v>
+        <v>1286.319385121787</v>
       </c>
       <c r="G3">
-        <v>5146.514377323365</v>
+        <v>5415.867034472363</v>
       </c>
       <c r="H3">
-        <v>0.9664006993472867</v>
+        <v>0.8541209901506073</v>
       </c>
       <c r="I3">
-        <v>15.56644674568951</v>
+        <v>25.95401541797621</v>
       </c>
       <c r="J3">
-        <v>0.4016323302684105</v>
+        <v>0.4533349166199077</v>
       </c>
       <c r="K3">
-        <v>1.932801398694573</v>
+        <v>1.708241980301215</v>
       </c>
       <c r="L3" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="M3">
-        <v>1389.177550035564</v>
+        <v>1389.074204480838</v>
       </c>
       <c r="N3">
-        <v>3324.825595010148</v>
+        <v>3561.979838695749</v>
       </c>
       <c r="O3">
-        <v>1389.177550035564</v>
+        <v>1389.074204480838</v>
       </c>
       <c r="P3">
-        <v>7582.229243138538</v>
+        <v>7560.606019198811</v>
       </c>
       <c r="Q3">
-        <v>1.01259475088182</v>
+        <v>0.9699273395365451</v>
       </c>
       <c r="S3">
-        <v>21.7700027678267</v>
+        <v>23.17481635195703</v>
       </c>
       <c r="T3">
-        <v>0.1696957823696615</v>
+        <v>0.0842949266245272</v>
       </c>
       <c r="U3">
-        <v>2.025189501763639</v>
+        <v>1.93985467907309</v>
       </c>
       <c r="V3" t="s">
-        <v>84</v>
-      </c>
-      <c r="W3">
-        <v>1266.327783631556</v>
-      </c>
-      <c r="X3">
-        <v>497.2632856692159</v>
-      </c>
-      <c r="Y3">
-        <v>1.014774858201651</v>
+        <v>73</v>
       </c>
       <c r="Z3">
-        <v>1410.391869741734</v>
+        <v>1410.332932931142</v>
       </c>
       <c r="AA3">
-        <v>694.7582268449897</v>
+        <v>733.2091936523772</v>
       </c>
       <c r="AB3">
-        <v>1.508601875019216</v>
+        <v>0.5063739183877748</v>
       </c>
     </row>
     <row r="4" spans="1:37">
@@ -919,79 +865,70 @@
         <v>38</v>
       </c>
       <c r="C4">
-        <v>102.7384914200832</v>
+        <v>102.709396531332</v>
       </c>
       <c r="D4">
-        <v>1286.539465932626</v>
+        <v>1286.479919795953</v>
       </c>
       <c r="E4">
-        <v>1955.070394807636</v>
+        <v>2159.117789376488</v>
       </c>
       <c r="F4">
-        <v>1286.539465932626</v>
+        <v>1286.479919795953</v>
       </c>
       <c r="G4">
-        <v>4873.005537355156</v>
+        <v>4961.339850819428</v>
       </c>
       <c r="H4">
-        <v>1.009230810595066</v>
+        <v>0.9764152928795496</v>
       </c>
       <c r="I4">
-        <v>22.92781986026353</v>
+        <v>17.9220143496924</v>
       </c>
       <c r="J4">
-        <v>0.4280530362089268</v>
+        <v>0.3032959941209285</v>
       </c>
       <c r="K4">
-        <v>2.018461621190131</v>
+        <v>1.952830585759099</v>
       </c>
       <c r="L4" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="M4">
-        <v>1389.277957352709</v>
+        <v>1389.189366329785</v>
       </c>
       <c r="N4">
-        <v>2944.165727814863</v>
+        <v>3404.086598766468</v>
       </c>
       <c r="O4">
-        <v>1389.277957352709</v>
+        <v>1389.189316327285</v>
       </c>
       <c r="P4">
-        <v>6605.8775772322</v>
+        <v>8055.092822800282</v>
       </c>
       <c r="Q4">
-        <v>1.030086018601278</v>
+        <v>0.9935514281438089</v>
       </c>
       <c r="S4">
-        <v>19.97296624656043</v>
+        <v>30.13032650087072</v>
       </c>
       <c r="T4">
-        <v>0.07014670390133315</v>
+        <v>0.3295080509830429</v>
       </c>
       <c r="U4">
-        <v>2.060172037202557</v>
+        <v>1.987102856287618</v>
       </c>
       <c r="V4" t="s">
-        <v>84</v>
-      </c>
-      <c r="W4">
-        <v>1266.362667023853</v>
-      </c>
-      <c r="X4">
-        <v>216.1863541248703</v>
-      </c>
-      <c r="Y4">
-        <v>0.5450099130162225</v>
+        <v>73</v>
       </c>
       <c r="Z4">
-        <v>1410.375515502348</v>
+        <v>1410.401066272005</v>
       </c>
       <c r="AA4">
-        <v>678.0432916578534</v>
+        <v>912.5922681942565</v>
       </c>
       <c r="AB4">
-        <v>0.5392080596435981</v>
+        <v>1.599663113204707</v>
       </c>
     </row>
     <row r="5" spans="1:37">
@@ -1002,79 +939,70 @@
         <v>39</v>
       </c>
       <c r="C5">
-        <v>102.7408120109712</v>
+        <v>102.7428236919416</v>
       </c>
       <c r="D5">
-        <v>1285.145500556463</v>
+        <v>1286.541341259403</v>
       </c>
       <c r="E5">
-        <v>2042.930605936359</v>
+        <v>1954.226293353099</v>
       </c>
       <c r="F5">
-        <v>1285.145550558963</v>
+        <v>1286.541341259403</v>
       </c>
       <c r="G5">
-        <v>5320.261400869741</v>
+        <v>4806.826293850059</v>
       </c>
       <c r="H5">
-        <v>1.052424184800639</v>
+        <v>1.011822629669987</v>
       </c>
       <c r="I5">
-        <v>13.46076634150775</v>
+        <v>25.91960855613015</v>
       </c>
       <c r="J5">
-        <v>0.4333485731014811</v>
+        <v>0.3928023933949578</v>
       </c>
       <c r="K5">
-        <v>2.104848369601278</v>
+        <v>2.023645259339973</v>
       </c>
       <c r="L5" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="M5">
-        <v>1387.886362569934</v>
+        <v>1389.284164951345</v>
       </c>
       <c r="N5">
-        <v>3052.262073568763</v>
+        <v>2991.678636255897</v>
       </c>
       <c r="O5">
-        <v>1387.886362569934</v>
+        <v>1389.284164951345</v>
       </c>
       <c r="P5">
-        <v>7480.985656282256</v>
+        <v>6831.841358886644</v>
       </c>
       <c r="Q5">
-        <v>1.132845272938955</v>
+        <v>1.015844448131061</v>
       </c>
       <c r="S5">
-        <v>12.69889219723944</v>
+        <v>20.10956484939513</v>
       </c>
       <c r="T5">
-        <v>0.04963220313401639</v>
+        <v>0.1643107048756741</v>
       </c>
       <c r="U5">
-        <v>2.26569054587791</v>
+        <v>2.031688896262122</v>
       </c>
       <c r="V5" t="s">
-        <v>84</v>
-      </c>
-      <c r="W5">
-        <v>1264.835785353566</v>
-      </c>
-      <c r="X5">
-        <v>472.3864907419081</v>
-      </c>
-      <c r="Y5">
-        <v>0.5430082008356368</v>
+        <v>73</v>
       </c>
       <c r="Z5">
-        <v>1409.052124317334</v>
+        <v>1410.366341862251</v>
       </c>
       <c r="AA5">
-        <v>522.1325848397939</v>
+        <v>754.7109260004561</v>
       </c>
       <c r="AB5">
-        <v>0.8104750186934732</v>
+        <v>0.5146011496289258</v>
       </c>
     </row>
     <row r="6" spans="1:37">
@@ -1085,79 +1013,70 @@
         <v>40</v>
       </c>
       <c r="C6">
-        <v>102.794406185857</v>
+        <v>102.7400695002966</v>
       </c>
       <c r="D6">
-        <v>1286.110225728037</v>
+        <v>1285.149557515506</v>
       </c>
       <c r="E6">
-        <v>4424.605047485567</v>
+        <v>2030.472934477202</v>
       </c>
       <c r="F6">
-        <v>1286.110225728037</v>
+        <v>1285.149557515506</v>
       </c>
       <c r="G6">
-        <v>6668.735953647199</v>
+        <v>5132.075610181368</v>
       </c>
       <c r="H6">
-        <v>0.5502713819844355</v>
+        <v>1.057015761231293</v>
       </c>
       <c r="I6">
-        <v>27.65373680281298</v>
+        <v>16.17457643062856</v>
       </c>
       <c r="J6">
-        <v>0.6909899716101933</v>
+        <v>0.3423979600622507</v>
       </c>
       <c r="K6">
-        <v>1.100542763968871</v>
+        <v>2.114031522462587</v>
       </c>
       <c r="L6" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="M6">
-        <v>1388.904681916394</v>
+        <v>1387.889627015802</v>
       </c>
       <c r="N6">
-        <v>3567.208505058871</v>
+        <v>3082.121935058356</v>
       </c>
       <c r="O6">
-        <v>1388.904631913894</v>
+        <v>1387.889627015802</v>
       </c>
       <c r="P6">
-        <v>8168.370765502972</v>
+        <v>7658.226237268073</v>
       </c>
       <c r="Q6">
-        <v>0.9298840479263936</v>
+        <v>1.12362041019844</v>
       </c>
       <c r="S6">
-        <v>25.2055932691546</v>
+        <v>13.81662932549243</v>
       </c>
       <c r="T6">
-        <v>0.42049845588728</v>
+        <v>0.115630780548912</v>
       </c>
       <c r="U6">
-        <v>1.859768095852787</v>
+        <v>2.24724082039688</v>
       </c>
       <c r="V6" t="s">
-        <v>84</v>
-      </c>
-      <c r="W6">
-        <v>1266.373557511826</v>
-      </c>
-      <c r="X6">
-        <v>400.6856800446154</v>
-      </c>
-      <c r="Y6">
-        <v>1.129479692381122</v>
+        <v>73</v>
       </c>
       <c r="Z6">
-        <v>1410.191824252408</v>
+        <v>1409.08023898179</v>
       </c>
       <c r="AA6">
-        <v>1245.575204004224</v>
+        <v>546.6233573261375</v>
       </c>
       <c r="AB6">
-        <v>0.4051934877687422</v>
+        <v>0.8894303993328556</v>
       </c>
     </row>
     <row r="7" spans="1:37">
@@ -1168,79 +1087,70 @@
         <v>41</v>
       </c>
       <c r="C7">
-        <v>102.7476689506643</v>
+        <v>102.8466057793805</v>
       </c>
       <c r="D7">
-        <v>1286.319781335711</v>
+        <v>1286.061222952005</v>
       </c>
       <c r="E7">
-        <v>1187.233603195448</v>
+        <v>94381.01443750518</v>
       </c>
       <c r="F7">
-        <v>1286.319781335711</v>
+        <v>1286.061222952005</v>
       </c>
       <c r="G7">
-        <v>2648.671538571535</v>
+        <v>52913.78430533053</v>
       </c>
       <c r="H7">
-        <v>0.8910454298341332</v>
+        <v>0.2499744489151118</v>
       </c>
       <c r="I7">
-        <v>19.5981007503439</v>
+        <v>30.17530088404329</v>
       </c>
       <c r="J7">
-        <v>0.4644299870959002</v>
+        <v>0.1579504437366953</v>
       </c>
       <c r="K7">
-        <v>1.782090859668266</v>
+        <v>0.4999488978302236</v>
       </c>
       <c r="L7" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="M7">
-        <v>1389.067450286376</v>
+        <v>1388.907878733886</v>
       </c>
       <c r="N7">
-        <v>1779.013968449842</v>
+        <v>3587.263060842234</v>
       </c>
       <c r="O7">
-        <v>1389.067450286376</v>
+        <v>1388.907828731386</v>
       </c>
       <c r="P7">
-        <v>3819.58932905148</v>
+        <v>8422.235819065552</v>
       </c>
       <c r="Q7">
-        <v>0.947384963821416</v>
+        <v>0.9212682084441649</v>
       </c>
       <c r="S7">
-        <v>15.63649913271511</v>
+        <v>27.99562075356897</v>
       </c>
       <c r="T7">
-        <v>0.1879951487758205</v>
+        <v>0.5110815263776867</v>
       </c>
       <c r="U7">
-        <v>1.894769927642832</v>
+        <v>1.84253641688833</v>
       </c>
       <c r="V7" t="s">
-        <v>84</v>
-      </c>
-      <c r="W7">
-        <v>1266.154572368511</v>
-      </c>
-      <c r="X7">
-        <v>195.179893614761</v>
-      </c>
-      <c r="Y7">
-        <v>0.5939789336804966</v>
+        <v>73</v>
       </c>
       <c r="Z7">
-        <v>1410.598212931718</v>
+        <v>1410.149078379406</v>
       </c>
       <c r="AA7">
-        <v>384.4965655610433</v>
+        <v>1139.031371462688</v>
       </c>
       <c r="AB7">
-        <v>1.219328794240154</v>
+        <v>0.6510803589571359</v>
       </c>
     </row>
     <row r="8" spans="1:37">
@@ -1251,79 +1161,70 @@
         <v>42</v>
       </c>
       <c r="C8">
-        <v>102.9149287311855</v>
+        <v>102.7573297846106</v>
       </c>
       <c r="D8">
-        <v>1286.324081250049</v>
+        <v>1286.311049912397</v>
       </c>
       <c r="E8">
-        <v>3609.910910660193</v>
+        <v>1206.738065467945</v>
       </c>
       <c r="F8">
-        <v>1286.324131252549</v>
+        <v>1286.311049912397</v>
       </c>
       <c r="G8">
-        <v>9204.231781227381</v>
+        <v>2707.907833604478</v>
       </c>
       <c r="H8">
-        <v>0.9303778213741922</v>
+        <v>0.8722562675051145</v>
       </c>
       <c r="I8">
-        <v>25.21683549697499</v>
+        <v>24.05623075759233</v>
       </c>
       <c r="J8">
-        <v>0.6930025617830613</v>
+        <v>0.5269407630386118</v>
       </c>
       <c r="K8">
-        <v>1.860755642748384</v>
+        <v>1.744512535010229</v>
       </c>
       <c r="L8" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="M8">
-        <v>1389.239109986235</v>
+        <v>1389.068429699507</v>
       </c>
       <c r="N8">
-        <v>5214.03623077597</v>
+        <v>1781.550253285428</v>
       </c>
       <c r="O8">
-        <v>1389.239059983735</v>
+        <v>1389.068379697007</v>
       </c>
       <c r="P8">
-        <v>12709.70601930681</v>
+        <v>3838.341257642086</v>
       </c>
       <c r="Q8">
-        <v>1.056960395555173</v>
+        <v>0.9460779548417512</v>
       </c>
       <c r="S8">
-        <v>24.107349174251</v>
+        <v>16.70372608008259</v>
       </c>
       <c r="T8">
-        <v>0.2387136388270076</v>
+        <v>0.2021049621120038</v>
       </c>
       <c r="U8">
-        <v>2.113920791110347</v>
+        <v>1.892155909683502</v>
       </c>
       <c r="V8" t="s">
-        <v>84</v>
-      </c>
-      <c r="W8">
-        <v>1266.184239752058</v>
-      </c>
-      <c r="X8">
-        <v>942.1450178183533</v>
-      </c>
-      <c r="Y8">
-        <v>1.38918094433576</v>
+        <v>73</v>
       </c>
       <c r="Z8">
-        <v>1410.382802387539</v>
+        <v>1410.597199848534</v>
       </c>
       <c r="AA8">
-        <v>1474.96633216173</v>
+        <v>389.9339283035096</v>
       </c>
       <c r="AB8">
-        <v>0.3871534283530712</v>
+        <v>1.232647138951796</v>
       </c>
     </row>
     <row r="9" spans="1:37">
@@ -1334,79 +1235,70 @@
         <v>43</v>
       </c>
       <c r="C9">
-        <v>102.8813071148954</v>
+        <v>102.9080920021697</v>
       </c>
       <c r="D9">
-        <v>1286.211916276214</v>
+        <v>1286.33706515728</v>
       </c>
       <c r="E9">
-        <v>7593.931107140529</v>
+        <v>3522.05815481099</v>
       </c>
       <c r="F9">
-        <v>1286.211966278714</v>
+        <v>1286.33706515728</v>
       </c>
       <c r="G9">
-        <v>16472.24682739309</v>
+        <v>8830.299463350146</v>
       </c>
       <c r="H9">
-        <v>0.8044334561813352</v>
+        <v>0.9566356439761422</v>
       </c>
       <c r="I9">
-        <v>18.34858370897847</v>
+        <v>26.22660741756057</v>
       </c>
       <c r="J9">
-        <v>0.6532680199161917</v>
+        <v>0.5924474021189227</v>
       </c>
       <c r="K9">
-        <v>1.60886691236267</v>
+        <v>1.913271287952284</v>
       </c>
       <c r="L9" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="M9">
-        <v>1389.09332339611</v>
+        <v>1389.24520716195</v>
       </c>
       <c r="N9">
-        <v>9887.118694890691</v>
+        <v>5288.489589012958</v>
       </c>
       <c r="O9">
-        <v>1389.093273393609</v>
+        <v>1389.245157159449</v>
       </c>
       <c r="P9">
-        <v>23187.1770195006</v>
+        <v>13139.06298968382</v>
       </c>
       <c r="Q9">
-        <v>0.9992663775051263</v>
+        <v>1.045223622870332</v>
       </c>
       <c r="S9">
-        <v>29.14307062729388</v>
+        <v>29.25722906128841</v>
       </c>
       <c r="T9">
-        <v>0.2882357672912224</v>
+        <v>0.3240797125812832</v>
       </c>
       <c r="U9">
-        <v>1.998532755010253</v>
+        <v>2.090447245740664</v>
       </c>
       <c r="V9" t="s">
-        <v>84</v>
-      </c>
-      <c r="W9">
-        <v>1265.986709043672</v>
-      </c>
-      <c r="X9">
-        <v>1430.264444118351</v>
-      </c>
-      <c r="Y9">
-        <v>1.03356000166296</v>
+        <v>73</v>
       </c>
       <c r="Z9">
-        <v>1410.422233543375</v>
+        <v>1410.419746312861</v>
       </c>
       <c r="AA9">
-        <v>1763.945704286821</v>
+        <v>1322.528961192593</v>
       </c>
       <c r="AB9">
-        <v>1.010532928757536</v>
+        <v>0.7198688748911239</v>
       </c>
     </row>
     <row r="10" spans="1:37">
@@ -1417,79 +1309,70 @@
         <v>44</v>
       </c>
       <c r="C10">
-        <v>102.8926885298958</v>
+        <v>102.8699791414067</v>
       </c>
       <c r="D10">
-        <v>1286.31768878445</v>
+        <v>1286.225905268246</v>
       </c>
       <c r="E10">
-        <v>4102.195360462599</v>
+        <v>7220.701992233377</v>
       </c>
       <c r="F10">
-        <v>1286.31773878695</v>
+        <v>1286.225905268246</v>
       </c>
       <c r="G10">
-        <v>10500.8665924575</v>
+        <v>15965.3992725293</v>
       </c>
       <c r="H10">
-        <v>0.9487356324444108</v>
+        <v>0.8472861277144058</v>
       </c>
       <c r="I10">
-        <v>18.20441435461158</v>
+        <v>32.95295691208212</v>
       </c>
       <c r="J10">
-        <v>0.6549753228267963</v>
+        <v>0.5758917881770023</v>
       </c>
       <c r="K10">
-        <v>1.897471264888822</v>
+        <v>1.694572255428812</v>
       </c>
       <c r="L10" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="M10">
-        <v>1389.210427316846</v>
+        <v>1389.095934412153</v>
       </c>
       <c r="N10">
-        <v>6039.754800201036</v>
+        <v>9931.910171821643</v>
       </c>
       <c r="O10">
-        <v>1389.210427316846</v>
+        <v>1389.095884409653</v>
       </c>
       <c r="P10">
-        <v>14793.95464402106</v>
+        <v>23532.47700967595</v>
       </c>
       <c r="Q10">
-        <v>1.064779145002016</v>
+        <v>0.9956539364045248</v>
       </c>
       <c r="S10">
-        <v>27.506078508969</v>
+        <v>33.30569549840243</v>
       </c>
       <c r="T10">
-        <v>0.2312528988536798</v>
+        <v>0.3271654304109221</v>
       </c>
       <c r="U10">
-        <v>2.129558290004033</v>
+        <v>1.99130787280905</v>
       </c>
       <c r="V10" t="s">
-        <v>84</v>
-      </c>
-      <c r="W10">
-        <v>1266.092797736468</v>
-      </c>
-      <c r="X10">
-        <v>1062.530307716282</v>
-      </c>
-      <c r="Y10">
-        <v>1.113659451310339</v>
+        <v>73</v>
       </c>
       <c r="Z10">
-        <v>1410.486974757809</v>
+        <v>1410.361221083588</v>
       </c>
       <c r="AA10">
-        <v>1008.712871567025</v>
+        <v>2607.957257880065</v>
       </c>
       <c r="AB10">
-        <v>0.9631799843239235</v>
+        <v>0.4420445881704602</v>
       </c>
     </row>
     <row r="11" spans="1:37">
@@ -1500,79 +1383,70 @@
         <v>45</v>
       </c>
       <c r="C11">
-        <v>102.8695616768894</v>
+        <v>102.885461501075</v>
       </c>
       <c r="D11">
-        <v>1285.522185723017</v>
+        <v>1286.327966782648</v>
       </c>
       <c r="E11">
-        <v>5556.129322226679</v>
+        <v>4023.009193485474</v>
       </c>
       <c r="F11">
-        <v>1285.522235725517</v>
+        <v>1286.327966782648</v>
       </c>
       <c r="G11">
-        <v>15613.03064095965</v>
+        <v>10169.58231660839</v>
       </c>
       <c r="H11">
-        <v>1.112515186287264</v>
+        <v>0.9695283982803559</v>
       </c>
       <c r="I11">
-        <v>26.01146518929755</v>
+        <v>27.59655671805853</v>
       </c>
       <c r="J11">
-        <v>0.4882108022755152</v>
+        <v>0.5762663189803748</v>
       </c>
       <c r="K11">
-        <v>2.225030372574529</v>
+        <v>1.939056796560712</v>
       </c>
       <c r="L11" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="M11">
-        <v>1388.391847404906</v>
+        <v>1389.213428283723</v>
       </c>
       <c r="N11">
-        <v>11328.29176334988</v>
+        <v>6078.563254230005</v>
       </c>
       <c r="O11">
-        <v>1388.391797402406</v>
+        <v>1389.213428283723</v>
       </c>
       <c r="P11">
-        <v>25600.56069877674</v>
+        <v>15047.15920166486</v>
       </c>
       <c r="Q11">
-        <v>0.7923359870406225</v>
+        <v>1.059591606659775</v>
       </c>
       <c r="S11">
-        <v>52.71148160700044</v>
+        <v>27.13795897205863</v>
       </c>
       <c r="T11">
-        <v>0.7866692661385751</v>
+        <v>0.2752685531561275</v>
       </c>
       <c r="U11">
-        <v>1.584671974081245</v>
+        <v>2.119183213319551</v>
       </c>
       <c r="V11" t="s">
-        <v>84</v>
-      </c>
-      <c r="W11">
-        <v>1265.471618844823</v>
-      </c>
-      <c r="X11">
-        <v>1486.327257889964</v>
-      </c>
-      <c r="Y11">
-        <v>1.267178175995225</v>
+        <v>73</v>
       </c>
       <c r="Z11">
-        <v>1409.830706682395</v>
+        <v>1410.496323236546</v>
       </c>
       <c r="AA11">
-        <v>1415.069221941849</v>
+        <v>1054.109143004536</v>
       </c>
       <c r="AB11">
-        <v>1.038883795329834</v>
+        <v>1.012109308764504</v>
       </c>
     </row>
     <row r="12" spans="1:37">
@@ -1583,79 +1457,70 @@
         <v>46</v>
       </c>
       <c r="C12">
-        <v>102.9141507501108</v>
+        <v>102.681924145043</v>
       </c>
       <c r="D12">
-        <v>1285.520538280736</v>
+        <v>1286.744269074002</v>
       </c>
       <c r="E12">
-        <v>5466.837126801079</v>
+        <v>2413.627116500184</v>
       </c>
       <c r="F12">
-        <v>1285.520588283236</v>
+        <v>1286.744269074002</v>
       </c>
       <c r="G12">
-        <v>15073.77890743682</v>
+        <v>5114.079446855475</v>
       </c>
       <c r="H12">
-        <v>1.096196882929861</v>
+        <v>0.9878349121952636</v>
       </c>
       <c r="I12">
-        <v>22.0349390527215</v>
+        <v>28.66511700125293</v>
       </c>
       <c r="J12">
-        <v>0.4772932188443745</v>
+        <v>0.03046727262352261</v>
       </c>
       <c r="K12">
-        <v>2.192393765859723</v>
+        <v>1.975669824390527</v>
       </c>
       <c r="L12" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="M12">
-        <v>1388.434739033347</v>
+        <v>1389.426193219045</v>
       </c>
       <c r="N12">
-        <v>10353.74910174893</v>
+        <v>3618.155912745734</v>
       </c>
       <c r="O12">
-        <v>1388.434739033347</v>
+        <v>1389.426193219045</v>
       </c>
       <c r="P12">
-        <v>23331.47651649715</v>
+        <v>7825.790960761151</v>
       </c>
       <c r="Q12">
-        <v>0.8692161011816356</v>
+        <v>1.015965028409881</v>
       </c>
       <c r="S12">
-        <v>26.92936250887911</v>
+        <v>21.16580695894754</v>
       </c>
       <c r="T12">
-        <v>0.5547159675765231</v>
+        <v>9.021961511201937E-10</v>
       </c>
       <c r="U12">
-        <v>1.738432202363271</v>
+        <v>2.031930056819761</v>
       </c>
       <c r="V12" t="s">
-        <v>84</v>
-      </c>
-      <c r="W12">
-        <v>1265.225794860831</v>
-      </c>
-      <c r="X12">
-        <v>1601.369395197756</v>
-      </c>
-      <c r="Y12">
-        <v>1.342735499461678</v>
+        <v>73</v>
       </c>
       <c r="Z12">
-        <v>1409.843711421218</v>
+        <v>1410.694321054983</v>
       </c>
       <c r="AA12">
-        <v>1481.100387444918</v>
+        <v>1163.827759507055</v>
       </c>
       <c r="AB12">
-        <v>1.127677787452444</v>
+        <v>0.9565054663711626</v>
       </c>
     </row>
     <row r="13" spans="1:37">
@@ -1666,79 +1531,70 @@
         <v>47</v>
       </c>
       <c r="C13">
-        <v>102.8890294956827</v>
+        <v>102.6805832358491</v>
       </c>
       <c r="D13">
-        <v>1285.616034356565</v>
+        <v>1286.733661169378</v>
       </c>
       <c r="E13">
-        <v>4781.007270287133</v>
+        <v>1614.751457654623</v>
       </c>
       <c r="F13">
-        <v>1285.616084359065</v>
+        <v>1286.733661169378</v>
       </c>
       <c r="G13">
-        <v>13012.87717201469</v>
+        <v>3250.999788583541</v>
       </c>
       <c r="H13">
-        <v>1.063666962469067</v>
+        <v>0.9251820702062981</v>
       </c>
       <c r="I13">
-        <v>21.63726644056737</v>
+        <v>28.05411845613767</v>
       </c>
       <c r="J13">
-        <v>0.52178146292378</v>
+        <v>0.06959734258670291</v>
       </c>
       <c r="K13">
-        <v>2.127333924938134</v>
+        <v>1.850364140412596</v>
       </c>
       <c r="L13" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="M13">
-        <v>1388.505163857247</v>
+        <v>1389.414244405227</v>
       </c>
       <c r="N13">
-        <v>8420.161129308872</v>
+        <v>2417.919255396599</v>
       </c>
       <c r="O13">
-        <v>1388.505113854747</v>
+        <v>1389.414244405227</v>
       </c>
       <c r="P13">
-        <v>20559.32415691936</v>
+        <v>5051.198755295767</v>
       </c>
       <c r="Q13">
-        <v>0.9413010559132233</v>
+        <v>0.9812743733344967</v>
       </c>
       <c r="S13">
-        <v>29.50508405421014</v>
+        <v>27.02772507074142</v>
       </c>
       <c r="T13">
-        <v>0.556141387163776</v>
+        <v>5.499611877013422E-11</v>
       </c>
       <c r="U13">
-        <v>1.882602111826447</v>
+        <v>1.962548746668993</v>
       </c>
       <c r="V13" t="s">
-        <v>84</v>
-      </c>
-      <c r="W13">
-        <v>1265.278852524017</v>
-      </c>
-      <c r="X13">
-        <v>1197.26736139884</v>
-      </c>
-      <c r="Y13">
-        <v>1.079986978062581</v>
+        <v>73</v>
       </c>
       <c r="Z13">
-        <v>1409.811701436051</v>
+        <v>1410.576584599673</v>
       </c>
       <c r="AA13">
-        <v>1204.63671492582</v>
+        <v>958.026422836637</v>
       </c>
       <c r="AB13">
-        <v>1.054041213131621</v>
+        <v>0.7584413321575874</v>
       </c>
     </row>
     <row r="14" spans="1:37">
@@ -1749,79 +1605,70 @@
         <v>48</v>
       </c>
       <c r="C14">
-        <v>102.9271149896576</v>
+        <v>102.734880578319</v>
       </c>
       <c r="D14">
-        <v>1285.562550066605</v>
+        <v>1286.789115029725</v>
       </c>
       <c r="E14">
-        <v>5063.442805594372</v>
+        <v>1802.073518378887</v>
       </c>
       <c r="F14">
-        <v>1285.562600069105</v>
+        <v>1286.789115029725</v>
       </c>
       <c r="G14">
-        <v>14113.72248935315</v>
+        <v>3979.559710993811</v>
       </c>
       <c r="H14">
-        <v>1.124828461786004</v>
+        <v>0.9721434230800418</v>
       </c>
       <c r="I14">
-        <v>14.63923665228557</v>
+        <v>21.88877118488108</v>
       </c>
       <c r="J14">
-        <v>0.4377005777797828</v>
+        <v>0.2033145740325906</v>
       </c>
       <c r="K14">
-        <v>2.249656923572007</v>
+        <v>1.944286846160084</v>
       </c>
       <c r="L14" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="M14">
-        <v>1388.489765061263</v>
+        <v>1389.524045610544</v>
       </c>
       <c r="N14">
-        <v>9112.246096998861</v>
+        <v>2751.276858108638</v>
       </c>
       <c r="O14">
-        <v>1388.489715058763</v>
+        <v>1389.523995608044</v>
       </c>
       <c r="P14">
-        <v>21947.3876899254</v>
+        <v>5994.478488206599</v>
       </c>
       <c r="Q14">
-        <v>0.9286433684290828</v>
+        <v>0.9757311177679132</v>
       </c>
       <c r="S14">
-        <v>22.6118523098816</v>
+        <v>14.60296034254147</v>
       </c>
       <c r="T14">
-        <v>0.5558982582848314</v>
+        <v>0.1446603364953762</v>
       </c>
       <c r="U14">
-        <v>1.857286736858166</v>
+        <v>1.951462235535826</v>
       </c>
       <c r="V14" t="s">
-        <v>84</v>
-      </c>
-      <c r="W14">
-        <v>1265.298424678805</v>
-      </c>
-      <c r="X14">
-        <v>1324.775780991285</v>
-      </c>
-      <c r="Y14">
-        <v>1.415193552747654</v>
+        <v>73</v>
       </c>
       <c r="Z14">
-        <v>1409.811142199054</v>
+        <v>1410.599799167864</v>
       </c>
       <c r="AA14">
-        <v>1697.862202915363</v>
+        <v>828.2513603357188</v>
       </c>
       <c r="AB14">
-        <v>1.208188734625325</v>
+        <v>0.7339193519726637</v>
       </c>
     </row>
     <row r="15" spans="1:37">
@@ -1832,79 +1679,70 @@
         <v>49</v>
       </c>
       <c r="C15">
-        <v>102.9674747454767</v>
+        <v>102.7863917032746</v>
       </c>
       <c r="D15">
-        <v>1285.53620266781</v>
+        <v>1286.641044769061</v>
       </c>
       <c r="E15">
-        <v>2650.813306163281</v>
+        <v>435.264337751287</v>
       </c>
       <c r="F15">
-        <v>1285.53625267031</v>
+        <v>1286.641044769061</v>
       </c>
       <c r="G15">
-        <v>7424.323931033037</v>
+        <v>1158.774808420543</v>
       </c>
       <c r="H15">
-        <v>1.080467104773927</v>
+        <v>0.8747294391523273</v>
       </c>
       <c r="I15">
-        <v>23.62858613258692</v>
+        <v>19.60791936671801</v>
       </c>
       <c r="J15">
-        <v>0.5545972774164533</v>
+        <v>0.9502519757709795</v>
       </c>
       <c r="K15">
-        <v>2.160934209547853</v>
+        <v>1.749458878304655</v>
       </c>
       <c r="L15" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="M15">
-        <v>1388.503727415787</v>
+        <v>1389.427486474835</v>
       </c>
       <c r="N15">
-        <v>4876.459897904452</v>
+        <v>1087.089925698818</v>
       </c>
       <c r="O15">
-        <v>1388.503727415787</v>
+        <v>1389.427436472335</v>
       </c>
       <c r="P15">
-        <v>11471.55518440122</v>
+        <v>1673.938481893931</v>
       </c>
       <c r="Q15">
-        <v>0.8938430289589993</v>
+        <v>0.6210887437710108</v>
       </c>
       <c r="S15">
-        <v>25.19596705368788</v>
+        <v>16.33625522261445</v>
       </c>
       <c r="T15">
-        <v>0.5927901609567111</v>
+        <v>0.4389652172784942</v>
       </c>
       <c r="U15">
-        <v>1.787686057917999</v>
+        <v>1.242177487542022</v>
       </c>
       <c r="V15" t="s">
-        <v>84</v>
-      </c>
-      <c r="W15">
-        <v>1264.909848084958</v>
-      </c>
-      <c r="X15">
-        <v>7451.693917911608</v>
-      </c>
-      <c r="Y15">
-        <v>0.2293044035436294</v>
+        <v>73</v>
       </c>
       <c r="Z15">
-        <v>1409.777399877393</v>
+        <v>1410.444141144135</v>
       </c>
       <c r="AA15">
-        <v>783.5199073228237</v>
+        <v>388.1796870366107</v>
       </c>
       <c r="AB15">
-        <v>1.26668015020749</v>
+        <v>1.054833721932805</v>
       </c>
     </row>
     <row r="16" spans="1:37">
@@ -1915,79 +1753,70 @@
         <v>50</v>
       </c>
       <c r="C16">
-        <v>102.9201310524711</v>
+        <v>102.8043195433772</v>
       </c>
       <c r="D16">
-        <v>1285.536506673561</v>
+        <v>1286.491621517951</v>
       </c>
       <c r="E16">
-        <v>3471.810806455623</v>
+        <v>463.3680420926002</v>
       </c>
       <c r="F16">
-        <v>1285.536556676061</v>
+        <v>1286.491621517951</v>
       </c>
       <c r="G16">
-        <v>9732.360907746912</v>
+        <v>955.6739637627564</v>
       </c>
       <c r="H16">
-        <v>1.089457418445432</v>
+        <v>0.7484540955660969</v>
       </c>
       <c r="I16">
-        <v>17.47919605082978</v>
+        <v>19.55999435596958</v>
       </c>
       <c r="J16">
-        <v>0.5359635278782354</v>
+        <v>0.7285225870324648</v>
       </c>
       <c r="K16">
-        <v>2.178914836890864</v>
+        <v>1.496908191132194</v>
       </c>
       <c r="L16" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="M16">
-        <v>1388.456737731032</v>
+        <v>1389.295991063828</v>
       </c>
       <c r="N16">
-        <v>6464.347005483527</v>
+        <v>613.8264534297509</v>
       </c>
       <c r="O16">
-        <v>1388.456687728532</v>
+        <v>1389.295941061328</v>
       </c>
       <c r="P16">
-        <v>14713.59711941202</v>
+        <v>1361.868154826031</v>
       </c>
       <c r="Q16">
-        <v>0.8695281316362854</v>
+        <v>1.008663438156559</v>
       </c>
       <c r="S16">
-        <v>18.54887804132098</v>
+        <v>17.04929791738041</v>
       </c>
       <c r="T16">
-        <v>0.5792353229890813</v>
+        <v>0.1013236717371634</v>
       </c>
       <c r="U16">
-        <v>1.739056263272571</v>
+        <v>2.017326876313117</v>
       </c>
       <c r="V16" t="s">
-        <v>84</v>
-      </c>
-      <c r="W16">
-        <v>1265.270346565947</v>
-      </c>
-      <c r="X16">
-        <v>907.1842002872087</v>
-      </c>
-      <c r="Y16">
-        <v>1.242718266739194</v>
+        <v>73</v>
       </c>
       <c r="Z16">
-        <v>1409.894339255941</v>
+        <v>1410.281744959499</v>
       </c>
       <c r="AA16">
-        <v>1127.55224032396</v>
+        <v>496.1975664110009</v>
       </c>
       <c r="AB16">
-        <v>1.203944797657932</v>
+        <v>1.007633576623516</v>
       </c>
     </row>
     <row r="17" spans="1:28">
@@ -1998,79 +1827,70 @@
         <v>51</v>
       </c>
       <c r="C17">
-        <v>102.8405933594609</v>
+        <v>102.886619859084</v>
       </c>
       <c r="D17">
-        <v>1285.46125499981</v>
+        <v>1286.471245938909</v>
       </c>
       <c r="E17">
-        <v>4555.813610132329</v>
+        <v>358.308890563801</v>
       </c>
       <c r="F17">
-        <v>1285.46130500231</v>
+        <v>1286.471245938909</v>
       </c>
       <c r="G17">
-        <v>12499.16316930576</v>
+        <v>677.9445006895349</v>
       </c>
       <c r="H17">
-        <v>1.066012217319766</v>
+        <v>0.8721132175777936</v>
       </c>
       <c r="I17">
-        <v>21.01875786311689</v>
+        <v>17.18413289298432</v>
       </c>
       <c r="J17">
-        <v>0.5369157251203217</v>
+        <v>0.08923019101922808</v>
       </c>
       <c r="K17">
-        <v>2.132024434639531</v>
+        <v>1.744226435155587</v>
       </c>
       <c r="L17" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="M17">
-        <v>1388.301948364271</v>
+        <v>1389.357865797993</v>
       </c>
       <c r="N17">
-        <v>14483.53191956789</v>
+        <v>960.5455094164397</v>
       </c>
       <c r="O17">
-        <v>1388.301898361771</v>
+        <v>1389.357865797993</v>
       </c>
       <c r="P17">
-        <v>23162.3281688004</v>
+        <v>1409.613395481067</v>
       </c>
       <c r="Q17">
-        <v>0.5090664760642565</v>
+        <v>0.5851591092693913</v>
       </c>
       <c r="S17">
-        <v>52.6349894849603</v>
+        <v>11.00729780866478</v>
       </c>
       <c r="T17">
-        <v>1</v>
+        <v>0.4687755062729987</v>
       </c>
       <c r="U17">
-        <v>1.018132952128513</v>
+        <v>1.170318218538783</v>
       </c>
       <c r="V17" t="s">
-        <v>84</v>
-      </c>
-      <c r="W17">
-        <v>1265.40544231782</v>
-      </c>
-      <c r="X17">
-        <v>1357.581678229594</v>
-      </c>
-      <c r="Y17">
-        <v>1.374508294079103</v>
+        <v>73</v>
       </c>
       <c r="Z17">
-        <v>1410.067342372421</v>
+        <v>1410.15250598425</v>
       </c>
       <c r="AA17">
-        <v>1469.619328878512</v>
+        <v>291.8271190047095</v>
       </c>
       <c r="AB17">
-        <v>0.5625225834260281</v>
+        <v>1.127011347526245</v>
       </c>
     </row>
     <row r="18" spans="1:28">
@@ -2081,79 +1901,70 @@
         <v>52</v>
       </c>
       <c r="C18">
-        <v>102.9344355813184</v>
+        <v>102.6004907944759</v>
       </c>
       <c r="D18">
-        <v>1285.729051444457</v>
+        <v>1286.798387022337</v>
       </c>
       <c r="E18">
-        <v>4751.483053085938</v>
+        <v>386.4362022610113</v>
       </c>
       <c r="F18">
-        <v>1285.729101446957</v>
+        <v>1286.798387022337</v>
       </c>
       <c r="G18">
-        <v>12806.60124593987</v>
+        <v>827.8254961695607</v>
       </c>
       <c r="H18">
-        <v>1.127628664489044</v>
+        <v>0.9415949731230547</v>
       </c>
       <c r="I18">
-        <v>17.83352577113596</v>
+        <v>20.43287129329144</v>
       </c>
       <c r="J18">
-        <v>0.3398350913625513</v>
+        <v>0.1993184090375956</v>
       </c>
       <c r="K18">
-        <v>2.255257328978088</v>
+        <v>1.883189946246109</v>
       </c>
       <c r="L18" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="M18">
-        <v>1388.663537028276</v>
+        <v>1389.398927819313</v>
       </c>
       <c r="N18">
-        <v>8359.006137485996</v>
+        <v>748.0409270003902</v>
       </c>
       <c r="O18">
-        <v>1388.663537028276</v>
+        <v>1389.398877816813</v>
       </c>
       <c r="P18">
-        <v>20432.78908433182</v>
+        <v>1624.250201410449</v>
       </c>
       <c r="Q18">
-        <v>0.9563049885924689</v>
+        <v>0.8647954806004835</v>
       </c>
       <c r="S18">
-        <v>29.70878458299421</v>
+        <v>19.2429770173943</v>
       </c>
       <c r="T18">
-        <v>0.5184410197776191</v>
+        <v>0.4731490239979545</v>
       </c>
       <c r="U18">
-        <v>1.912609977184938</v>
+        <v>1.729590961200967</v>
       </c>
       <c r="V18" t="s">
-        <v>84</v>
-      </c>
-      <c r="W18">
-        <v>1265.548286608956</v>
-      </c>
-      <c r="X18">
-        <v>1274.736630743467</v>
-      </c>
-      <c r="Y18">
-        <v>1.215050202542457</v>
+        <v>73</v>
       </c>
       <c r="Z18">
-        <v>1409.969535285944</v>
+        <v>1410.379238204627</v>
       </c>
       <c r="AA18">
-        <v>1427.879669475438</v>
+        <v>541.0464531497427</v>
       </c>
       <c r="AB18">
-        <v>1.157150869129939</v>
+        <v>0.9516155378467643</v>
       </c>
     </row>
     <row r="19" spans="1:28">
@@ -2164,79 +1975,70 @@
         <v>53</v>
       </c>
       <c r="C19">
-        <v>102.9533298183626</v>
+        <v>102.6481942552991</v>
       </c>
       <c r="D19">
-        <v>1285.83331755064</v>
+        <v>1286.573997385663</v>
       </c>
       <c r="E19">
-        <v>1897.094842834367</v>
+        <v>984.8210979230105</v>
       </c>
       <c r="F19">
-        <v>1285.833367553141</v>
+        <v>1286.573997385663</v>
       </c>
       <c r="G19">
-        <v>5685.045870204106</v>
+        <v>2009.977841824973</v>
       </c>
       <c r="H19">
-        <v>1.166265503058302</v>
+        <v>0.9259452644132061</v>
       </c>
       <c r="I19">
-        <v>13.8126137110113</v>
+        <v>28.2683517272161</v>
       </c>
       <c r="J19">
-        <v>0.5330360277025679</v>
+        <v>0.108507890780533</v>
       </c>
       <c r="K19">
-        <v>2.332531006116603</v>
+        <v>1.851890528826412</v>
       </c>
       <c r="L19" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="M19">
-        <v>1388.786697371503</v>
+        <v>1389.222191640963</v>
       </c>
       <c r="N19">
-        <v>3081.426789575823</v>
+        <v>1536.918983221817</v>
       </c>
       <c r="O19">
-        <v>1388.786697371503</v>
+        <v>1389.222191640963</v>
       </c>
       <c r="P19">
-        <v>8724.539238794076</v>
+        <v>2965.832989642902</v>
       </c>
       <c r="Q19">
-        <v>1.084515998655828</v>
+        <v>0.9064284121048781</v>
       </c>
       <c r="S19">
-        <v>21.76107310138909</v>
+        <v>19.75576755297575</v>
       </c>
       <c r="T19">
-        <v>0.5724741074102805</v>
+        <v>5.551115123125783E-17</v>
       </c>
       <c r="U19">
-        <v>2.169031997311656</v>
+        <v>1.812856824209756</v>
       </c>
       <c r="V19" t="s">
-        <v>84</v>
-      </c>
-      <c r="W19">
-        <v>1265.932903242439</v>
-      </c>
-      <c r="X19">
-        <v>730.7775234000112</v>
-      </c>
-      <c r="Y19">
-        <v>1.991657911573443</v>
+        <v>73</v>
       </c>
       <c r="Z19">
-        <v>1410.116575330673</v>
+        <v>1410.329970196421</v>
       </c>
       <c r="AA19">
-        <v>587.7220045904355</v>
+        <v>932.1319934833864</v>
       </c>
       <c r="AB19">
-        <v>1.233989074794209</v>
+        <v>0.4915073654543949</v>
       </c>
     </row>
     <row r="20" spans="1:28">
@@ -2247,79 +2049,70 @@
         <v>54</v>
       </c>
       <c r="C20">
-        <v>102.9006327425905</v>
+        <v>102.5684781272168</v>
       </c>
       <c r="D20">
-        <v>1285.614460203936</v>
+        <v>1286.781190614447</v>
       </c>
       <c r="E20">
-        <v>5435.508379824624</v>
+        <v>369.4355193964985</v>
       </c>
       <c r="F20">
-        <v>1285.614510206437</v>
+        <v>1286.781190614447</v>
       </c>
       <c r="G20">
-        <v>14754.94293798784</v>
+        <v>761.3153726917329</v>
       </c>
       <c r="H20">
-        <v>1.096937834682544</v>
+        <v>0.9731144579080604</v>
       </c>
       <c r="I20">
-        <v>21.91298409764758</v>
+        <v>19.12102705141448</v>
       </c>
       <c r="J20">
-        <v>0.4341362123998046</v>
+        <v>2.83500804498793E-08</v>
       </c>
       <c r="K20">
-        <v>2.193875669365089</v>
+        <v>1.946228915816121</v>
       </c>
       <c r="L20" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="M20">
-        <v>1388.515142949027</v>
+        <v>1389.349668741664</v>
       </c>
       <c r="N20">
-        <v>9935.168259336604</v>
+        <v>620.7927794928229</v>
       </c>
       <c r="O20">
-        <v>1388.515142949027</v>
+        <v>1389.349668741664</v>
       </c>
       <c r="P20">
-        <v>23478.44606985967</v>
+        <v>1205.044523409177</v>
       </c>
       <c r="Q20">
-        <v>0.8859961717043471</v>
+        <v>0.9117887504662502</v>
       </c>
       <c r="S20">
-        <v>39.62266173849466</v>
+        <v>17.79355402601108</v>
       </c>
       <c r="T20">
-        <v>0.6261157376672504</v>
+        <v>5.551115123125783E-17</v>
       </c>
       <c r="U20">
-        <v>1.771992343408694</v>
+        <v>1.8235775009325</v>
       </c>
       <c r="V20" t="s">
-        <v>84</v>
-      </c>
-      <c r="W20">
-        <v>1265.433687402728</v>
-      </c>
-      <c r="X20">
-        <v>1493.179122900049</v>
-      </c>
-      <c r="Y20">
-        <v>1.266774454420786</v>
+        <v>73</v>
       </c>
       <c r="Z20">
-        <v>1409.874363232875</v>
+        <v>1410.3010621845</v>
       </c>
       <c r="AA20">
-        <v>1618.692885042</v>
+        <v>447.3671241647439</v>
       </c>
       <c r="AB20">
-        <v>1.147883870101098</v>
+        <v>0.5050625427917591</v>
       </c>
     </row>
     <row r="21" spans="1:28">
@@ -2330,79 +2123,70 @@
         <v>55</v>
       </c>
       <c r="C21">
-        <v>102.7835625428702</v>
+        <v>102.6703296358119</v>
       </c>
       <c r="D21">
-        <v>1285.974428349854</v>
+        <v>1286.480205771355</v>
       </c>
       <c r="E21">
-        <v>1040.428254349762</v>
+        <v>2040.342788195842</v>
       </c>
       <c r="F21">
-        <v>1285.974478352354</v>
+        <v>1286.480205771355</v>
       </c>
       <c r="G21">
-        <v>2967.199744370937</v>
+        <v>4037.07862376027</v>
       </c>
       <c r="H21">
-        <v>1.012576270216277</v>
+        <v>0.926518490821846</v>
       </c>
       <c r="I21">
-        <v>18.19195536046025</v>
+        <v>45.39038357853781</v>
       </c>
       <c r="J21">
-        <v>0.7602061487620464</v>
+        <v>0.02173392328456775</v>
       </c>
       <c r="K21">
-        <v>2.025152540432553</v>
+        <v>1.853036981643692</v>
       </c>
       <c r="L21" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="M21">
-        <v>1388.758090897725</v>
+        <v>1389.150585409667</v>
       </c>
       <c r="N21">
-        <v>1507.584601678342</v>
+        <v>3148.269227624803</v>
       </c>
       <c r="O21">
-        <v>1388.758040895225</v>
+        <v>1389.150535407167</v>
       </c>
       <c r="P21">
-        <v>5190.746625523536</v>
+        <v>6802.178318703645</v>
       </c>
       <c r="Q21">
-        <v>1.095969304515456</v>
+        <v>0.944416432891264</v>
       </c>
       <c r="S21">
-        <v>42.79151172502945</v>
+        <v>26.2621521995728</v>
       </c>
       <c r="T21">
-        <v>0.9999993851462387</v>
+        <v>0.2155719570975127</v>
       </c>
       <c r="U21">
-        <v>2.191938609030912</v>
+        <v>1.888832865782528</v>
       </c>
       <c r="V21" t="s">
-        <v>84</v>
-      </c>
-      <c r="W21">
-        <v>1265.801003567417</v>
-      </c>
-      <c r="X21">
-        <v>561.3843976928189</v>
-      </c>
-      <c r="Y21">
-        <v>2.974043829726818</v>
+        <v>73</v>
       </c>
       <c r="Z21">
-        <v>1410.205775018251</v>
+        <v>1410.481371623903</v>
       </c>
       <c r="AA21">
-        <v>196.0234728949559</v>
+        <v>747.6075651823415</v>
       </c>
       <c r="AB21">
-        <v>0.8184622692982562</v>
+        <v>1.069771045606356</v>
       </c>
     </row>
     <row r="22" spans="1:28">
@@ -2413,79 +2197,70 @@
         <v>56</v>
       </c>
       <c r="C22">
-        <v>102.8989026854099</v>
+        <v>102.6348016278453</v>
       </c>
       <c r="D22">
-        <v>1285.690806959592</v>
+        <v>1286.426876632096</v>
       </c>
       <c r="E22">
-        <v>3731.578837918063</v>
+        <v>2460.287898074755</v>
       </c>
       <c r="F22">
-        <v>1285.690856962093</v>
+        <v>1286.426876632096</v>
       </c>
       <c r="G22">
-        <v>10606.09327148848</v>
+        <v>5140.428514659</v>
       </c>
       <c r="H22">
-        <v>1.154530284076743</v>
+        <v>0.9659505414007854</v>
       </c>
       <c r="I22">
-        <v>17.29092216626301</v>
+        <v>36.69619105103804</v>
       </c>
       <c r="J22">
-        <v>0.4202263427453318</v>
+        <v>0.05696598403979475</v>
       </c>
       <c r="K22">
-        <v>2.309060568153486</v>
+        <v>1.931901082801571</v>
       </c>
       <c r="L22" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="M22">
-        <v>1388.589809650003</v>
+        <v>1389.061678259941</v>
       </c>
       <c r="N22">
-        <v>6405.084901376901</v>
+        <v>3785.945621643044</v>
       </c>
       <c r="O22">
-        <v>1388.589759647502</v>
+        <v>1389.061678259941</v>
       </c>
       <c r="P22">
-        <v>16401.19653887035</v>
+        <v>8022.921099211243</v>
       </c>
       <c r="Q22">
-        <v>0.9607977826584309</v>
+        <v>0.936534878507354</v>
       </c>
       <c r="S22">
-        <v>31.49771157950905</v>
+        <v>21.66375527168431</v>
       </c>
       <c r="T22">
-        <v>0.6241957343400364</v>
+        <v>0.1834510792346982</v>
       </c>
       <c r="U22">
-        <v>1.921595565316862</v>
+        <v>1.873069757014708</v>
       </c>
       <c r="V22" t="s">
-        <v>84</v>
-      </c>
-      <c r="W22">
-        <v>1265.408796675875</v>
-      </c>
-      <c r="X22">
-        <v>1076.451739301235</v>
-      </c>
-      <c r="Y22">
-        <v>1.214526886919879</v>
+        <v>73</v>
       </c>
       <c r="Z22">
-        <v>1409.960090461421</v>
+        <v>1410.376707075025</v>
       </c>
       <c r="AA22">
-        <v>1255.771245058786</v>
+        <v>943.4902416997346</v>
       </c>
       <c r="AB22">
-        <v>1.175541383370811</v>
+        <v>0.9449054496154625</v>
       </c>
     </row>
     <row r="23" spans="1:28">
@@ -2496,79 +2271,70 @@
         <v>57</v>
       </c>
       <c r="C23">
-        <v>102.6811291194458</v>
+        <v>102.666971347403</v>
       </c>
       <c r="D23">
-        <v>1286.744314156203</v>
+        <v>1286.457947838444</v>
       </c>
       <c r="E23">
-        <v>2413.628585111577</v>
+        <v>2612.747555954442</v>
       </c>
       <c r="F23">
-        <v>1286.744364158704</v>
+        <v>1286.457947838444</v>
       </c>
       <c r="G23">
-        <v>5188.147729266651</v>
+        <v>5618.962726249405</v>
       </c>
       <c r="H23">
-        <v>0.9869191322453403</v>
+        <v>0.9554347659079307</v>
       </c>
       <c r="I23">
-        <v>13.53579163566996</v>
+        <v>29.59050335628854</v>
       </c>
       <c r="J23">
-        <v>0.0699061660456739</v>
+        <v>0.1716105163237993</v>
       </c>
       <c r="K23">
-        <v>1.973838264490681</v>
+        <v>1.910869531815861</v>
       </c>
       <c r="L23" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="M23">
-        <v>1389.425493278149</v>
+        <v>1389.124969188347</v>
       </c>
       <c r="N23">
-        <v>3614.571806195794</v>
+        <v>3880.90713560766</v>
       </c>
       <c r="O23">
-        <v>1389.425493278149</v>
+        <v>1389.124919185847</v>
       </c>
       <c r="P23">
-        <v>7857.605530775695</v>
+        <v>8011.027832725596</v>
       </c>
       <c r="Q23">
-        <v>1.021106778387037</v>
+        <v>0.9696003936651183</v>
       </c>
       <c r="S23">
-        <v>21.44742951327708</v>
+        <v>28.86466381893128</v>
       </c>
       <c r="T23">
-        <v>5.002426251010661E-11</v>
+        <v>1.293409823688307E-14</v>
       </c>
       <c r="U23">
-        <v>2.042213556774075</v>
+        <v>1.939200787330237</v>
       </c>
       <c r="V23" t="s">
-        <v>84</v>
-      </c>
-      <c r="W23">
-        <v>1266.498087844297</v>
-      </c>
-      <c r="X23">
-        <v>685.1254559616997</v>
-      </c>
-      <c r="Y23">
-        <v>1.073673426378588</v>
+        <v>73</v>
       </c>
       <c r="Z23">
-        <v>1410.697635610826</v>
+        <v>1410.302176153826</v>
       </c>
       <c r="AA23">
-        <v>1182.838585053107</v>
+        <v>1242.450446000606</v>
       </c>
       <c r="AB23">
-        <v>0.9681271770012365</v>
+        <v>0.5531963473293765</v>
       </c>
     </row>
     <row r="24" spans="1:28">
@@ -2579,70 +2345,70 @@
         <v>58</v>
       </c>
       <c r="C24">
-        <v>102.6801182033671</v>
+        <v>102.6865991423754</v>
       </c>
       <c r="D24">
-        <v>1286.733764786558</v>
+        <v>1286.75408522217</v>
       </c>
       <c r="E24">
-        <v>1612.348538753222</v>
+        <v>425.509235291439</v>
       </c>
       <c r="F24">
-        <v>1286.733764786558</v>
+        <v>1286.75408522217</v>
       </c>
       <c r="G24">
-        <v>3236.283915806427</v>
+        <v>761.5968129691551</v>
       </c>
       <c r="H24">
-        <v>0.9261669138793088</v>
+        <v>0.8280444065916052</v>
       </c>
       <c r="I24">
-        <v>28.31346229083556</v>
+        <v>19.79839134639115</v>
       </c>
       <c r="J24">
-        <v>0.05427771635804951</v>
+        <v>5.939817526723346E-10</v>
       </c>
       <c r="K24">
-        <v>1.852333827758618</v>
+        <v>1.65608881318321</v>
       </c>
       <c r="L24" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="M24">
-        <v>1389.413932992425</v>
+        <v>1389.440684364546</v>
       </c>
       <c r="N24">
-        <v>2416.446154394955</v>
+        <v>966.0209908418811</v>
       </c>
       <c r="O24">
-        <v>1389.413882989925</v>
+        <v>1389.440684364546</v>
       </c>
       <c r="P24">
-        <v>5058.968666384431</v>
+        <v>1556.267491003709</v>
       </c>
       <c r="Q24">
-        <v>0.9833828649855945</v>
+        <v>0.6199172017598487</v>
       </c>
       <c r="S24">
-        <v>27.4816948265509</v>
+        <v>16.4487602218505</v>
       </c>
       <c r="T24">
-        <v>1.721828165601735E-07</v>
+        <v>0.5608513433222618</v>
       </c>
       <c r="U24">
-        <v>1.966765729971189</v>
+        <v>1.239834403519697</v>
       </c>
       <c r="V24" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="Z24">
-        <v>1410.580092868818</v>
+        <v>1409.905351146141</v>
       </c>
       <c r="AA24">
-        <v>960.8860454985058</v>
+        <v>234.9588758598872</v>
       </c>
       <c r="AB24">
-        <v>0.7646714076593469</v>
+        <v>1.44524167900995</v>
       </c>
     </row>
     <row r="25" spans="1:28">
@@ -2653,79 +2419,70 @@
         <v>59</v>
       </c>
       <c r="C25">
-        <v>102.734114392518</v>
+        <v>102.6180232824058</v>
       </c>
       <c r="D25">
-        <v>1286.789871650419</v>
+        <v>1286.900223786638</v>
       </c>
       <c r="E25">
-        <v>1802.779333423415</v>
+        <v>372.7248208724197</v>
       </c>
       <c r="F25">
-        <v>1286.789921652919</v>
+        <v>1286.900223786638</v>
       </c>
       <c r="G25">
-        <v>4059.620565748578</v>
+        <v>1225.68949677208</v>
       </c>
       <c r="H25">
-        <v>0.969591368903687</v>
+        <v>1.057084966545588</v>
       </c>
       <c r="I25">
-        <v>12.13234773624873</v>
+        <v>28.18883091415866</v>
       </c>
       <c r="J25">
-        <v>0.2585488291359322</v>
+        <v>0.9999999807315918</v>
       </c>
       <c r="K25">
-        <v>1.939182737807374</v>
+        <v>2.114169933091176</v>
       </c>
       <c r="L25" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="M25">
-        <v>1389.524036045437</v>
+        <v>1389.518247069043</v>
       </c>
       <c r="N25">
-        <v>2699.565826551969</v>
+        <v>517.3395344029004</v>
       </c>
       <c r="O25">
-        <v>1389.524036045437</v>
+        <v>1389.518247069043</v>
       </c>
       <c r="P25">
-        <v>5879.192500226074</v>
+        <v>1170.781692511092</v>
       </c>
       <c r="Q25">
-        <v>0.9957020557786446</v>
+        <v>1.063011709270168</v>
       </c>
       <c r="S25">
-        <v>17.28846920643435</v>
+        <v>24.7584487594505</v>
       </c>
       <c r="T25">
-        <v>0.08268508353164855</v>
+        <v>5.551115123125783E-17</v>
       </c>
       <c r="U25">
-        <v>1.991404111557289</v>
+        <v>2.126023418540336</v>
       </c>
       <c r="V25" t="s">
-        <v>84</v>
-      </c>
-      <c r="W25">
-        <v>1266.616708573891</v>
-      </c>
-      <c r="X25">
-        <v>481.0442532672594</v>
-      </c>
-      <c r="Y25">
-        <v>0.9390592098729054</v>
+        <v>73</v>
       </c>
       <c r="Z25">
-        <v>1410.632498463407</v>
+        <v>1410.396440902404</v>
       </c>
       <c r="AA25">
-        <v>773.0528300536769</v>
+        <v>355.6333808119639</v>
       </c>
       <c r="AB25">
-        <v>0.784590724067144</v>
+        <v>0.4983431962623323</v>
       </c>
     </row>
     <row r="26" spans="1:28">
@@ -2736,79 +2493,70 @@
         <v>60</v>
       </c>
       <c r="C26">
-        <v>102.7747783697398</v>
+        <v>102.6953123234553</v>
       </c>
       <c r="D26">
-        <v>1286.648418573978</v>
+        <v>1286.665386318116</v>
       </c>
       <c r="E26">
-        <v>436.9791473796896</v>
+        <v>437.4422682771773</v>
       </c>
       <c r="F26">
-        <v>1286.648468576478</v>
+        <v>1286.665386318116</v>
       </c>
       <c r="G26">
-        <v>1234.717780180198</v>
+        <v>1011.529044669686</v>
       </c>
       <c r="H26">
-        <v>0.8994845925473622</v>
+        <v>1.104292770760954</v>
       </c>
       <c r="I26">
-        <v>16.83631864401525</v>
+        <v>26.33272358442821</v>
       </c>
       <c r="J26">
-        <v>0.9999999998979607</v>
+        <v>3.201555687226687E-11</v>
       </c>
       <c r="K26">
-        <v>1.798969185094724</v>
+        <v>2.208585541521908</v>
       </c>
       <c r="L26" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="M26">
-        <v>1389.423296948718</v>
+        <v>1389.360748644071</v>
       </c>
       <c r="N26">
-        <v>1050.102137401356</v>
+        <v>758.9926207261199</v>
       </c>
       <c r="O26">
-        <v>1389.423246946218</v>
+        <v>1389.360698641571</v>
       </c>
       <c r="P26">
-        <v>1721.172771620351</v>
+        <v>2097.9148217278</v>
       </c>
       <c r="Q26">
-        <v>0.6390409247366042</v>
+        <v>1.052114149169527</v>
       </c>
       <c r="S26">
-        <v>18.0228998353544</v>
+        <v>28.25946194293158</v>
       </c>
       <c r="T26">
-        <v>0.5281843389998295</v>
+        <v>0.5899367808885977</v>
       </c>
       <c r="U26">
-        <v>1.278081849473208</v>
+        <v>2.104228298339055</v>
       </c>
       <c r="V26" t="s">
-        <v>84</v>
-      </c>
-      <c r="W26">
-        <v>1266.166564084309</v>
-      </c>
-      <c r="X26">
-        <v>251.6102044834198</v>
-      </c>
-      <c r="Y26">
-        <v>0.7549886122930813</v>
+        <v>73</v>
       </c>
       <c r="Z26">
-        <v>1410.469124415245</v>
+        <v>1410.557677010326</v>
       </c>
       <c r="AA26">
-        <v>451.0439782769727</v>
+        <v>737.2960238288235</v>
       </c>
       <c r="AB26">
-        <v>1.151382961678107</v>
+        <v>0.9229949514407336</v>
       </c>
     </row>
     <row r="27" spans="1:28">
@@ -2819,70 +2567,70 @@
         <v>61</v>
       </c>
       <c r="C27">
-        <v>102.8000906765656</v>
+        <v>102.6958931868101</v>
       </c>
       <c r="D27">
-        <v>1286.49095675064</v>
+        <v>1286.316508625729</v>
       </c>
       <c r="E27">
-        <v>469.5254864137196</v>
+        <v>1933.327326187368</v>
       </c>
       <c r="F27">
-        <v>1286.49095675064</v>
+        <v>1286.316508625729</v>
       </c>
       <c r="G27">
-        <v>974.8271079444281</v>
+        <v>3813.26193615628</v>
       </c>
       <c r="H27">
-        <v>0.7385751693252454</v>
+        <v>0.8219638450219778</v>
       </c>
       <c r="I27">
-        <v>21.04340698892751</v>
+        <v>24.50079136811959</v>
       </c>
       <c r="J27">
-        <v>0.7876052822903383</v>
+        <v>0.3570141285773814</v>
       </c>
       <c r="K27">
-        <v>1.477150338650491</v>
+        <v>1.643927690043956</v>
       </c>
       <c r="L27" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="M27">
-        <v>1389.291097429705</v>
+        <v>1389.012451815039</v>
       </c>
       <c r="N27">
-        <v>602.9716222799543</v>
+        <v>2665.262604754806</v>
       </c>
       <c r="O27">
-        <v>1389.291047427205</v>
+        <v>1389.012401812539</v>
       </c>
       <c r="P27">
-        <v>1307.012047595524</v>
+        <v>5831.409057190251</v>
       </c>
       <c r="Q27">
-        <v>1.018627506105171</v>
+        <v>0.943264180000978</v>
       </c>
       <c r="S27">
-        <v>14.39368451697935</v>
+        <v>16.85609729605603</v>
       </c>
       <c r="T27">
-        <v>4.176647916409593E-11</v>
+        <v>0.255192891892449</v>
       </c>
       <c r="U27">
-        <v>2.037255012210343</v>
+        <v>1.886528360001956</v>
       </c>
       <c r="V27" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="Z27">
-        <v>1410.286488438889</v>
+        <v>1410.281512951849</v>
       </c>
       <c r="AA27">
-        <v>456.0186558711367</v>
+        <v>1187.58750552986</v>
       </c>
       <c r="AB27">
-        <v>0.9640521702825596</v>
+        <v>0.6409218267209931</v>
       </c>
     </row>
     <row r="28" spans="1:28">
@@ -2893,70 +2641,70 @@
         <v>62</v>
       </c>
       <c r="C28">
-        <v>102.8800367534366</v>
+        <v>102.6639619595655</v>
       </c>
       <c r="D28">
-        <v>1286.467739831804</v>
+        <v>1286.303795990711</v>
       </c>
       <c r="E28">
-        <v>360.2586914650784</v>
+        <v>1712.185914462004</v>
       </c>
       <c r="F28">
-        <v>1286.467739831804</v>
+        <v>1286.303795990711</v>
       </c>
       <c r="G28">
-        <v>684.914504442815</v>
+        <v>3559.244322835998</v>
       </c>
       <c r="H28">
-        <v>0.8673577713556058</v>
+        <v>0.8950634432062556</v>
       </c>
       <c r="I28">
-        <v>15.90072282342048</v>
+        <v>26.21129119804883</v>
       </c>
       <c r="J28">
-        <v>0.1246708175676094</v>
+        <v>0.2622535157649745</v>
       </c>
       <c r="K28">
-        <v>1.734715542711212</v>
+        <v>1.790126886412511</v>
       </c>
       <c r="L28" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="M28">
-        <v>1389.34782658774</v>
+        <v>1388.967807952776</v>
       </c>
       <c r="N28">
-        <v>941.1765941111538</v>
+        <v>2565.521226392249</v>
       </c>
       <c r="O28">
-        <v>1389.34777658524</v>
+        <v>1388.967757950276</v>
       </c>
       <c r="P28">
-        <v>1483.642050595405</v>
+        <v>5362.204294837574</v>
       </c>
       <c r="Q28">
-        <v>0.5934017373948932</v>
+        <v>0.9391910954064502</v>
       </c>
       <c r="S28">
-        <v>11.47082376857158</v>
+        <v>12.14616007238597</v>
       </c>
       <c r="T28">
-        <v>0.6164743267446724</v>
+        <v>0.134604930896488</v>
       </c>
       <c r="U28">
-        <v>1.186803474789786</v>
+        <v>1.8783821908129</v>
       </c>
       <c r="V28" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="Z28">
-        <v>1410.191196420529</v>
+        <v>1410.192000494912</v>
       </c>
       <c r="AA28">
-        <v>363.8057887647466</v>
+        <v>960.8907294867627</v>
       </c>
       <c r="AB28">
-        <v>1.058327260037148</v>
+        <v>1.117560447407883</v>
       </c>
     </row>
     <row r="29" spans="1:28">
@@ -2967,70 +2715,70 @@
         <v>63</v>
       </c>
       <c r="C29">
-        <v>102.5989768569</v>
+        <v>102.662577511966</v>
       </c>
       <c r="D29">
-        <v>1286.79904016125</v>
+        <v>1286.438827943575</v>
       </c>
       <c r="E29">
-        <v>387.5226290398879</v>
+        <v>1272.807999694702</v>
       </c>
       <c r="F29">
-        <v>1286.79904016125</v>
+        <v>1286.438827943575</v>
       </c>
       <c r="G29">
-        <v>835.0908190458549</v>
+        <v>2713.221202814539</v>
       </c>
       <c r="H29">
-        <v>0.9397917159964503</v>
+        <v>0.9784985375892965</v>
       </c>
       <c r="I29">
-        <v>19.55867162709093</v>
+        <v>30.31591643598809</v>
       </c>
       <c r="J29">
-        <v>0.2262441949929841</v>
+        <v>0.08908115792623966</v>
       </c>
       <c r="K29">
-        <v>1.879583431992901</v>
+        <v>1.956997075178593</v>
       </c>
       <c r="L29" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="M29">
-        <v>1389.39806702065</v>
+        <v>1389.101455458041</v>
       </c>
       <c r="N29">
-        <v>742.3603055273724</v>
+        <v>1956.210914480943</v>
       </c>
       <c r="O29">
-        <v>1389.39801701815</v>
+        <v>1389.101405455541</v>
       </c>
       <c r="P29">
-        <v>1609.710546329643</v>
+        <v>4240.98824488428</v>
       </c>
       <c r="Q29">
-        <v>0.8699550629632681</v>
+        <v>0.969863641395824</v>
       </c>
       <c r="S29">
-        <v>21.03285177008009</v>
+        <v>20.33440477409895</v>
       </c>
       <c r="T29">
-        <v>0.4537950527793267</v>
+        <v>0.1477413881998527</v>
       </c>
       <c r="U29">
-        <v>1.739910125926536</v>
+        <v>1.939727282791648</v>
       </c>
       <c r="V29" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="Z29">
-        <v>1410.379474389186</v>
+        <v>1410.341829450318</v>
       </c>
       <c r="AA29">
-        <v>533.593233947484</v>
+        <v>861.0107278221577</v>
       </c>
       <c r="AB29">
-        <v>0.9251559369437118</v>
+        <v>0.8817577718408127</v>
       </c>
     </row>
     <row r="30" spans="1:28">
@@ -3041,70 +2789,70 @@
         <v>64</v>
       </c>
       <c r="C30">
-        <v>102.6429587067596</v>
+        <v>102.681924145043</v>
       </c>
       <c r="D30">
-        <v>1286.574506892501</v>
+        <v>1286.744269074002</v>
       </c>
       <c r="E30">
-        <v>983.6352399053609</v>
+        <v>2413.627116500184</v>
       </c>
       <c r="F30">
-        <v>1286.574506892501</v>
+        <v>1286.744269074002</v>
       </c>
       <c r="G30">
-        <v>2003.854132393687</v>
+        <v>5114.079446855475</v>
       </c>
       <c r="H30">
-        <v>0.9267254578122747</v>
+        <v>0.9878349121952636</v>
       </c>
       <c r="I30">
-        <v>27.82674171268626</v>
+        <v>28.66511700125293</v>
       </c>
       <c r="J30">
-        <v>0.09850795384748873</v>
+        <v>0.03046727262352261</v>
       </c>
       <c r="K30">
-        <v>1.853450915624549</v>
+        <v>1.975669824390527</v>
       </c>
       <c r="L30" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="M30">
-        <v>1389.217465599261</v>
+        <v>1389.426193219045</v>
       </c>
       <c r="N30">
-        <v>1534.499232873857</v>
+        <v>3618.155912745734</v>
       </c>
       <c r="O30">
-        <v>1389.217465599261</v>
+        <v>1389.426193219045</v>
       </c>
       <c r="P30">
-        <v>3004.316652334643</v>
+        <v>7825.790960761151</v>
       </c>
       <c r="Q30">
-        <v>0.9187133777468168</v>
+        <v>1.015965028409881</v>
       </c>
       <c r="S30">
-        <v>18.50667869203913</v>
+        <v>21.16580695894754</v>
       </c>
       <c r="T30">
-        <v>0.003118524305250114</v>
+        <v>9.021961511201937E-10</v>
       </c>
       <c r="U30">
-        <v>1.837426755493634</v>
+        <v>2.031930056819761</v>
       </c>
       <c r="V30" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="Z30">
-        <v>1410.333986905466</v>
+        <v>1410.694321054983</v>
       </c>
       <c r="AA30">
-        <v>872.1349917467556</v>
+        <v>1163.827759507055</v>
       </c>
       <c r="AB30">
-        <v>0.5203920093762525</v>
+        <v>0.9565054663711626</v>
       </c>
     </row>
     <row r="31" spans="1:28">
@@ -3115,70 +2863,70 @@
         <v>65</v>
       </c>
       <c r="C31">
-        <v>102.5648273257177</v>
+        <v>102.6865991423754</v>
       </c>
       <c r="D31">
-        <v>1286.780473597801</v>
+        <v>1286.75408522217</v>
       </c>
       <c r="E31">
-        <v>372.2445133202279</v>
+        <v>425.509235291439</v>
       </c>
       <c r="F31">
-        <v>1286.780473597801</v>
+        <v>1286.75408522217</v>
       </c>
       <c r="G31">
-        <v>765.7642455297536</v>
+        <v>761.5968129691551</v>
       </c>
       <c r="H31">
-        <v>0.9762713416102381</v>
+        <v>0.8280444065916052</v>
       </c>
       <c r="I31">
-        <v>18.44864923717131</v>
+        <v>19.79839134639115</v>
       </c>
       <c r="J31">
-        <v>1.902652896346169E-08</v>
+        <v>5.939817526723346E-10</v>
       </c>
       <c r="K31">
-        <v>1.952542683220476</v>
+        <v>1.65608881318321</v>
       </c>
       <c r="L31" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="M31">
-        <v>1389.345300923519</v>
+        <v>1389.440684364546</v>
       </c>
       <c r="N31">
-        <v>617.3018000701966</v>
+        <v>966.0209908418811</v>
       </c>
       <c r="O31">
-        <v>1389.345300923519</v>
+        <v>1389.440684364546</v>
       </c>
       <c r="P31">
-        <v>1219.830992325594</v>
+        <v>1556.267491003709</v>
       </c>
       <c r="Q31">
-        <v>0.9263938918097018</v>
+        <v>0.6199172017598487</v>
       </c>
       <c r="S31">
-        <v>17.37127066410365</v>
+        <v>16.4487602218505</v>
       </c>
       <c r="T31">
-        <v>0.006024783109877696</v>
+        <v>0.5608513433222618</v>
       </c>
       <c r="U31">
-        <v>1.852787783619404</v>
+        <v>1.239834403519697</v>
       </c>
       <c r="V31" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="Z31">
-        <v>1410.302215326804</v>
+        <v>1409.905351146141</v>
       </c>
       <c r="AA31">
-        <v>424.2210866207125</v>
+        <v>234.9588758598872</v>
       </c>
       <c r="AB31">
-        <v>0.5288363714245402</v>
+        <v>1.44524167900995</v>
       </c>
     </row>
     <row r="32" spans="1:28">
@@ -3189,70 +2937,70 @@
         <v>66</v>
       </c>
       <c r="C32">
-        <v>102.6702905514792</v>
+        <v>102.6332694475636</v>
       </c>
       <c r="D32">
-        <v>1286.479770233294</v>
+        <v>1286.866372825202</v>
       </c>
       <c r="E32">
-        <v>2042.396308060871</v>
+        <v>401.0023724700132</v>
       </c>
       <c r="F32">
-        <v>1286.479770233294</v>
+        <v>1286.866372825202</v>
       </c>
       <c r="G32">
-        <v>4046.156525271298</v>
+        <v>919.6133131218322</v>
       </c>
       <c r="H32">
-        <v>0.9259146744289971</v>
+        <v>0.9380131264769263</v>
       </c>
       <c r="I32">
-        <v>42.02648646901544</v>
+        <v>27.28075024344447</v>
       </c>
       <c r="J32">
-        <v>0.02887385841016454</v>
+        <v>0.4784838304360314</v>
       </c>
       <c r="K32">
-        <v>1.851829348857994</v>
+        <v>1.876026252953853</v>
       </c>
       <c r="L32" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="M32">
-        <v>1389.150110787274</v>
+        <v>1389.499642272765</v>
       </c>
       <c r="N32">
-        <v>3145.354703512721</v>
+        <v>1594.74535218923</v>
       </c>
       <c r="O32">
-        <v>1389.150060784774</v>
+        <v>1389.499642272765</v>
       </c>
       <c r="P32">
-        <v>6787.374376926197</v>
+        <v>1699.146052490263</v>
       </c>
       <c r="Q32">
-        <v>0.9451729622052001</v>
+        <v>0.50046897138513</v>
       </c>
       <c r="S32">
-        <v>24.95356839590395</v>
+        <v>21.99203737831031</v>
       </c>
       <c r="T32">
-        <v>0.2096102006575086</v>
+        <v>1.083136358381864E-09</v>
       </c>
       <c r="U32">
-        <v>1.8903459244104</v>
+        <v>1.00093794277026</v>
       </c>
       <c r="V32" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="Z32">
-        <v>1410.483879224737</v>
+        <v>1410.498438956173</v>
       </c>
       <c r="AA32">
-        <v>733.5771201466479</v>
+        <v>365.6429716539507</v>
       </c>
       <c r="AB32">
-        <v>1.082251556430336</v>
+        <v>1.410556562794754</v>
       </c>
     </row>
     <row r="33" spans="1:28">
@@ -3263,79 +3011,70 @@
         <v>67</v>
       </c>
       <c r="C33">
-        <v>102.634788106988</v>
+        <v>102.9043638321352</v>
       </c>
       <c r="D33">
-        <v>1286.425067708836</v>
+        <v>1286.160487584043</v>
       </c>
       <c r="E33">
-        <v>2462.189768413742</v>
+        <v>882.6664268862197</v>
       </c>
       <c r="F33">
-        <v>1286.425117711336</v>
+        <v>1286.160487584043</v>
       </c>
       <c r="G33">
-        <v>5201.585423796648</v>
+        <v>1016.199635019723</v>
       </c>
       <c r="H33">
-        <v>0.9639247307521761</v>
+        <v>0.3684998919442474</v>
       </c>
       <c r="I33">
-        <v>22.20760542794038</v>
+        <v>18.82122042164864</v>
       </c>
       <c r="J33">
-        <v>0.08877485581352418</v>
+        <v>0.9999998991903793</v>
       </c>
       <c r="K33">
-        <v>1.927849461504352</v>
+        <v>0.7369997838884947</v>
       </c>
       <c r="L33" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="M33">
-        <v>1389.059905818324</v>
+        <v>1389.064901418679</v>
       </c>
       <c r="N33">
-        <v>3775.89277679778</v>
+        <v>497.9925743413182</v>
       </c>
       <c r="O33">
-        <v>1389.059905818324</v>
+        <v>1389.064851416179</v>
       </c>
       <c r="P33">
-        <v>7954.87887164366</v>
+        <v>1228.002812101328</v>
       </c>
       <c r="Q33">
-        <v>0.9390684801258987</v>
+        <v>0.8863072976616817</v>
       </c>
       <c r="S33">
-        <v>22.0640666633157</v>
+        <v>11.94771064618621</v>
       </c>
       <c r="T33">
-        <v>0.1583584503891935</v>
+        <v>0.7287339072625294</v>
       </c>
       <c r="U33">
-        <v>1.878136960251797</v>
+        <v>1.772614595323363</v>
       </c>
       <c r="V33" t="s">
-        <v>84</v>
-      </c>
-      <c r="W33">
-        <v>1266.187510597662</v>
-      </c>
-      <c r="X33">
-        <v>710.6978863777638</v>
-      </c>
-      <c r="Y33">
-        <v>0.6073069451849129</v>
+        <v>73</v>
       </c>
       <c r="Z33">
-        <v>1410.373860910832</v>
+        <v>1410.197295584168</v>
       </c>
       <c r="AA33">
-        <v>930.3942889574391</v>
+        <v>1231.594804191964</v>
       </c>
       <c r="AB33">
-        <v>0.9233333975330383</v>
+        <v>0.06736518894886404</v>
       </c>
     </row>
     <row r="34" spans="1:28">
@@ -3346,79 +3085,70 @@
         <v>68</v>
       </c>
       <c r="C34">
-        <v>102.6735025211649</v>
+        <v>102.5432754608757</v>
       </c>
       <c r="D34">
-        <v>1286.450031161104</v>
+        <v>1286.51451680003</v>
       </c>
       <c r="E34">
-        <v>2632.637907123846</v>
+        <v>283.2119814224214</v>
       </c>
       <c r="F34">
-        <v>1286.450081163604</v>
+        <v>1286.51451680003</v>
       </c>
       <c r="G34">
-        <v>5770.60888584724</v>
+        <v>927.5592507691421</v>
       </c>
       <c r="H34">
-        <v>0.9440257215974021</v>
+        <v>1.144790539277553</v>
       </c>
       <c r="I34">
-        <v>17.75156931811313</v>
+        <v>13.72803903262949</v>
       </c>
       <c r="J34">
-        <v>0.2578877231914158</v>
+        <v>0.809325569310391</v>
       </c>
       <c r="K34">
-        <v>1.888051443194804</v>
+        <v>2.289581078555107</v>
       </c>
       <c r="L34" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="M34">
-        <v>1389.123633687269</v>
+        <v>1389.057842263406</v>
       </c>
       <c r="N34">
-        <v>3889.871595973459</v>
+        <v>485.2508251098982</v>
       </c>
       <c r="O34">
-        <v>1389.123583684769</v>
+        <v>1389.057792260906</v>
       </c>
       <c r="P34">
-        <v>8089.582433158575</v>
+        <v>1021.24638218277</v>
       </c>
       <c r="Q34">
-        <v>0.9739994162807774</v>
+        <v>0.9194743430169596</v>
       </c>
       <c r="S34">
-        <v>25.57347358858922</v>
+        <v>10.25730345772888</v>
       </c>
       <c r="T34">
-        <v>0.009058359420309803</v>
+        <v>0.2181490498356868</v>
       </c>
       <c r="U34">
-        <v>1.947998832561555</v>
+        <v>1.838948686033919</v>
       </c>
       <c r="V34" t="s">
-        <v>84</v>
-      </c>
-      <c r="W34">
-        <v>1266.025432045325</v>
-      </c>
-      <c r="X34">
-        <v>565.2659726110302</v>
-      </c>
-      <c r="Y34">
-        <v>1.157556571308348</v>
+        <v>73</v>
       </c>
       <c r="Z34">
-        <v>1410.324069711839</v>
+        <v>1410.193703586954</v>
       </c>
       <c r="AA34">
-        <v>1042.398633600106</v>
+        <v>310.7447620624773</v>
       </c>
       <c r="AB34">
-        <v>0.8352710076189899</v>
+        <v>1.057551164800595</v>
       </c>
     </row>
     <row r="35" spans="1:28">
@@ -3429,70 +3159,70 @@
         <v>69</v>
       </c>
       <c r="C35">
-        <v>102.6285363965865</v>
+        <v>102.7733210699271</v>
       </c>
       <c r="D35">
-        <v>1286.754159506848</v>
+        <v>1286.343041295216</v>
       </c>
       <c r="E35">
-        <v>424.7886195786953</v>
+        <v>384.3740614929502</v>
       </c>
       <c r="F35">
-        <v>1286.754159506848</v>
+        <v>1286.343041295216</v>
       </c>
       <c r="G35">
-        <v>760.0268508631373</v>
+        <v>633.6523936443585</v>
       </c>
       <c r="H35">
-        <v>0.8269726578928176</v>
+        <v>0.7755780618195408</v>
       </c>
       <c r="I35">
-        <v>20.06941296238243</v>
+        <v>14.33494270546586</v>
       </c>
       <c r="J35">
-        <v>1.303693153431595E-09</v>
+        <v>6.939794167104552E-08</v>
       </c>
       <c r="K35">
-        <v>1.653945315785635</v>
+        <v>1.551156123639082</v>
       </c>
       <c r="L35" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="M35">
-        <v>1389.382695903434</v>
+        <v>1389.116362365143</v>
       </c>
       <c r="N35">
-        <v>597.222538349655</v>
+        <v>483.9282098632985</v>
       </c>
       <c r="O35">
-        <v>1389.382695903434</v>
+        <v>1389.116362365143</v>
       </c>
       <c r="P35">
-        <v>1189.014156501362</v>
+        <v>954.8831002105733</v>
       </c>
       <c r="Q35">
-        <v>0.9347161733997924</v>
+        <v>0.9268448925330138</v>
       </c>
       <c r="S35">
-        <v>15.75410543078798</v>
+        <v>14.88272510582329</v>
       </c>
       <c r="T35">
-        <v>0.001491691326902633</v>
+        <v>5.551115123125783E-17</v>
       </c>
       <c r="U35">
-        <v>1.869432346799585</v>
+        <v>1.853689785066028</v>
       </c>
       <c r="V35" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="Z35">
-        <v>1409.966175020659</v>
+        <v>1410.299753181396</v>
       </c>
       <c r="AA35">
-        <v>191.7390670247614</v>
+        <v>212.9458675888206</v>
       </c>
       <c r="AB35">
-        <v>1.328701310110137</v>
+        <v>0.5082491533588087</v>
       </c>
     </row>
     <row r="36" spans="1:28">
@@ -3503,70 +3233,70 @@
         <v>70</v>
       </c>
       <c r="C36">
-        <v>102.621057221249</v>
+        <v>102.5483138073689</v>
       </c>
       <c r="D36">
-        <v>1286.896593515192</v>
+        <v>1286.58162761295</v>
       </c>
       <c r="E36">
-        <v>374.8918504538937</v>
+        <v>304.5125878063695</v>
       </c>
       <c r="F36">
-        <v>1286.896593515192</v>
+        <v>1286.58162761295</v>
       </c>
       <c r="G36">
-        <v>1239.068918433717</v>
+        <v>560.0958196601511</v>
       </c>
       <c r="H36">
-        <v>1.067799540652989</v>
+        <v>0.7839402295512677</v>
       </c>
       <c r="I36">
-        <v>27.01921762222314</v>
+        <v>17.57877995206336</v>
       </c>
       <c r="J36">
-        <v>0.9999999989934399</v>
+        <v>0.2957351089440355</v>
       </c>
       <c r="K36">
-        <v>2.135599081305978</v>
+        <v>1.567880459102535</v>
       </c>
       <c r="L36" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="M36">
-        <v>1389.517700738941</v>
+        <v>1389.129941420319</v>
       </c>
       <c r="N36">
-        <v>517.0365695321663</v>
+        <v>449.7068045588376</v>
       </c>
       <c r="O36">
-        <v>1389.517650736441</v>
+        <v>1389.129941420319</v>
       </c>
       <c r="P36">
-        <v>1172.952252855678</v>
+        <v>1053.61845823366</v>
       </c>
       <c r="Q36">
-        <v>1.065604736193687</v>
+        <v>1.092070429078097</v>
       </c>
       <c r="S36">
-        <v>22.70919435894741</v>
+        <v>13.26005211134613</v>
       </c>
       <c r="T36">
-        <v>5.169931270421202E-06</v>
+        <v>0.02377480618368411</v>
       </c>
       <c r="U36">
-        <v>2.131209472387373</v>
+        <v>2.184140858156194</v>
       </c>
       <c r="V36" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="Z36">
-        <v>1410.398540323706</v>
+        <v>1410.281560142646</v>
       </c>
       <c r="AA36">
-        <v>349.1606421700044</v>
+        <v>242.8426312266537</v>
       </c>
       <c r="AB36">
-        <v>0.5044066295417573</v>
+        <v>0.5105049894625041</v>
       </c>
     </row>
     <row r="37" spans="1:28">
@@ -3577,70 +3307,70 @@
         <v>71</v>
       </c>
       <c r="C37">
-        <v>102.6591668663366</v>
+        <v>102.9043638321352</v>
       </c>
       <c r="D37">
-        <v>1286.665406593303</v>
+        <v>1286.160487584043</v>
       </c>
       <c r="E37">
-        <v>438.0072497727655</v>
+        <v>882.6664268862197</v>
       </c>
       <c r="F37">
-        <v>1286.665406593303</v>
+        <v>1286.160487584043</v>
       </c>
       <c r="G37">
-        <v>1012.461216373993</v>
+        <v>1016.199635019723</v>
       </c>
       <c r="H37">
-        <v>1.104782163317794</v>
+        <v>0.3684998919442474</v>
       </c>
       <c r="I37">
-        <v>24.99235218405765</v>
+        <v>18.82122042164864</v>
       </c>
       <c r="J37">
-        <v>5.851517048682808E-09</v>
+        <v>0.9999998991903793</v>
       </c>
       <c r="K37">
-        <v>2.209564326635589</v>
+        <v>0.7369997838884947</v>
       </c>
       <c r="L37" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="M37">
-        <v>1389.324623462139</v>
+        <v>1389.064901418679</v>
       </c>
       <c r="N37">
-        <v>685.2901342174704</v>
+        <v>497.9925743413182</v>
       </c>
       <c r="O37">
-        <v>1389.324573459639</v>
+        <v>1389.064851416179</v>
       </c>
       <c r="P37">
-        <v>1725.288284165963</v>
+        <v>1228.002812101328</v>
       </c>
       <c r="Q37">
-        <v>1.144574036770118</v>
+        <v>0.8863072976616817</v>
       </c>
       <c r="S37">
-        <v>24.32087072169993</v>
+        <v>11.94771064618621</v>
       </c>
       <c r="T37">
-        <v>0.1008377870326588</v>
+        <v>0.7287339072625294</v>
       </c>
       <c r="U37">
-        <v>2.289148073540237</v>
+        <v>1.772614595323363</v>
       </c>
       <c r="V37" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="Z37">
-        <v>1410.498956394882</v>
+        <v>1410.197295584168</v>
       </c>
       <c r="AA37">
-        <v>623.5187213565854</v>
+        <v>1231.594804191964</v>
       </c>
       <c r="AB37">
-        <v>0.6053387165474388</v>
+        <v>0.06736518894886404</v>
       </c>
     </row>
     <row r="38" spans="1:28">
@@ -3651,929 +3381,70 @@
         <v>72</v>
       </c>
       <c r="C38">
-        <v>102.7134877803915</v>
+        <v>102.5153440659615</v>
       </c>
       <c r="D38">
-        <v>1286.293661622644</v>
+        <v>1286.69048693907</v>
       </c>
       <c r="E38">
-        <v>2034.823881321828</v>
+        <v>306.9405931331896</v>
       </c>
       <c r="F38">
-        <v>1286.293661622644</v>
+        <v>1286.69048693907</v>
       </c>
       <c r="G38">
-        <v>4005.790987403675</v>
+        <v>623.3592290394365</v>
       </c>
       <c r="H38">
-        <v>0.778762231433242</v>
+        <v>0.9578685601163607</v>
       </c>
       <c r="I38">
-        <v>14.88873684046198</v>
+        <v>16.35843130826884</v>
       </c>
       <c r="J38">
-        <v>0.4896041448592756</v>
+        <v>1.33965352144827E-08</v>
       </c>
       <c r="K38">
-        <v>1.557524462866484</v>
+        <v>1.915737120232721</v>
       </c>
       <c r="L38" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="M38">
-        <v>1389.007199405535</v>
+        <v>1389.205881007531</v>
       </c>
       <c r="N38">
-        <v>2643.950412573591</v>
+        <v>563.4720043885615</v>
       </c>
       <c r="O38">
-        <v>1389.007149403035</v>
+        <v>1389.205831005031</v>
       </c>
       <c r="P38">
-        <v>5648.488139253285</v>
+        <v>1187.833068788642</v>
       </c>
       <c r="Q38">
-        <v>0.950954566923908</v>
+        <v>0.8159180605700921</v>
       </c>
       <c r="S38">
-        <v>14.85168708116706</v>
+        <v>10.99085123452996</v>
       </c>
       <c r="T38">
-        <v>0.162560479837991</v>
+        <v>0.5465717620299534</v>
       </c>
       <c r="U38">
-        <v>1.901909133847816</v>
+        <v>1.631836121140184</v>
       </c>
       <c r="V38" t="s">
-        <v>84</v>
-      </c>
-      <c r="W38">
-        <v>1265.951689560517</v>
-      </c>
-      <c r="X38">
-        <v>644.9916674206812</v>
-      </c>
-      <c r="Y38">
-        <v>1.29473724117778</v>
+        <v>73</v>
       </c>
       <c r="Z38">
-        <v>1410.280859073584</v>
+        <v>1410.170902892322</v>
       </c>
       <c r="AA38">
-        <v>999.330973459043</v>
+        <v>321.0629493929962</v>
       </c>
       <c r="AB38">
-        <v>0.7757908201876118</v>
-      </c>
-    </row>
-    <row r="39" spans="1:28">
-      <c r="A39" s="1">
-        <v>0</v>
-      </c>
-      <c r="B39" t="s">
-        <v>73</v>
-      </c>
-      <c r="C39">
-        <v>102.6607297664536</v>
-      </c>
-      <c r="D39">
-        <v>1286.304078771833</v>
-      </c>
-      <c r="E39">
-        <v>1711.61301604715</v>
-      </c>
-      <c r="F39">
-        <v>1286.304128774333</v>
-      </c>
-      <c r="G39">
-        <v>3575.14367480743</v>
-      </c>
-      <c r="H39">
-        <v>0.8963121925998762</v>
-      </c>
-      <c r="I39">
-        <v>15.02341181141076</v>
-      </c>
-      <c r="J39">
-        <v>0.2681874111377283</v>
-      </c>
-      <c r="K39">
-        <v>1.792624385199752</v>
-      </c>
-      <c r="L39" t="s">
-        <v>84</v>
-      </c>
-      <c r="M39">
-        <v>1388.964858540787</v>
-      </c>
-      <c r="N39">
-        <v>2554.394555578723</v>
-      </c>
-      <c r="O39">
-        <v>1388.964858540787</v>
-      </c>
-      <c r="P39">
-        <v>5248.940004591741</v>
-      </c>
-      <c r="Q39">
-        <v>0.943732529982533</v>
-      </c>
-      <c r="S39">
-        <v>11.03825609118401</v>
-      </c>
-      <c r="T39">
-        <v>0.06902890125109667</v>
-      </c>
-      <c r="U39">
-        <v>1.887465059965066</v>
-      </c>
-      <c r="V39" t="s">
-        <v>84</v>
-      </c>
-      <c r="W39">
-        <v>1266.234460323972</v>
-      </c>
-      <c r="X39">
-        <v>526.6032992056121</v>
-      </c>
-      <c r="Y39">
-        <v>1.125661788476718</v>
-      </c>
-      <c r="Z39">
-        <v>1410.191857856944</v>
-      </c>
-      <c r="AA39">
-        <v>910.4268078324217</v>
-      </c>
-      <c r="AB39">
-        <v>1.113707398679837</v>
-      </c>
-    </row>
-    <row r="40" spans="1:28">
-      <c r="A40" s="1">
-        <v>0</v>
-      </c>
-      <c r="B40" t="s">
-        <v>74</v>
-      </c>
-      <c r="C40">
-        <v>102.6766613865448</v>
-      </c>
-      <c r="D40">
-        <v>1286.422599057723</v>
-      </c>
-      <c r="E40">
-        <v>1298.804668524356</v>
-      </c>
-      <c r="F40">
-        <v>1286.422649060223</v>
-      </c>
-      <c r="G40">
-        <v>2953.181339823463</v>
-      </c>
-      <c r="H40">
-        <v>0.9571496091487146</v>
-      </c>
-      <c r="I40">
-        <v>22.44500391063314</v>
-      </c>
-      <c r="J40">
-        <v>0.3227608098619363</v>
-      </c>
-      <c r="K40">
-        <v>1.914299218297429</v>
-      </c>
-      <c r="L40" t="s">
-        <v>85</v>
-      </c>
-      <c r="M40">
-        <v>1389.099360449268</v>
-      </c>
-      <c r="N40">
-        <v>1949.06363827211</v>
-      </c>
-      <c r="O40">
-        <v>1389.099310446768</v>
-      </c>
-      <c r="P40">
-        <v>4192.927457596858</v>
-      </c>
-      <c r="Q40">
-        <v>0.9728725812264418</v>
-      </c>
-      <c r="S40">
-        <v>20.75376456616294</v>
-      </c>
-      <c r="T40">
-        <v>0.1154699159238271</v>
-      </c>
-      <c r="U40">
-        <v>1.945745162452884</v>
-      </c>
-      <c r="V40" t="s">
-        <v>84</v>
-      </c>
-      <c r="W40">
-        <v>1266.086103642756</v>
-      </c>
-      <c r="X40">
-        <v>726.8540539051255</v>
-      </c>
-      <c r="Y40">
-        <v>1.063838229535655</v>
-      </c>
-      <c r="Z40">
-        <v>1410.344766508561</v>
-      </c>
-      <c r="AA40">
-        <v>828.5663933990306</v>
-      </c>
-      <c r="AB40">
-        <v>0.9150537120885025</v>
-      </c>
-    </row>
-    <row r="41" spans="1:28">
-      <c r="A41" s="1">
-        <v>0</v>
-      </c>
-      <c r="B41" t="s">
-        <v>75</v>
-      </c>
-      <c r="C41">
-        <v>102.6811291194458</v>
-      </c>
-      <c r="D41">
-        <v>1286.744314156203</v>
-      </c>
-      <c r="E41">
-        <v>2413.628585111577</v>
-      </c>
-      <c r="F41">
-        <v>1286.744364158704</v>
-      </c>
-      <c r="G41">
-        <v>5188.147729266651</v>
-      </c>
-      <c r="H41">
-        <v>0.9869191322453403</v>
-      </c>
-      <c r="I41">
-        <v>13.53579163566996</v>
-      </c>
-      <c r="J41">
-        <v>0.0699061660456739</v>
-      </c>
-      <c r="K41">
-        <v>1.973838264490681</v>
-      </c>
-      <c r="L41" t="s">
-        <v>84</v>
-      </c>
-      <c r="M41">
-        <v>1389.425493278149</v>
-      </c>
-      <c r="N41">
-        <v>3614.571806195794</v>
-      </c>
-      <c r="O41">
-        <v>1389.425493278149</v>
-      </c>
-      <c r="P41">
-        <v>7857.605530775695</v>
-      </c>
-      <c r="Q41">
-        <v>1.021106778387037</v>
-      </c>
-      <c r="S41">
-        <v>21.44742951327708</v>
-      </c>
-      <c r="T41">
-        <v>5.002426251010661E-11</v>
-      </c>
-      <c r="U41">
-        <v>2.042213556774075</v>
-      </c>
-      <c r="V41" t="s">
-        <v>84</v>
-      </c>
-      <c r="W41">
-        <v>1266.498087844297</v>
-      </c>
-      <c r="X41">
-        <v>685.1254559616997</v>
-      </c>
-      <c r="Y41">
-        <v>1.073673426378588</v>
-      </c>
-      <c r="Z41">
-        <v>1410.697635610826</v>
-      </c>
-      <c r="AA41">
-        <v>1182.838585053107</v>
-      </c>
-      <c r="AB41">
-        <v>0.9681271770012365</v>
-      </c>
-    </row>
-    <row r="42" spans="1:28">
-      <c r="A42" s="1">
-        <v>0</v>
-      </c>
-      <c r="B42" t="s">
-        <v>76</v>
-      </c>
-      <c r="C42">
-        <v>102.6285363965865</v>
-      </c>
-      <c r="D42">
-        <v>1286.754159506848</v>
-      </c>
-      <c r="E42">
-        <v>424.7886195786953</v>
-      </c>
-      <c r="F42">
-        <v>1286.754159506848</v>
-      </c>
-      <c r="G42">
-        <v>760.0268508631373</v>
-      </c>
-      <c r="H42">
-        <v>0.8269726578928176</v>
-      </c>
-      <c r="I42">
-        <v>20.06941296238243</v>
-      </c>
-      <c r="J42">
-        <v>1.303693153431595E-09</v>
-      </c>
-      <c r="K42">
-        <v>1.653945315785635</v>
-      </c>
-      <c r="L42" t="s">
-        <v>84</v>
-      </c>
-      <c r="M42">
-        <v>1389.382695903434</v>
-      </c>
-      <c r="N42">
-        <v>597.222538349655</v>
-      </c>
-      <c r="O42">
-        <v>1389.382695903434</v>
-      </c>
-      <c r="P42">
-        <v>1189.014156501362</v>
-      </c>
-      <c r="Q42">
-        <v>0.9347161733997924</v>
-      </c>
-      <c r="S42">
-        <v>15.75410543078798</v>
-      </c>
-      <c r="T42">
-        <v>0.001491691326902633</v>
-      </c>
-      <c r="U42">
-        <v>1.869432346799585</v>
-      </c>
-      <c r="V42" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z42">
-        <v>1409.966175020659</v>
-      </c>
-      <c r="AA42">
-        <v>191.7390670247614</v>
-      </c>
-      <c r="AB42">
-        <v>1.328701310110137</v>
-      </c>
-    </row>
-    <row r="43" spans="1:28">
-      <c r="A43" s="1">
-        <v>0</v>
-      </c>
-      <c r="B43" t="s">
-        <v>77</v>
-      </c>
-      <c r="C43">
-        <v>102.6324589199762</v>
-      </c>
-      <c r="D43">
-        <v>1286.866554314155</v>
-      </c>
-      <c r="E43">
-        <v>401.1221889175786</v>
-      </c>
-      <c r="F43">
-        <v>1286.866554314155</v>
-      </c>
-      <c r="G43">
-        <v>920.8138545964415</v>
-      </c>
-      <c r="H43">
-        <v>0.9376938468941903</v>
-      </c>
-      <c r="I43">
-        <v>27.01755363686152</v>
-      </c>
-      <c r="J43">
-        <v>0.482056705009871</v>
-      </c>
-      <c r="K43">
-        <v>1.875387693788381</v>
-      </c>
-      <c r="L43" t="s">
-        <v>84</v>
-      </c>
-      <c r="M43">
-        <v>1389.499063236631</v>
-      </c>
-      <c r="N43">
-        <v>1415.422912525629</v>
-      </c>
-      <c r="O43">
-        <v>1389.499013234131</v>
-      </c>
-      <c r="P43">
-        <v>1586.137044981788</v>
-      </c>
-      <c r="Q43">
-        <v>0.5264455994750881</v>
-      </c>
-      <c r="S43">
-        <v>20.98710880434517</v>
-      </c>
-      <c r="T43">
-        <v>2.65188643266967E-09</v>
-      </c>
-      <c r="U43">
-        <v>1.052891198950176</v>
-      </c>
-      <c r="V43" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z43">
-        <v>1410.261914765272</v>
-      </c>
-      <c r="AA43">
-        <v>478.2165431702148</v>
-      </c>
-      <c r="AB43">
-        <v>0.5654566636589616</v>
-      </c>
-    </row>
-    <row r="44" spans="1:28">
-      <c r="A44" s="1">
-        <v>0</v>
-      </c>
-      <c r="B44" t="s">
-        <v>78</v>
-      </c>
-      <c r="C44">
-        <v>102.8704481131363</v>
-      </c>
-      <c r="D44">
-        <v>1286.173706046192</v>
-      </c>
-      <c r="E44">
-        <v>683.3285433876664</v>
-      </c>
-      <c r="F44">
-        <v>1286.173706046192</v>
-      </c>
-      <c r="G44">
-        <v>940.0005199643045</v>
-      </c>
-      <c r="H44">
-        <v>0.442947345014195</v>
-      </c>
-      <c r="I44">
-        <v>19.2177019349292</v>
-      </c>
-      <c r="J44">
-        <v>0.9999867164817577</v>
-      </c>
-      <c r="K44">
-        <v>0.8858946900283899</v>
-      </c>
-      <c r="L44" t="s">
-        <v>84</v>
-      </c>
-      <c r="M44">
-        <v>1389.044154159328</v>
-      </c>
-      <c r="N44">
-        <v>480.9652253991566</v>
-      </c>
-      <c r="O44">
-        <v>1389.044154159328</v>
-      </c>
-      <c r="P44">
-        <v>1132.458953515863</v>
-      </c>
-      <c r="Q44">
-        <v>0.9220415036791514</v>
-      </c>
-      <c r="S44">
-        <v>9.875984156770791</v>
-      </c>
-      <c r="T44">
-        <v>0.5159513122662279</v>
-      </c>
-      <c r="U44">
-        <v>1.844083007358303</v>
-      </c>
-      <c r="V44" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z44">
-        <v>1410.213340122639</v>
-      </c>
-      <c r="AA44">
-        <v>204.1036837947294</v>
-      </c>
-      <c r="AB44">
-        <v>0.510156750021167</v>
-      </c>
-    </row>
-    <row r="45" spans="1:28">
-      <c r="A45" s="1">
-        <v>0</v>
-      </c>
-      <c r="B45" t="s">
-        <v>79</v>
-      </c>
-      <c r="C45">
-        <v>102.5329021708753</v>
-      </c>
-      <c r="D45">
-        <v>1286.515653900453</v>
-      </c>
-      <c r="E45">
-        <v>281.9874137356756</v>
-      </c>
-      <c r="F45">
-        <v>1286.515653900453</v>
-      </c>
-      <c r="G45">
-        <v>918.0496068178122</v>
-      </c>
-      <c r="H45">
-        <v>1.144907195612488</v>
-      </c>
-      <c r="I45">
-        <v>14.81143601516661</v>
-      </c>
-      <c r="J45">
-        <v>0.790644284491723</v>
-      </c>
-      <c r="K45">
-        <v>2.289814391224976</v>
-      </c>
-      <c r="L45" t="s">
-        <v>84</v>
-      </c>
-      <c r="M45">
-        <v>1389.048606073829</v>
-      </c>
-      <c r="N45">
-        <v>478.3610329043694</v>
-      </c>
-      <c r="O45">
-        <v>1389.048556071329</v>
-      </c>
-      <c r="P45">
-        <v>975.3405100990559</v>
-      </c>
-      <c r="Q45">
-        <v>0.933200870927129</v>
-      </c>
-      <c r="S45">
-        <v>10.22737763733661</v>
-      </c>
-      <c r="T45">
-        <v>0.08050999511166435</v>
-      </c>
-      <c r="U45">
-        <v>1.866401741854258</v>
-      </c>
-      <c r="V45" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z45">
-        <v>1410.192898508042</v>
-      </c>
-      <c r="AA45">
-        <v>279.0921681628161</v>
-      </c>
-      <c r="AB45">
-        <v>1.041307190850376</v>
-      </c>
-    </row>
-    <row r="46" spans="1:28">
-      <c r="A46" s="1">
-        <v>0</v>
-      </c>
-      <c r="B46" t="s">
-        <v>80</v>
-      </c>
-      <c r="C46">
-        <v>102.7860703866452</v>
-      </c>
-      <c r="D46">
-        <v>1286.347776702718</v>
-      </c>
-      <c r="E46">
-        <v>385.665223227316</v>
-      </c>
-      <c r="F46">
-        <v>1286.347776702718</v>
-      </c>
-      <c r="G46">
-        <v>639.7716178079744</v>
-      </c>
-      <c r="H46">
-        <v>0.7834634188931848</v>
-      </c>
-      <c r="I46">
-        <v>14.79671560408264</v>
-      </c>
-      <c r="J46">
-        <v>0.007772488154913659</v>
-      </c>
-      <c r="K46">
-        <v>1.56692683778637</v>
-      </c>
-      <c r="L46" t="s">
-        <v>84</v>
-      </c>
-      <c r="M46">
-        <v>1389.133847089364</v>
-      </c>
-      <c r="N46">
-        <v>500.8655984183191</v>
-      </c>
-      <c r="O46">
-        <v>1389.133847089364</v>
-      </c>
-      <c r="P46">
-        <v>1039.149375906981</v>
-      </c>
-      <c r="Q46">
-        <v>0.902372327024064</v>
-      </c>
-      <c r="S46">
-        <v>12.35800187752831</v>
-      </c>
-      <c r="T46">
-        <v>0.2297026923922092</v>
-      </c>
-      <c r="U46">
-        <v>1.804744654048128</v>
-      </c>
-      <c r="V46" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z46">
-        <v>1410.300006252693</v>
-      </c>
-      <c r="AA46">
-        <v>210.2474988596508</v>
-      </c>
-      <c r="AB46">
-        <v>0.5400330690374773</v>
-      </c>
-    </row>
-    <row r="47" spans="1:28">
-      <c r="A47" s="1">
-        <v>0</v>
-      </c>
-      <c r="B47" t="s">
-        <v>81</v>
-      </c>
-      <c r="C47">
-        <v>102.6887813839649</v>
-      </c>
-      <c r="D47">
-        <v>1286.451531963787</v>
-      </c>
-      <c r="E47">
-        <v>388.2012021089566</v>
-      </c>
-      <c r="F47">
-        <v>1286.451531963787</v>
-      </c>
-      <c r="G47">
-        <v>591.0923193579757</v>
-      </c>
-      <c r="H47">
-        <v>0.4905947905407377</v>
-      </c>
-      <c r="I47">
-        <v>18.30918426458043</v>
-      </c>
-      <c r="J47">
-        <v>0.9999799665590742</v>
-      </c>
-      <c r="K47">
-        <v>0.9811895810814755</v>
-      </c>
-      <c r="L47" t="s">
-        <v>84</v>
-      </c>
-      <c r="M47">
-        <v>1389.140363350252</v>
-      </c>
-      <c r="N47">
-        <v>459.1714457413079</v>
-      </c>
-      <c r="O47">
-        <v>1389.140313347752</v>
-      </c>
-      <c r="P47">
-        <v>1132.517903196197</v>
-      </c>
-      <c r="Q47">
-        <v>1.077416031951671</v>
-      </c>
-      <c r="S47">
-        <v>13.86306572888345</v>
-      </c>
-      <c r="T47">
-        <v>0.2172124114239716</v>
-      </c>
-      <c r="U47">
-        <v>2.154832063903343</v>
-      </c>
-      <c r="V47" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z47">
-        <v>1410.280892054274</v>
-      </c>
-      <c r="AA47">
-        <v>229.4293823495265</v>
-      </c>
-      <c r="AB47">
-        <v>0.5496648229366432</v>
-      </c>
-    </row>
-    <row r="48" spans="1:28">
-      <c r="A48" s="1">
-        <v>0</v>
-      </c>
-      <c r="B48" t="s">
-        <v>82</v>
-      </c>
-      <c r="C48">
-        <v>102.8704481131363</v>
-      </c>
-      <c r="D48">
-        <v>1286.173706046192</v>
-      </c>
-      <c r="E48">
-        <v>683.3285433876664</v>
-      </c>
-      <c r="F48">
-        <v>1286.173706046192</v>
-      </c>
-      <c r="G48">
-        <v>940.0005199643045</v>
-      </c>
-      <c r="H48">
-        <v>0.442947345014195</v>
-      </c>
-      <c r="I48">
-        <v>19.2177019349292</v>
-      </c>
-      <c r="J48">
-        <v>0.9999867164817577</v>
-      </c>
-      <c r="K48">
-        <v>0.8858946900283899</v>
-      </c>
-      <c r="L48" t="s">
-        <v>84</v>
-      </c>
-      <c r="M48">
-        <v>1389.044154159328</v>
-      </c>
-      <c r="N48">
-        <v>480.9652253991566</v>
-      </c>
-      <c r="O48">
-        <v>1389.044154159328</v>
-      </c>
-      <c r="P48">
-        <v>1132.458953515863</v>
-      </c>
-      <c r="Q48">
-        <v>0.9220415036791514</v>
-      </c>
-      <c r="S48">
-        <v>9.875984156770791</v>
-      </c>
-      <c r="T48">
-        <v>0.5159513122662279</v>
-      </c>
-      <c r="U48">
-        <v>1.844083007358303</v>
-      </c>
-      <c r="V48" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z48">
-        <v>1410.213340122639</v>
-      </c>
-      <c r="AA48">
-        <v>204.1036837947294</v>
-      </c>
-      <c r="AB48">
-        <v>0.510156750021167</v>
-      </c>
-    </row>
-    <row r="49" spans="1:28">
-      <c r="A49" s="1">
-        <v>0</v>
-      </c>
-      <c r="B49" t="s">
-        <v>83</v>
-      </c>
-      <c r="C49">
-        <v>102.5018299267517</v>
-      </c>
-      <c r="D49">
-        <v>1286.688395278662</v>
-      </c>
-      <c r="E49">
-        <v>305.102125068622</v>
-      </c>
-      <c r="F49">
-        <v>1286.688445281162</v>
-      </c>
-      <c r="G49">
-        <v>635.695286841892</v>
-      </c>
-      <c r="H49">
-        <v>0.9456087019269785</v>
-      </c>
-      <c r="I49">
-        <v>14.68736613983114</v>
-      </c>
-      <c r="J49">
-        <v>0.1052564102786838</v>
-      </c>
-      <c r="K49">
-        <v>1.891217403853957</v>
-      </c>
-      <c r="L49" t="s">
-        <v>84</v>
-      </c>
-      <c r="M49">
-        <v>1389.190325210414</v>
-      </c>
-      <c r="N49">
-        <v>540.867984956896</v>
-      </c>
-      <c r="O49">
-        <v>1389.190275207914</v>
-      </c>
-      <c r="P49">
-        <v>1127.943754235811</v>
-      </c>
-      <c r="Q49">
-        <v>0.8478034140013747</v>
-      </c>
-      <c r="S49">
-        <v>9.555177923440809</v>
-      </c>
-      <c r="T49">
-        <v>0.4172985564335744</v>
-      </c>
-      <c r="U49">
-        <v>1.695606828002749</v>
-      </c>
-      <c r="V49" t="s">
-        <v>84</v>
-      </c>
-      <c r="W49">
-        <v>1266.232135251731</v>
-      </c>
-      <c r="X49">
-        <v>78.39479264550269</v>
-      </c>
-      <c r="Y49">
-        <v>0.7941690667750723</v>
-      </c>
-      <c r="Z49">
-        <v>1410.135293790989</v>
-      </c>
-      <c r="AA49">
-        <v>270.4250705526876</v>
-      </c>
-      <c r="AB49">
-        <v>1.315030097042954</v>
+        <v>1.28060615251047</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Examples/Example1c_HORIBA_Calibration/Weak_Diads.xlsx
+++ b/docs/Examples/Example1c_HORIBA_Calibration/Weak_Diads.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="75">
   <si>
     <t>filename</t>
   </si>
@@ -236,6 +236,9 @@
   </si>
   <si>
     <t>Flagged Warnings:</t>
+  </si>
+  <si>
+    <t>Flagged Warnings: V_LowAmp</t>
   </si>
 </sst>
 </file>
@@ -717,70 +720,61 @@
         <v>36</v>
       </c>
       <c r="C2">
-        <v>102.7923167709002</v>
+        <v>102.8600448257532</v>
       </c>
       <c r="D2">
-        <v>1285.966474364443</v>
+        <v>1285.961206728399</v>
       </c>
       <c r="E2">
-        <v>980.1919888873797</v>
+        <v>941.6515064726915</v>
       </c>
       <c r="F2">
-        <v>1285.966474364443</v>
+        <v>1285.961206728399</v>
       </c>
       <c r="G2">
-        <v>2766.40068457906</v>
+        <v>2649.210268597861</v>
       </c>
       <c r="H2">
-        <v>1.078726381406422</v>
+        <v>1.117622915383514</v>
       </c>
       <c r="I2">
-        <v>19.78323505442969</v>
+        <v>20.52607922816228</v>
       </c>
       <c r="J2">
-        <v>0.5949580315868629</v>
+        <v>0.4816382299683394</v>
       </c>
       <c r="K2">
-        <v>2.157452762812843</v>
+        <v>2.235245830767028</v>
       </c>
       <c r="L2" t="s">
         <v>73</v>
       </c>
       <c r="M2">
-        <v>1388.758791135343</v>
+        <v>1388.821251554153</v>
       </c>
       <c r="N2">
-        <v>1525.266741684756</v>
+        <v>1425.667570690229</v>
       </c>
       <c r="O2">
-        <v>1388.758791135343</v>
+        <v>1388.821251554153</v>
       </c>
       <c r="P2">
-        <v>5518.446372591312</v>
+        <v>4108.762283402736</v>
       </c>
       <c r="Q2">
-        <v>1.151651698374974</v>
+        <v>1.092731814651743</v>
       </c>
       <c r="S2">
-        <v>40.56118923461581</v>
+        <v>24.05936450635166</v>
       </c>
       <c r="T2">
-        <v>0.9999999999099253</v>
+        <v>0.5701894009191564</v>
       </c>
       <c r="U2">
-        <v>2.303303396749947</v>
+        <v>2.185463629303486</v>
       </c>
       <c r="V2" t="s">
         <v>73</v>
-      </c>
-      <c r="Z2">
-        <v>1410.218958944591</v>
-      </c>
-      <c r="AA2">
-        <v>304.0459624127931</v>
-      </c>
-      <c r="AB2">
-        <v>1.42093956415605</v>
       </c>
     </row>
     <row r="3" spans="1:37">
@@ -791,70 +785,61 @@
         <v>37</v>
       </c>
       <c r="C3">
-        <v>102.7548193590515</v>
+        <v>102.7590185542585</v>
       </c>
       <c r="D3">
-        <v>1286.319385121787</v>
+        <v>1286.323590853212</v>
       </c>
       <c r="E3">
-        <v>2544.2957377574</v>
+        <v>2523.054853010244</v>
       </c>
       <c r="F3">
-        <v>1286.319385121787</v>
+        <v>1286.323590853212</v>
       </c>
       <c r="G3">
-        <v>5415.867034472363</v>
+        <v>5393.650255355701</v>
       </c>
       <c r="H3">
-        <v>0.8541209901506073</v>
+        <v>0.8615810030607753</v>
       </c>
       <c r="I3">
-        <v>25.95401541797621</v>
+        <v>15.5510106073663</v>
       </c>
       <c r="J3">
-        <v>0.4533349166199077</v>
+        <v>0.4383052229096948</v>
       </c>
       <c r="K3">
-        <v>1.708241980301215</v>
+        <v>1.723162006121551</v>
       </c>
       <c r="L3" t="s">
         <v>73</v>
       </c>
       <c r="M3">
-        <v>1389.074204480838</v>
+        <v>1389.08260940747</v>
       </c>
       <c r="N3">
-        <v>3561.979838695749</v>
+        <v>3594.939362982156</v>
       </c>
       <c r="O3">
-        <v>1389.074204480838</v>
+        <v>1389.08260940747</v>
       </c>
       <c r="P3">
-        <v>7560.606019198811</v>
+        <v>7841.495319801467</v>
       </c>
       <c r="Q3">
-        <v>0.9699273395365451</v>
+        <v>0.9595471082088292</v>
       </c>
       <c r="S3">
-        <v>23.17481635195703</v>
+        <v>19.71508536401488</v>
       </c>
       <c r="T3">
-        <v>0.0842949266245272</v>
+        <v>0.1920772727177233</v>
       </c>
       <c r="U3">
-        <v>1.93985467907309</v>
+        <v>1.919094216417658</v>
       </c>
       <c r="V3" t="s">
         <v>73</v>
-      </c>
-      <c r="Z3">
-        <v>1410.332932931142</v>
-      </c>
-      <c r="AA3">
-        <v>733.2091936523772</v>
-      </c>
-      <c r="AB3">
-        <v>0.5063739183877748</v>
       </c>
     </row>
     <row r="4" spans="1:37">
@@ -865,70 +850,61 @@
         <v>38</v>
       </c>
       <c r="C4">
-        <v>102.709396531332</v>
+        <v>102.6879545142665</v>
       </c>
       <c r="D4">
-        <v>1286.479919795953</v>
+        <v>1286.484420859074</v>
       </c>
       <c r="E4">
-        <v>2159.117789376488</v>
+        <v>2137.380302358447</v>
       </c>
       <c r="F4">
-        <v>1286.479919795953</v>
+        <v>1286.484420859074</v>
       </c>
       <c r="G4">
-        <v>4961.339850819428</v>
+        <v>4842.994280320414</v>
       </c>
       <c r="H4">
-        <v>0.9764152928795496</v>
+        <v>0.9826871522553878</v>
       </c>
       <c r="I4">
-        <v>17.9220143496924</v>
+        <v>14.28284966587379</v>
       </c>
       <c r="J4">
-        <v>0.3032959941209285</v>
+        <v>0.235921482901993</v>
       </c>
       <c r="K4">
-        <v>1.952830585759099</v>
+        <v>1.965374304510776</v>
       </c>
       <c r="L4" t="s">
         <v>73</v>
       </c>
       <c r="M4">
-        <v>1389.189366329785</v>
+        <v>1389.172375373341</v>
       </c>
       <c r="N4">
-        <v>3404.086598766468</v>
+        <v>3276.801253623362</v>
       </c>
       <c r="O4">
-        <v>1389.189316327285</v>
+        <v>1389.172375373341</v>
       </c>
       <c r="P4">
-        <v>8055.092822800282</v>
+        <v>7237.691270263359</v>
       </c>
       <c r="Q4">
-        <v>0.9935514281438089</v>
+        <v>1.022182514032343</v>
       </c>
       <c r="S4">
-        <v>30.13032650087072</v>
+        <v>11.79438999995872</v>
       </c>
       <c r="T4">
-        <v>0.3295080509830429</v>
+        <v>0.0460823226577069</v>
       </c>
       <c r="U4">
-        <v>1.987102856287618</v>
+        <v>2.044365028064686</v>
       </c>
       <c r="V4" t="s">
         <v>73</v>
-      </c>
-      <c r="Z4">
-        <v>1410.401066272005</v>
-      </c>
-      <c r="AA4">
-        <v>912.5922681942565</v>
-      </c>
-      <c r="AB4">
-        <v>1.599663113204707</v>
       </c>
     </row>
     <row r="5" spans="1:37">
@@ -939,70 +915,61 @@
         <v>39</v>
       </c>
       <c r="C5">
-        <v>102.7428236919416</v>
+        <v>102.733975500224</v>
       </c>
       <c r="D5">
-        <v>1286.541341259403</v>
+        <v>1286.544823269497</v>
       </c>
       <c r="E5">
-        <v>1954.226293353099</v>
+        <v>1935.499997311832</v>
       </c>
       <c r="F5">
-        <v>1286.541341259403</v>
+        <v>1286.544823269497</v>
       </c>
       <c r="G5">
-        <v>4806.826293850059</v>
+        <v>4672.379724658515</v>
       </c>
       <c r="H5">
-        <v>1.011822629669987</v>
+        <v>1.016851714323533</v>
       </c>
       <c r="I5">
-        <v>25.91960855613015</v>
+        <v>19.28725717912513</v>
       </c>
       <c r="J5">
-        <v>0.3928023933949578</v>
+        <v>0.3183449304990136</v>
       </c>
       <c r="K5">
-        <v>2.023645259339973</v>
+        <v>2.033703428647065</v>
       </c>
       <c r="L5" t="s">
         <v>73</v>
       </c>
       <c r="M5">
-        <v>1389.284164951345</v>
+        <v>1389.278798769721</v>
       </c>
       <c r="N5">
-        <v>2991.678636255897</v>
+        <v>2958.265988753934</v>
       </c>
       <c r="O5">
-        <v>1389.284164951345</v>
+        <v>1389.278798769721</v>
       </c>
       <c r="P5">
-        <v>6831.841358886644</v>
+        <v>6686.416333131046</v>
       </c>
       <c r="Q5">
-        <v>1.015844448131061</v>
+        <v>1.027220432414406</v>
       </c>
       <c r="S5">
-        <v>20.10956484939513</v>
+        <v>30.28050705692647</v>
       </c>
       <c r="T5">
-        <v>0.1643107048756741</v>
+        <v>0.1011474514841577</v>
       </c>
       <c r="U5">
-        <v>2.031688896262122</v>
+        <v>2.054440864828813</v>
       </c>
       <c r="V5" t="s">
         <v>73</v>
-      </c>
-      <c r="Z5">
-        <v>1410.366341862251</v>
-      </c>
-      <c r="AA5">
-        <v>754.7109260004561</v>
-      </c>
-      <c r="AB5">
-        <v>0.5146011496289258</v>
       </c>
     </row>
     <row r="6" spans="1:37">
@@ -1013,70 +980,61 @@
         <v>40</v>
       </c>
       <c r="C6">
-        <v>102.7400695002966</v>
+        <v>102.7377756383992</v>
       </c>
       <c r="D6">
-        <v>1285.149557515506</v>
+        <v>1285.14992487617</v>
       </c>
       <c r="E6">
-        <v>2030.472934477202</v>
+        <v>2027.954498452568</v>
       </c>
       <c r="F6">
-        <v>1285.149557515506</v>
+        <v>1285.14992487617</v>
       </c>
       <c r="G6">
-        <v>5132.075610181368</v>
+        <v>5115.278798207302</v>
       </c>
       <c r="H6">
-        <v>1.057015761231293</v>
+        <v>1.057459650517302</v>
       </c>
       <c r="I6">
-        <v>16.17457643062856</v>
+        <v>12.45631951049166</v>
       </c>
       <c r="J6">
-        <v>0.3423979600622507</v>
+        <v>0.3338176927341352</v>
       </c>
       <c r="K6">
-        <v>2.114031522462587</v>
+        <v>2.114919301034604</v>
       </c>
       <c r="L6" t="s">
         <v>73</v>
       </c>
       <c r="M6">
-        <v>1387.889627015802</v>
+        <v>1387.887700514569</v>
       </c>
       <c r="N6">
-        <v>3082.121935058356</v>
+        <v>3053.387239624548</v>
       </c>
       <c r="O6">
-        <v>1387.889627015802</v>
+        <v>1387.887700514569</v>
       </c>
       <c r="P6">
-        <v>7658.226237268073</v>
+        <v>7471.986565262349</v>
       </c>
       <c r="Q6">
-        <v>1.12362041019844</v>
+        <v>1.13159941670359</v>
       </c>
       <c r="S6">
-        <v>13.81662932549243</v>
+        <v>19.31680202714836</v>
       </c>
       <c r="T6">
-        <v>0.115630780548912</v>
+        <v>0.04904479062858119</v>
       </c>
       <c r="U6">
-        <v>2.24724082039688</v>
+        <v>2.26319883340718</v>
       </c>
       <c r="V6" t="s">
         <v>73</v>
-      </c>
-      <c r="Z6">
-        <v>1409.08023898179</v>
-      </c>
-      <c r="AA6">
-        <v>546.6233573261375</v>
-      </c>
-      <c r="AB6">
-        <v>0.8894303993328556</v>
       </c>
     </row>
     <row r="7" spans="1:37">
@@ -1087,70 +1045,61 @@
         <v>41</v>
       </c>
       <c r="C7">
-        <v>102.8466057793805</v>
+        <v>102.8407842998636</v>
       </c>
       <c r="D7">
-        <v>1286.061222952005</v>
+        <v>1286.05636714537</v>
       </c>
       <c r="E7">
-        <v>94381.01443750518</v>
+        <v>95926.02402803503</v>
       </c>
       <c r="F7">
-        <v>1286.061222952005</v>
+        <v>1286.05636714537</v>
       </c>
       <c r="G7">
-        <v>52913.78430533053</v>
+        <v>54818.67786775681</v>
       </c>
       <c r="H7">
-        <v>0.2499744489151118</v>
+        <v>0.2570516568533118</v>
       </c>
       <c r="I7">
-        <v>30.17530088404329</v>
+        <v>19.76989977170705</v>
       </c>
       <c r="J7">
-        <v>0.1579504437366953</v>
+        <v>0.1315761634170049</v>
       </c>
       <c r="K7">
-        <v>0.4999488978302236</v>
+        <v>0.5141033137066235</v>
       </c>
       <c r="L7" t="s">
         <v>73</v>
       </c>
       <c r="M7">
-        <v>1388.907878733886</v>
+        <v>1388.897151445233</v>
       </c>
       <c r="N7">
-        <v>3587.263060842234</v>
+        <v>3512.900311825868</v>
       </c>
       <c r="O7">
-        <v>1388.907828731386</v>
+        <v>1388.897151445233</v>
       </c>
       <c r="P7">
-        <v>8422.235819065552</v>
+        <v>7665.028794180447</v>
       </c>
       <c r="Q7">
-        <v>0.9212682084441649</v>
+        <v>0.9435972265430477</v>
       </c>
       <c r="S7">
-        <v>27.99562075356897</v>
+        <v>16.7167892696931</v>
       </c>
       <c r="T7">
-        <v>0.5110815263776867</v>
+        <v>0.2347023528341131</v>
       </c>
       <c r="U7">
-        <v>1.84253641688833</v>
+        <v>1.887194453086095</v>
       </c>
       <c r="V7" t="s">
         <v>73</v>
-      </c>
-      <c r="Z7">
-        <v>1410.149078379406</v>
-      </c>
-      <c r="AA7">
-        <v>1139.031371462688</v>
-      </c>
-      <c r="AB7">
-        <v>0.6510803589571359</v>
       </c>
     </row>
     <row r="8" spans="1:37">
@@ -1161,70 +1110,61 @@
         <v>42</v>
       </c>
       <c r="C8">
-        <v>102.7573297846106</v>
+        <v>102.7608557285491</v>
       </c>
       <c r="D8">
-        <v>1286.311049912397</v>
+        <v>1286.305769701325</v>
       </c>
       <c r="E8">
-        <v>1206.738065467945</v>
+        <v>1225.734181729669</v>
       </c>
       <c r="F8">
-        <v>1286.311049912397</v>
+        <v>1286.305769701325</v>
       </c>
       <c r="G8">
-        <v>2707.907833604478</v>
+        <v>2754.390730496172</v>
       </c>
       <c r="H8">
-        <v>0.8722562675051145</v>
+        <v>0.8604946192040018</v>
       </c>
       <c r="I8">
-        <v>24.05623075759233</v>
+        <v>20.66507029614261</v>
       </c>
       <c r="J8">
-        <v>0.5269407630386118</v>
+        <v>0.5693312555578234</v>
       </c>
       <c r="K8">
-        <v>1.744512535010229</v>
+        <v>1.720989238408004</v>
       </c>
       <c r="L8" t="s">
         <v>73</v>
       </c>
       <c r="M8">
-        <v>1389.068429699507</v>
+        <v>1389.066625429874</v>
       </c>
       <c r="N8">
-        <v>1781.550253285428</v>
+        <v>1771.943284815168</v>
       </c>
       <c r="O8">
-        <v>1389.068379697007</v>
+        <v>1389.066625429874</v>
       </c>
       <c r="P8">
-        <v>3838.341257642086</v>
+        <v>3757.470614057464</v>
       </c>
       <c r="Q8">
-        <v>0.9460779548417512</v>
+        <v>0.9489252315832943</v>
       </c>
       <c r="S8">
-        <v>16.70372608008259</v>
+        <v>7.531178491050292</v>
       </c>
       <c r="T8">
-        <v>0.2021049621120038</v>
+        <v>0.1473433753714788</v>
       </c>
       <c r="U8">
-        <v>1.892155909683502</v>
+        <v>1.897850463166589</v>
       </c>
       <c r="V8" t="s">
         <v>73</v>
-      </c>
-      <c r="Z8">
-        <v>1410.597199848534</v>
-      </c>
-      <c r="AA8">
-        <v>389.9339283035096</v>
-      </c>
-      <c r="AB8">
-        <v>1.232647138951796</v>
       </c>
     </row>
     <row r="9" spans="1:37">
@@ -1235,70 +1175,61 @@
         <v>43</v>
       </c>
       <c r="C9">
-        <v>102.9080920021697</v>
+        <v>102.885668644411</v>
       </c>
       <c r="D9">
-        <v>1286.33706515728</v>
+        <v>1286.347096992009</v>
       </c>
       <c r="E9">
-        <v>3522.05815481099</v>
+        <v>3436.284929851571</v>
       </c>
       <c r="F9">
-        <v>1286.33706515728</v>
+        <v>1286.347096992009</v>
       </c>
       <c r="G9">
-        <v>8830.299463350146</v>
+        <v>8539.968426400823</v>
       </c>
       <c r="H9">
-        <v>0.9566356439761422</v>
+        <v>0.9757434267329214</v>
       </c>
       <c r="I9">
-        <v>26.22660741756057</v>
+        <v>18.10021332519167</v>
       </c>
       <c r="J9">
-        <v>0.5924474021189227</v>
+        <v>0.5076014539895513</v>
       </c>
       <c r="K9">
-        <v>1.913271287952284</v>
+        <v>1.951486853465843</v>
       </c>
       <c r="L9" t="s">
         <v>73</v>
       </c>
       <c r="M9">
-        <v>1389.24520716195</v>
+        <v>1389.23276563642</v>
       </c>
       <c r="N9">
-        <v>5288.489589012958</v>
+        <v>5127.785240630018</v>
       </c>
       <c r="O9">
-        <v>1389.245157159449</v>
+        <v>1389.23276563642</v>
       </c>
       <c r="P9">
-        <v>13139.06298968382</v>
+        <v>12171.60694012187</v>
       </c>
       <c r="Q9">
-        <v>1.045223622870332</v>
+        <v>1.068510313294677</v>
       </c>
       <c r="S9">
-        <v>29.25722906128841</v>
+        <v>46.31100767515429</v>
       </c>
       <c r="T9">
-        <v>0.3240797125812832</v>
+        <v>0.1282845581847447</v>
       </c>
       <c r="U9">
-        <v>2.090447245740664</v>
+        <v>2.137020626589353</v>
       </c>
       <c r="V9" t="s">
         <v>73</v>
-      </c>
-      <c r="Z9">
-        <v>1410.419746312861</v>
-      </c>
-      <c r="AA9">
-        <v>1322.528961192593</v>
-      </c>
-      <c r="AB9">
-        <v>0.7198688748911239</v>
       </c>
     </row>
     <row r="10" spans="1:37">
@@ -1309,70 +1240,61 @@
         <v>44</v>
       </c>
       <c r="C10">
-        <v>102.8699791414067</v>
+        <v>102.8586595126785</v>
       </c>
       <c r="D10">
-        <v>1286.225905268246</v>
+        <v>1286.232722813475</v>
       </c>
       <c r="E10">
-        <v>7220.701992233377</v>
+        <v>7052.844394818398</v>
       </c>
       <c r="F10">
-        <v>1286.225905268246</v>
+        <v>1286.232722813475</v>
       </c>
       <c r="G10">
-        <v>15965.3992725293</v>
+        <v>15731.47263379989</v>
       </c>
       <c r="H10">
-        <v>0.8472861277144058</v>
+        <v>0.8668428599486355</v>
       </c>
       <c r="I10">
-        <v>32.95295691208212</v>
+        <v>16.80380488637711</v>
       </c>
       <c r="J10">
-        <v>0.5758917881770023</v>
+        <v>0.5362314990408521</v>
       </c>
       <c r="K10">
-        <v>1.694572255428812</v>
+        <v>1.733685719897271</v>
       </c>
       <c r="L10" t="s">
         <v>73</v>
       </c>
       <c r="M10">
-        <v>1389.095934412153</v>
+        <v>1389.091382326154</v>
       </c>
       <c r="N10">
-        <v>9931.910171821643</v>
+        <v>9811.01495964505</v>
       </c>
       <c r="O10">
-        <v>1389.095884409653</v>
+        <v>1389.091382326154</v>
       </c>
       <c r="P10">
-        <v>23532.47700967595</v>
+        <v>22769.0695712166</v>
       </c>
       <c r="Q10">
-        <v>0.9956539364045248</v>
+        <v>1.002453172438806</v>
       </c>
       <c r="S10">
-        <v>33.30569549840243</v>
+        <v>45.19894584583366</v>
       </c>
       <c r="T10">
-        <v>0.3271654304109221</v>
+        <v>0.2415654884399294</v>
       </c>
       <c r="U10">
-        <v>1.99130787280905</v>
+        <v>2.004906344877612</v>
       </c>
       <c r="V10" t="s">
         <v>73</v>
-      </c>
-      <c r="Z10">
-        <v>1410.361221083588</v>
-      </c>
-      <c r="AA10">
-        <v>2607.957257880065</v>
-      </c>
-      <c r="AB10">
-        <v>0.4420445881704602</v>
       </c>
     </row>
     <row r="11" spans="1:37">
@@ -1383,70 +1305,61 @@
         <v>45</v>
       </c>
       <c r="C11">
-        <v>102.885461501075</v>
+        <v>102.8716806709665</v>
       </c>
       <c r="D11">
-        <v>1286.327966782648</v>
+        <v>1286.333840713353</v>
       </c>
       <c r="E11">
-        <v>4023.009193485474</v>
+        <v>3966.372139012373</v>
       </c>
       <c r="F11">
-        <v>1286.327966782648</v>
+        <v>1286.333840713353</v>
       </c>
       <c r="G11">
-        <v>10169.58231660839</v>
+        <v>9983.983506388895</v>
       </c>
       <c r="H11">
-        <v>0.9695283982803559</v>
+        <v>0.9810988636127106</v>
       </c>
       <c r="I11">
-        <v>27.59655671805853</v>
+        <v>17.42793669188547</v>
       </c>
       <c r="J11">
-        <v>0.5762663189803748</v>
+        <v>0.5287682613743435</v>
       </c>
       <c r="K11">
-        <v>1.939056796560712</v>
+        <v>1.962197727225421</v>
       </c>
       <c r="L11" t="s">
         <v>73</v>
       </c>
       <c r="M11">
-        <v>1389.213428283723</v>
+        <v>1389.205521384319</v>
       </c>
       <c r="N11">
-        <v>6078.563254230005</v>
+        <v>5953.523859464869</v>
       </c>
       <c r="O11">
-        <v>1389.213428283723</v>
+        <v>1389.205521384319</v>
       </c>
       <c r="P11">
-        <v>15047.15920166486</v>
+        <v>14194.91518167218</v>
       </c>
       <c r="Q11">
-        <v>1.059591606659775</v>
+        <v>1.073365685597782</v>
       </c>
       <c r="S11">
-        <v>27.13795897205863</v>
+        <v>45.27032374638942</v>
       </c>
       <c r="T11">
-        <v>0.2752685531561275</v>
+        <v>0.1276108657027861</v>
       </c>
       <c r="U11">
-        <v>2.119183213319551</v>
+        <v>2.146731371195564</v>
       </c>
       <c r="V11" t="s">
         <v>73</v>
-      </c>
-      <c r="Z11">
-        <v>1410.496323236546</v>
-      </c>
-      <c r="AA11">
-        <v>1054.109143004536</v>
-      </c>
-      <c r="AB11">
-        <v>1.012109308764504</v>
       </c>
     </row>
     <row r="12" spans="1:37">
@@ -1457,70 +1370,61 @@
         <v>46</v>
       </c>
       <c r="C12">
-        <v>102.681924145043</v>
+        <v>102.6855932171275</v>
       </c>
       <c r="D12">
-        <v>1286.744269074002</v>
+        <v>1286.74435906581</v>
       </c>
       <c r="E12">
-        <v>2413.627116500184</v>
+        <v>2405.632868100159</v>
       </c>
       <c r="F12">
-        <v>1286.744269074002</v>
+        <v>1286.74435906581</v>
       </c>
       <c r="G12">
-        <v>5114.079446855475</v>
+        <v>5063.691314233622</v>
       </c>
       <c r="H12">
-        <v>0.9878349121952636</v>
+        <v>0.989098364218723</v>
       </c>
       <c r="I12">
-        <v>28.66511700125293</v>
+        <v>17.75515118681095</v>
       </c>
       <c r="J12">
-        <v>0.03046727262352261</v>
+        <v>2.619369954270923E-08</v>
       </c>
       <c r="K12">
-        <v>1.975669824390527</v>
+        <v>1.978196728437446</v>
       </c>
       <c r="L12" t="s">
         <v>73</v>
       </c>
       <c r="M12">
-        <v>1389.426193219045</v>
+        <v>1389.429952282937</v>
       </c>
       <c r="N12">
-        <v>3618.155912745734</v>
+        <v>3724.980030091674</v>
       </c>
       <c r="O12">
-        <v>1389.426193219045</v>
+        <v>1389.429952282937</v>
       </c>
       <c r="P12">
-        <v>7825.790960761151</v>
+        <v>8237.576910512227</v>
       </c>
       <c r="Q12">
-        <v>1.015965028409881</v>
+        <v>0.9960425288043695</v>
       </c>
       <c r="S12">
-        <v>21.16580695894754</v>
+        <v>40.99087207828205</v>
       </c>
       <c r="T12">
-        <v>9.021961511201937E-10</v>
+        <v>0.1287401369705463</v>
       </c>
       <c r="U12">
-        <v>2.031930056819761</v>
+        <v>1.992085057608739</v>
       </c>
       <c r="V12" t="s">
         <v>73</v>
-      </c>
-      <c r="Z12">
-        <v>1410.694321054983</v>
-      </c>
-      <c r="AA12">
-        <v>1163.827759507055</v>
-      </c>
-      <c r="AB12">
-        <v>0.9565054663711626</v>
       </c>
     </row>
     <row r="13" spans="1:37">
@@ -1531,70 +1435,61 @@
         <v>47</v>
       </c>
       <c r="C13">
-        <v>102.6805832358491</v>
+        <v>102.6826756935873</v>
       </c>
       <c r="D13">
-        <v>1286.733661169378</v>
+        <v>1286.733899356122</v>
       </c>
       <c r="E13">
-        <v>1614.751457654623</v>
+        <v>1606.036881061065</v>
       </c>
       <c r="F13">
-        <v>1286.733661169378</v>
+        <v>1286.733899356122</v>
       </c>
       <c r="G13">
-        <v>3250.999788583541</v>
+        <v>3191.93922078033</v>
       </c>
       <c r="H13">
-        <v>0.9251820702062981</v>
+        <v>0.9289807857924254</v>
       </c>
       <c r="I13">
-        <v>28.05411845613767</v>
+        <v>22.16597614833636</v>
       </c>
       <c r="J13">
-        <v>0.06959734258670291</v>
+        <v>0.007900840107099127</v>
       </c>
       <c r="K13">
-        <v>1.850364140412596</v>
+        <v>1.857961571584851</v>
       </c>
       <c r="L13" t="s">
         <v>73</v>
       </c>
       <c r="M13">
-        <v>1389.414244405227</v>
+        <v>1389.416575049709</v>
       </c>
       <c r="N13">
-        <v>2417.919255396599</v>
+        <v>2491.588241298248</v>
       </c>
       <c r="O13">
-        <v>1389.414244405227</v>
+        <v>1389.416575049709</v>
       </c>
       <c r="P13">
-        <v>5051.198755295767</v>
+        <v>5399.930821763882</v>
       </c>
       <c r="Q13">
-        <v>0.9812743733344967</v>
+        <v>0.9708071881183616</v>
       </c>
       <c r="S13">
-        <v>27.02772507074142</v>
+        <v>37.17537663655755</v>
       </c>
       <c r="T13">
-        <v>5.499611877013422E-11</v>
+        <v>0.1442967241893067</v>
       </c>
       <c r="U13">
-        <v>1.962548746668993</v>
+        <v>1.941614376236723</v>
       </c>
       <c r="V13" t="s">
         <v>73</v>
-      </c>
-      <c r="Z13">
-        <v>1410.576584599673</v>
-      </c>
-      <c r="AA13">
-        <v>958.026422836637</v>
-      </c>
-      <c r="AB13">
-        <v>0.7584413321575874</v>
       </c>
     </row>
     <row r="14" spans="1:37">
@@ -1605,70 +1500,61 @@
         <v>48</v>
       </c>
       <c r="C14">
-        <v>102.734880578319</v>
+        <v>102.7336633628152</v>
       </c>
       <c r="D14">
-        <v>1286.789115029725</v>
+        <v>1286.78871190067</v>
       </c>
       <c r="E14">
-        <v>1802.073518378887</v>
+        <v>1796.449812848178</v>
       </c>
       <c r="F14">
-        <v>1286.789115029725</v>
+        <v>1286.78871190067</v>
       </c>
       <c r="G14">
-        <v>3979.559710993811</v>
+        <v>3938.731639775726</v>
       </c>
       <c r="H14">
-        <v>0.9721434230800418</v>
+        <v>0.9739116352741545</v>
       </c>
       <c r="I14">
-        <v>21.88877118488108</v>
+        <v>9.778449317025984</v>
       </c>
       <c r="J14">
-        <v>0.2033145740325906</v>
+        <v>0.1722445310457664</v>
       </c>
       <c r="K14">
-        <v>1.944286846160084</v>
+        <v>1.947823270548309</v>
       </c>
       <c r="L14" t="s">
         <v>73</v>
       </c>
       <c r="M14">
-        <v>1389.524045610544</v>
+        <v>1389.522375263485</v>
       </c>
       <c r="N14">
-        <v>2751.276858108638</v>
+        <v>3052.930890734868</v>
       </c>
       <c r="O14">
-        <v>1389.523995608044</v>
+        <v>1389.522375263485</v>
       </c>
       <c r="P14">
-        <v>5994.478488206599</v>
+        <v>6450.669794654087</v>
       </c>
       <c r="Q14">
-        <v>0.9757311177679132</v>
+        <v>0.8696865547692936</v>
       </c>
       <c r="S14">
-        <v>14.60296034254147</v>
+        <v>30.65920640608601</v>
       </c>
       <c r="T14">
-        <v>0.1446603364953762</v>
+        <v>0.3722709706503533</v>
       </c>
       <c r="U14">
-        <v>1.951462235535826</v>
+        <v>1.739373109538587</v>
       </c>
       <c r="V14" t="s">
         <v>73</v>
-      </c>
-      <c r="Z14">
-        <v>1410.599799167864</v>
-      </c>
-      <c r="AA14">
-        <v>828.2513603357188</v>
-      </c>
-      <c r="AB14">
-        <v>0.7339193519726637</v>
       </c>
     </row>
     <row r="15" spans="1:37">
@@ -1679,70 +1565,61 @@
         <v>49</v>
       </c>
       <c r="C15">
-        <v>102.7863917032746</v>
+        <v>102.7906998121791</v>
       </c>
       <c r="D15">
-        <v>1286.641044769061</v>
+        <v>1286.641421075755</v>
       </c>
       <c r="E15">
-        <v>435.264337751287</v>
+        <v>426.9454752425316</v>
       </c>
       <c r="F15">
-        <v>1286.641044769061</v>
+        <v>1286.641421075755</v>
       </c>
       <c r="G15">
-        <v>1158.774808420543</v>
+        <v>1110.570082823812</v>
       </c>
       <c r="H15">
-        <v>0.8747294391523273</v>
+        <v>0.9012754405214232</v>
       </c>
       <c r="I15">
-        <v>19.60791936671801</v>
+        <v>16.27896449360167</v>
       </c>
       <c r="J15">
-        <v>0.9502519757709795</v>
+        <v>0.8092548723021609</v>
       </c>
       <c r="K15">
-        <v>1.749458878304655</v>
+        <v>1.802550881042846</v>
       </c>
       <c r="L15" t="s">
         <v>73</v>
       </c>
       <c r="M15">
-        <v>1389.427486474835</v>
+        <v>1389.432120887934</v>
       </c>
       <c r="N15">
-        <v>1087.089925698818</v>
+        <v>1137.918856811221</v>
       </c>
       <c r="O15">
-        <v>1389.427436472335</v>
+        <v>1389.432120887934</v>
       </c>
       <c r="P15">
-        <v>1673.938481893931</v>
+        <v>1636.057202003026</v>
       </c>
       <c r="Q15">
-        <v>0.6210887437710108</v>
+        <v>0.6011969349015571</v>
       </c>
       <c r="S15">
-        <v>16.33625522261445</v>
+        <v>5.755366272132357</v>
       </c>
       <c r="T15">
-        <v>0.4389652172784942</v>
+        <v>0.3401609320866357</v>
       </c>
       <c r="U15">
-        <v>1.242177487542022</v>
+        <v>1.202393869803114</v>
       </c>
       <c r="V15" t="s">
         <v>73</v>
-      </c>
-      <c r="Z15">
-        <v>1410.444141144135</v>
-      </c>
-      <c r="AA15">
-        <v>388.1796870366107</v>
-      </c>
-      <c r="AB15">
-        <v>1.054833721932805</v>
       </c>
     </row>
     <row r="16" spans="1:37">
@@ -1753,73 +1630,64 @@
         <v>50</v>
       </c>
       <c r="C16">
-        <v>102.8043195433772</v>
+        <v>102.8025004895858</v>
       </c>
       <c r="D16">
-        <v>1286.491621517951</v>
+        <v>1286.496886015965</v>
       </c>
       <c r="E16">
-        <v>463.3680420926002</v>
+        <v>445.9843497869983</v>
       </c>
       <c r="F16">
-        <v>1286.491621517951</v>
+        <v>1286.496886015965</v>
       </c>
       <c r="G16">
-        <v>955.6739637627564</v>
+        <v>893.5855077158486</v>
       </c>
       <c r="H16">
-        <v>0.7484540955660969</v>
+        <v>0.780551602162337</v>
       </c>
       <c r="I16">
-        <v>19.55999435596958</v>
+        <v>18.53127725495264</v>
       </c>
       <c r="J16">
-        <v>0.7285225870324648</v>
+        <v>0.522003879027755</v>
       </c>
       <c r="K16">
-        <v>1.496908191132194</v>
+        <v>1.561103204324674</v>
       </c>
       <c r="L16" t="s">
         <v>73</v>
       </c>
       <c r="M16">
-        <v>1389.295991063828</v>
+        <v>1389.299386505551</v>
       </c>
       <c r="N16">
-        <v>613.8264534297509</v>
+        <v>596.8898742307751</v>
       </c>
       <c r="O16">
-        <v>1389.295941061328</v>
+        <v>1389.299386505551</v>
       </c>
       <c r="P16">
-        <v>1361.868154826031</v>
+        <v>1266.517796612685</v>
       </c>
       <c r="Q16">
-        <v>1.008663438156559</v>
+        <v>0.9850256941881742</v>
       </c>
       <c r="S16">
-        <v>17.04929791738041</v>
+        <v>10.36845116189075</v>
       </c>
       <c r="T16">
-        <v>0.1013236717371634</v>
+        <v>2.978728375069295E-13</v>
       </c>
       <c r="U16">
-        <v>2.017326876313117</v>
+        <v>1.970051388376348</v>
       </c>
       <c r="V16" t="s">
         <v>73</v>
       </c>
-      <c r="Z16">
-        <v>1410.281744959499</v>
-      </c>
-      <c r="AA16">
-        <v>496.1975664110009</v>
-      </c>
-      <c r="AB16">
-        <v>1.007633576623516</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28">
+    </row>
+    <row r="17" spans="1:22">
       <c r="A17" s="1">
         <v>0</v>
       </c>
@@ -1827,73 +1695,64 @@
         <v>51</v>
       </c>
       <c r="C17">
-        <v>102.886619859084</v>
+        <v>102.8873731140864</v>
       </c>
       <c r="D17">
-        <v>1286.471245938909</v>
+        <v>1286.47700283659</v>
       </c>
       <c r="E17">
-        <v>358.308890563801</v>
+        <v>351.6661955564749</v>
       </c>
       <c r="F17">
-        <v>1286.471245938909</v>
+        <v>1286.47700283659</v>
       </c>
       <c r="G17">
-        <v>677.9445006895349</v>
+        <v>655.5443779731661</v>
       </c>
       <c r="H17">
-        <v>0.8721132175777936</v>
+        <v>0.8775504570699872</v>
       </c>
       <c r="I17">
-        <v>17.18413289298432</v>
+        <v>13.21271148343602</v>
       </c>
       <c r="J17">
-        <v>0.08923019101922808</v>
+        <v>2.1118521154051E-08</v>
       </c>
       <c r="K17">
-        <v>1.744226435155587</v>
+        <v>1.755100914139974</v>
       </c>
       <c r="L17" t="s">
         <v>73</v>
       </c>
       <c r="M17">
-        <v>1389.357865797993</v>
+        <v>1389.364375950676</v>
       </c>
       <c r="N17">
-        <v>960.5455094164397</v>
+        <v>1008.683643594159</v>
       </c>
       <c r="O17">
-        <v>1389.357865797993</v>
+        <v>1389.364375950676</v>
       </c>
       <c r="P17">
-        <v>1409.613395481067</v>
+        <v>1430.762653037722</v>
       </c>
       <c r="Q17">
-        <v>0.5851591092693913</v>
+        <v>0.5675519519562738</v>
       </c>
       <c r="S17">
-        <v>11.00729780866478</v>
+        <v>2.634885017075097</v>
       </c>
       <c r="T17">
-        <v>0.4687755062729987</v>
+        <v>0.4570857376352336</v>
       </c>
       <c r="U17">
-        <v>1.170318218538783</v>
+        <v>1.135103903912548</v>
       </c>
       <c r="V17" t="s">
         <v>73</v>
       </c>
-      <c r="Z17">
-        <v>1410.15250598425</v>
-      </c>
-      <c r="AA17">
-        <v>291.8271190047095</v>
-      </c>
-      <c r="AB17">
-        <v>1.127011347526245</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28">
+    </row>
+    <row r="18" spans="1:22">
       <c r="A18" s="1">
         <v>0</v>
       </c>
@@ -1901,73 +1760,64 @@
         <v>52</v>
       </c>
       <c r="C18">
-        <v>102.6004907944759</v>
+        <v>102.5849226037778</v>
       </c>
       <c r="D18">
-        <v>1286.798387022337</v>
+        <v>1286.800140887441</v>
       </c>
       <c r="E18">
-        <v>386.4362022610113</v>
+        <v>386.8738102758479</v>
       </c>
       <c r="F18">
-        <v>1286.798387022337</v>
+        <v>1286.800140887441</v>
       </c>
       <c r="G18">
-        <v>827.8254961695607</v>
+        <v>837.8192680453002</v>
       </c>
       <c r="H18">
-        <v>0.9415949731230547</v>
+        <v>0.9393060320472988</v>
       </c>
       <c r="I18">
-        <v>20.43287129329144</v>
+        <v>15.90053484608702</v>
       </c>
       <c r="J18">
-        <v>0.1993184090375956</v>
+        <v>0.2349094205647511</v>
       </c>
       <c r="K18">
-        <v>1.883189946246109</v>
+        <v>1.878612064094598</v>
       </c>
       <c r="L18" t="s">
         <v>73</v>
       </c>
       <c r="M18">
-        <v>1389.398927819313</v>
+        <v>1389.385063491219</v>
       </c>
       <c r="N18">
-        <v>748.0409270003902</v>
+        <v>670.4887991755136</v>
       </c>
       <c r="O18">
-        <v>1389.398877816813</v>
+        <v>1389.385063491219</v>
       </c>
       <c r="P18">
-        <v>1624.250201410449</v>
+        <v>1412.935676404875</v>
       </c>
       <c r="Q18">
-        <v>0.8647954806004835</v>
+        <v>0.950992619230032</v>
       </c>
       <c r="S18">
-        <v>19.2429770173943</v>
+        <v>23.92254301026523</v>
       </c>
       <c r="T18">
-        <v>0.4731490239979545</v>
+        <v>0.1330150330933812</v>
       </c>
       <c r="U18">
-        <v>1.729590961200967</v>
+        <v>1.901985238460064</v>
       </c>
       <c r="V18" t="s">
         <v>73</v>
       </c>
-      <c r="Z18">
-        <v>1410.379238204627</v>
-      </c>
-      <c r="AA18">
-        <v>541.0464531497427</v>
-      </c>
-      <c r="AB18">
-        <v>0.9516155378467643</v>
-      </c>
-    </row>
-    <row r="19" spans="1:28">
+    </row>
+    <row r="19" spans="1:22">
       <c r="A19" s="1">
         <v>0</v>
       </c>
@@ -1975,73 +1825,64 @@
         <v>53</v>
       </c>
       <c r="C19">
-        <v>102.6481942552991</v>
+        <v>102.6650623845815</v>
       </c>
       <c r="D19">
-        <v>1286.573997385663</v>
+        <v>1286.57572641406</v>
       </c>
       <c r="E19">
-        <v>984.8210979230105</v>
+        <v>980.3646425217778</v>
       </c>
       <c r="F19">
-        <v>1286.573997385663</v>
+        <v>1286.57572641406</v>
       </c>
       <c r="G19">
-        <v>2009.977841824973</v>
+        <v>1988.263629070326</v>
       </c>
       <c r="H19">
-        <v>0.9259452644132061</v>
+        <v>0.9286364873510612</v>
       </c>
       <c r="I19">
-        <v>28.2683517272161</v>
+        <v>21.85676618038584</v>
       </c>
       <c r="J19">
-        <v>0.108507890780533</v>
+        <v>0.07298005548559128</v>
       </c>
       <c r="K19">
-        <v>1.851890528826412</v>
+        <v>1.857272974702122</v>
       </c>
       <c r="L19" t="s">
         <v>73</v>
       </c>
       <c r="M19">
-        <v>1389.222191640963</v>
+        <v>1389.240788798642</v>
       </c>
       <c r="N19">
-        <v>1536.918983221817</v>
+        <v>1619.05718488564</v>
       </c>
       <c r="O19">
-        <v>1389.222191640963</v>
+        <v>1389.240788798642</v>
       </c>
       <c r="P19">
-        <v>2965.832989642902</v>
+        <v>3267.244090589439</v>
       </c>
       <c r="Q19">
-        <v>0.9064284121048781</v>
+        <v>0.8741645087131903</v>
       </c>
       <c r="S19">
-        <v>19.75576755297575</v>
+        <v>9.941497734303889</v>
       </c>
       <c r="T19">
-        <v>5.551115123125783E-17</v>
+        <v>0.2393111165059811</v>
       </c>
       <c r="U19">
-        <v>1.812856824209756</v>
+        <v>1.748329017426381</v>
       </c>
       <c r="V19" t="s">
         <v>73</v>
       </c>
-      <c r="Z19">
-        <v>1410.329970196421</v>
-      </c>
-      <c r="AA19">
-        <v>932.1319934833864</v>
-      </c>
-      <c r="AB19">
-        <v>0.4915073654543949</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28">
+    </row>
+    <row r="20" spans="1:22">
       <c r="A20" s="1">
         <v>0</v>
       </c>
@@ -2049,73 +1890,64 @@
         <v>54</v>
       </c>
       <c r="C20">
-        <v>102.5684781272168</v>
+        <v>102.5621047501488</v>
       </c>
       <c r="D20">
-        <v>1286.781190614447</v>
+        <v>1286.781041751173</v>
       </c>
       <c r="E20">
-        <v>369.4355193964985</v>
+        <v>366.3305632392745</v>
       </c>
       <c r="F20">
-        <v>1286.781190614447</v>
+        <v>1286.781041751173</v>
       </c>
       <c r="G20">
-        <v>761.3153726917329</v>
+        <v>754.7525497071704</v>
       </c>
       <c r="H20">
-        <v>0.9731144579080604</v>
+        <v>0.9685581864507886</v>
       </c>
       <c r="I20">
-        <v>19.12102705141448</v>
+        <v>15.76614301970406</v>
       </c>
       <c r="J20">
-        <v>2.83500804498793E-08</v>
+        <v>3.500577605564104E-11</v>
       </c>
       <c r="K20">
-        <v>1.946228915816121</v>
+        <v>1.937116372901577</v>
       </c>
       <c r="L20" t="s">
         <v>73</v>
       </c>
       <c r="M20">
-        <v>1389.349668741664</v>
+        <v>1389.343146501322</v>
       </c>
       <c r="N20">
-        <v>620.7927794928229</v>
+        <v>628.8114732765837</v>
       </c>
       <c r="O20">
-        <v>1389.349668741664</v>
+        <v>1389.343146501322</v>
       </c>
       <c r="P20">
-        <v>1205.044523409177</v>
+        <v>1275.92966456161</v>
       </c>
       <c r="Q20">
-        <v>0.9117887504662502</v>
+        <v>0.9270961327260167</v>
       </c>
       <c r="S20">
-        <v>17.79355402601108</v>
+        <v>24.60914389864252</v>
       </c>
       <c r="T20">
-        <v>5.551115123125783E-17</v>
+        <v>0.1013549879727919</v>
       </c>
       <c r="U20">
-        <v>1.8235775009325</v>
+        <v>1.854192265452033</v>
       </c>
       <c r="V20" t="s">
         <v>73</v>
       </c>
-      <c r="Z20">
-        <v>1410.3010621845</v>
-      </c>
-      <c r="AA20">
-        <v>447.3671241647439</v>
-      </c>
-      <c r="AB20">
-        <v>0.5050625427917591</v>
-      </c>
-    </row>
-    <row r="21" spans="1:28">
+    </row>
+    <row r="21" spans="1:22">
       <c r="A21" s="1">
         <v>0</v>
       </c>
@@ -2123,73 +1955,64 @@
         <v>55</v>
       </c>
       <c r="C21">
-        <v>102.6703296358119</v>
+        <v>102.6687231427934</v>
       </c>
       <c r="D21">
-        <v>1286.480205771355</v>
+        <v>1286.479471550642</v>
       </c>
       <c r="E21">
-        <v>2040.342788195842</v>
+        <v>2026.123491641789</v>
       </c>
       <c r="F21">
-        <v>1286.480205771355</v>
+        <v>1286.479471550642</v>
       </c>
       <c r="G21">
-        <v>4037.07862376027</v>
+        <v>3984.864354348469</v>
       </c>
       <c r="H21">
-        <v>0.926518490821846</v>
+        <v>0.9241155950137987</v>
       </c>
       <c r="I21">
-        <v>45.39038357853781</v>
+        <v>24.88952043176266</v>
       </c>
       <c r="J21">
-        <v>0.02173392328456775</v>
+        <v>2.253752739989068E-14</v>
       </c>
       <c r="K21">
-        <v>1.853036981643692</v>
+        <v>1.848231190027597</v>
       </c>
       <c r="L21" t="s">
         <v>73</v>
       </c>
       <c r="M21">
-        <v>1389.150585409667</v>
+        <v>1389.148194693436</v>
       </c>
       <c r="N21">
-        <v>3148.269227624803</v>
+        <v>3145.547991383864</v>
       </c>
       <c r="O21">
-        <v>1389.150535407167</v>
+        <v>1389.148194693436</v>
       </c>
       <c r="P21">
-        <v>6802.178318703645</v>
+        <v>6846.726313972775</v>
       </c>
       <c r="Q21">
-        <v>0.944416432891264</v>
+        <v>0.9469201681214841</v>
       </c>
       <c r="S21">
-        <v>26.2621521995728</v>
+        <v>25.63337456248083</v>
       </c>
       <c r="T21">
-        <v>0.2155719570975127</v>
+        <v>0.2256104863991026</v>
       </c>
       <c r="U21">
-        <v>1.888832865782528</v>
+        <v>1.893840336242968</v>
       </c>
       <c r="V21" t="s">
         <v>73</v>
       </c>
-      <c r="Z21">
-        <v>1410.481371623903</v>
-      </c>
-      <c r="AA21">
-        <v>747.6075651823415</v>
-      </c>
-      <c r="AB21">
-        <v>1.069771045606356</v>
-      </c>
-    </row>
-    <row r="22" spans="1:28">
+    </row>
+    <row r="22" spans="1:22">
       <c r="A22" s="1">
         <v>0</v>
       </c>
@@ -2197,73 +2020,64 @@
         <v>56</v>
       </c>
       <c r="C22">
-        <v>102.6348016278453</v>
+        <v>102.6327633161636</v>
       </c>
       <c r="D22">
-        <v>1286.426876632096</v>
+        <v>1286.429439066332</v>
       </c>
       <c r="E22">
-        <v>2460.287898074755</v>
+        <v>2445.474646838822</v>
       </c>
       <c r="F22">
-        <v>1286.426876632096</v>
+        <v>1286.429439066332</v>
       </c>
       <c r="G22">
-        <v>5140.428514659</v>
+        <v>5078.116683565939</v>
       </c>
       <c r="H22">
-        <v>0.9659505414007854</v>
+        <v>0.9692782502785957</v>
       </c>
       <c r="I22">
-        <v>36.69619105103804</v>
+        <v>19.5789653239264</v>
       </c>
       <c r="J22">
-        <v>0.05696598403979475</v>
+        <v>0.02000963824015572</v>
       </c>
       <c r="K22">
-        <v>1.931901082801571</v>
+        <v>1.938556500557191</v>
       </c>
       <c r="L22" t="s">
         <v>73</v>
       </c>
       <c r="M22">
-        <v>1389.061678259941</v>
+        <v>1389.062202382496</v>
       </c>
       <c r="N22">
-        <v>3785.945621643044</v>
+        <v>3788.563845088485</v>
       </c>
       <c r="O22">
-        <v>1389.061678259941</v>
+        <v>1389.062202382496</v>
       </c>
       <c r="P22">
-        <v>8022.921099211243</v>
+        <v>8101.399985061963</v>
       </c>
       <c r="Q22">
-        <v>0.936534878507354</v>
+        <v>0.9351185764727784</v>
       </c>
       <c r="S22">
-        <v>21.66375527168431</v>
+        <v>5.757323892902579</v>
       </c>
       <c r="T22">
-        <v>0.1834510792346982</v>
+        <v>0.2087210458760493</v>
       </c>
       <c r="U22">
-        <v>1.873069757014708</v>
+        <v>1.870237152945557</v>
       </c>
       <c r="V22" t="s">
         <v>73</v>
       </c>
-      <c r="Z22">
-        <v>1410.376707075025</v>
-      </c>
-      <c r="AA22">
-        <v>943.4902416997346</v>
-      </c>
-      <c r="AB22">
-        <v>0.9449054496154625</v>
-      </c>
-    </row>
-    <row r="23" spans="1:28">
+    </row>
+    <row r="23" spans="1:22">
       <c r="A23" s="1">
         <v>0</v>
       </c>
@@ -2271,73 +2085,64 @@
         <v>57</v>
       </c>
       <c r="C23">
-        <v>102.666971347403</v>
+        <v>102.6797652015673</v>
       </c>
       <c r="D23">
-        <v>1286.457947838444</v>
+        <v>1286.459979845213</v>
       </c>
       <c r="E23">
-        <v>2612.747555954442</v>
+        <v>2601.074941238019</v>
       </c>
       <c r="F23">
-        <v>1286.457947838444</v>
+        <v>1286.459979845213</v>
       </c>
       <c r="G23">
-        <v>5618.962726249405</v>
+        <v>5570.133827424919</v>
       </c>
       <c r="H23">
-        <v>0.9554347659079307</v>
+        <v>0.9580961878465649</v>
       </c>
       <c r="I23">
-        <v>29.59050335628854</v>
+        <v>19.15594640320278</v>
       </c>
       <c r="J23">
-        <v>0.1716105163237993</v>
+        <v>0.1452157551838803</v>
       </c>
       <c r="K23">
-        <v>1.910869531815861</v>
+        <v>1.91619237569313</v>
       </c>
       <c r="L23" t="s">
         <v>73</v>
       </c>
       <c r="M23">
-        <v>1389.124969188347</v>
+        <v>1389.13974504678</v>
       </c>
       <c r="N23">
-        <v>3880.90713560766</v>
+        <v>4005.63660212926</v>
       </c>
       <c r="O23">
-        <v>1389.124919185847</v>
+        <v>1389.13974504678</v>
       </c>
       <c r="P23">
-        <v>8011.027832725596</v>
+        <v>8826.947876482211</v>
       </c>
       <c r="Q23">
-        <v>0.9696003936651183</v>
+        <v>0.9496995590991667</v>
       </c>
       <c r="S23">
-        <v>28.86466381893128</v>
+        <v>24.8947033920034</v>
       </c>
       <c r="T23">
-        <v>1.293409823688307E-14</v>
+        <v>0.250212258970307</v>
       </c>
       <c r="U23">
-        <v>1.939200787330237</v>
+        <v>1.899399118198333</v>
       </c>
       <c r="V23" t="s">
         <v>73</v>
       </c>
-      <c r="Z23">
-        <v>1410.302176153826</v>
-      </c>
-      <c r="AA23">
-        <v>1242.450446000606</v>
-      </c>
-      <c r="AB23">
-        <v>0.5531963473293765</v>
-      </c>
-    </row>
-    <row r="24" spans="1:28">
+    </row>
+    <row r="24" spans="1:22">
       <c r="A24" s="1">
         <v>0</v>
       </c>
@@ -2345,73 +2150,64 @@
         <v>58</v>
       </c>
       <c r="C24">
-        <v>102.6865991423754</v>
+        <v>102.717923863991</v>
       </c>
       <c r="D24">
-        <v>1286.75408522217</v>
+        <v>1286.753687699065</v>
       </c>
       <c r="E24">
-        <v>425.509235291439</v>
+        <v>436.2719867437154</v>
       </c>
       <c r="F24">
-        <v>1286.75408522217</v>
+        <v>1286.753687699065</v>
       </c>
       <c r="G24">
-        <v>761.5968129691551</v>
+        <v>784.7275495677219</v>
       </c>
       <c r="H24">
-        <v>0.8280444065916052</v>
+        <v>0.8433944590710032</v>
       </c>
       <c r="I24">
-        <v>19.79839134639115</v>
+        <v>16.30150067679669</v>
       </c>
       <c r="J24">
-        <v>5.939817526723346E-10</v>
+        <v>2.622757566683731E-09</v>
       </c>
       <c r="K24">
-        <v>1.65608881318321</v>
+        <v>1.686788918142006</v>
       </c>
       <c r="L24" t="s">
         <v>73</v>
       </c>
       <c r="M24">
-        <v>1389.440684364546</v>
+        <v>1389.471611563056</v>
       </c>
       <c r="N24">
-        <v>966.0209908418811</v>
+        <v>2975.57402067405</v>
       </c>
       <c r="O24">
-        <v>1389.440684364546</v>
+        <v>1389.471611563056</v>
       </c>
       <c r="P24">
-        <v>1556.267491003709</v>
+        <v>2784.504970820703</v>
       </c>
       <c r="Q24">
-        <v>0.6199172017598487</v>
+        <v>0.3673562593884666</v>
       </c>
       <c r="S24">
-        <v>16.4487602218505</v>
+        <v>3.38053423590607</v>
       </c>
       <c r="T24">
-        <v>0.5608513433222618</v>
+        <v>0.5087028436323853</v>
       </c>
       <c r="U24">
-        <v>1.239834403519697</v>
+        <v>0.7347125187769332</v>
       </c>
       <c r="V24" t="s">
         <v>73</v>
       </c>
-      <c r="Z24">
-        <v>1409.905351146141</v>
-      </c>
-      <c r="AA24">
-        <v>234.9588758598872</v>
-      </c>
-      <c r="AB24">
-        <v>1.44524167900995</v>
-      </c>
-    </row>
-    <row r="25" spans="1:28">
+    </row>
+    <row r="25" spans="1:22">
       <c r="A25" s="1">
         <v>0</v>
       </c>
@@ -2419,73 +2215,64 @@
         <v>59</v>
       </c>
       <c r="C25">
-        <v>102.6180232824058</v>
+        <v>102.6040118164017</v>
       </c>
       <c r="D25">
-        <v>1286.900223786638</v>
+        <v>1286.911547144346</v>
       </c>
       <c r="E25">
-        <v>372.7248208724197</v>
+        <v>363.9869229046013</v>
       </c>
       <c r="F25">
-        <v>1286.900223786638</v>
+        <v>1286.911547144346</v>
       </c>
       <c r="G25">
-        <v>1225.68949677208</v>
+        <v>1146.384215703087</v>
       </c>
       <c r="H25">
-        <v>1.057084966545588</v>
+        <v>0.9969837443874865</v>
       </c>
       <c r="I25">
-        <v>28.18883091415866</v>
+        <v>22.34691363456718</v>
       </c>
       <c r="J25">
-        <v>0.9999999807315918</v>
+        <v>0.9999999973131244</v>
       </c>
       <c r="K25">
-        <v>2.114169933091176</v>
+        <v>1.993967488774973</v>
       </c>
       <c r="L25" t="s">
         <v>73</v>
       </c>
       <c r="M25">
-        <v>1389.518247069043</v>
+        <v>1389.515558960747</v>
       </c>
       <c r="N25">
-        <v>517.3395344029004</v>
+        <v>19564.97811409539</v>
       </c>
       <c r="O25">
-        <v>1389.518247069043</v>
+        <v>1389.515558960747</v>
       </c>
       <c r="P25">
-        <v>1170.781692511092</v>
+        <v>11140.14754215652</v>
       </c>
       <c r="Q25">
-        <v>1.063011709270168</v>
+        <v>0.2511986253492783</v>
       </c>
       <c r="S25">
-        <v>24.7584487594505</v>
+        <v>27.13683605818644</v>
       </c>
       <c r="T25">
-        <v>5.551115123125783E-17</v>
+        <v>0.1871246696329508</v>
       </c>
       <c r="U25">
-        <v>2.126023418540336</v>
+        <v>0.5023972506985567</v>
       </c>
       <c r="V25" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z25">
-        <v>1410.396440902404</v>
-      </c>
-      <c r="AA25">
-        <v>355.6333808119639</v>
-      </c>
-      <c r="AB25">
-        <v>0.4983431962623323</v>
-      </c>
-    </row>
-    <row r="26" spans="1:28">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22">
       <c r="A26" s="1">
         <v>0</v>
       </c>
@@ -2493,73 +2280,64 @@
         <v>60</v>
       </c>
       <c r="C26">
-        <v>102.6953123234553</v>
+        <v>102.6547036380412</v>
       </c>
       <c r="D26">
-        <v>1286.665386318116</v>
+        <v>1286.663797310119</v>
       </c>
       <c r="E26">
-        <v>437.4422682771773</v>
+        <v>422.62147063261</v>
       </c>
       <c r="F26">
-        <v>1286.665386318116</v>
+        <v>1286.663797310119</v>
       </c>
       <c r="G26">
-        <v>1011.529044669686</v>
+        <v>981.3134703672897</v>
       </c>
       <c r="H26">
-        <v>1.104292770760954</v>
+        <v>1.08772241006666</v>
       </c>
       <c r="I26">
-        <v>26.33272358442821</v>
+        <v>19.02208751822132</v>
       </c>
       <c r="J26">
-        <v>3.201555687226687E-11</v>
+        <v>3.58547863621439E-09</v>
       </c>
       <c r="K26">
-        <v>2.208585541521908</v>
+        <v>2.175444820133321</v>
       </c>
       <c r="L26" t="s">
         <v>73</v>
       </c>
       <c r="M26">
-        <v>1389.360748644071</v>
+        <v>1389.31850094816</v>
       </c>
       <c r="N26">
-        <v>758.9926207261199</v>
+        <v>675.7686178440056</v>
       </c>
       <c r="O26">
-        <v>1389.360698641571</v>
+        <v>1389.31850094816</v>
       </c>
       <c r="P26">
-        <v>2097.9148217278</v>
+        <v>1660.823647295196</v>
       </c>
       <c r="Q26">
-        <v>1.052114149169527</v>
+        <v>1.155673367317772</v>
       </c>
       <c r="S26">
-        <v>28.25946194293158</v>
+        <v>23.87816998460539</v>
       </c>
       <c r="T26">
-        <v>0.5899367808885977</v>
+        <v>1.621730250089826E-09</v>
       </c>
       <c r="U26">
-        <v>2.104228298339055</v>
+        <v>2.311346734635545</v>
       </c>
       <c r="V26" t="s">
         <v>73</v>
       </c>
-      <c r="Z26">
-        <v>1410.557677010326</v>
-      </c>
-      <c r="AA26">
-        <v>737.2960238288235</v>
-      </c>
-      <c r="AB26">
-        <v>0.9229949514407336</v>
-      </c>
-    </row>
-    <row r="27" spans="1:28">
+    </row>
+    <row r="27" spans="1:22">
       <c r="A27" s="1">
         <v>0</v>
       </c>
@@ -2567,73 +2345,64 @@
         <v>61</v>
       </c>
       <c r="C27">
-        <v>102.6958931868101</v>
+        <v>102.6829755309448</v>
       </c>
       <c r="D27">
-        <v>1286.316508625729</v>
+        <v>1286.322143591987</v>
       </c>
       <c r="E27">
-        <v>1933.327326187368</v>
+        <v>1907.94281619426</v>
       </c>
       <c r="F27">
-        <v>1286.316508625729</v>
+        <v>1286.322143591987</v>
       </c>
       <c r="G27">
-        <v>3813.26193615628</v>
+        <v>3764.876624627541</v>
       </c>
       <c r="H27">
-        <v>0.8219638450219778</v>
+        <v>0.832057507105665</v>
       </c>
       <c r="I27">
-        <v>24.50079136811959</v>
+        <v>13.90075973744837</v>
       </c>
       <c r="J27">
-        <v>0.3570141285773814</v>
+        <v>0.3202254624544135</v>
       </c>
       <c r="K27">
-        <v>1.643927690043956</v>
+        <v>1.66411501421133</v>
       </c>
       <c r="L27" t="s">
         <v>73</v>
       </c>
       <c r="M27">
-        <v>1389.012451815039</v>
+        <v>1389.005119122932</v>
       </c>
       <c r="N27">
-        <v>2665.262604754806</v>
+        <v>2638.613766964909</v>
       </c>
       <c r="O27">
-        <v>1389.012401812539</v>
+        <v>1389.005119122932</v>
       </c>
       <c r="P27">
-        <v>5831.409057190251</v>
+        <v>5643.33263537415</v>
       </c>
       <c r="Q27">
-        <v>0.943264180000978</v>
+        <v>0.9520597304495034</v>
       </c>
       <c r="S27">
-        <v>16.85609729605603</v>
+        <v>15.12512775327985</v>
       </c>
       <c r="T27">
-        <v>0.255192891892449</v>
+        <v>0.1587473489207132</v>
       </c>
       <c r="U27">
-        <v>1.886528360001956</v>
+        <v>1.904119460899007</v>
       </c>
       <c r="V27" t="s">
         <v>73</v>
       </c>
-      <c r="Z27">
-        <v>1410.281512951849</v>
-      </c>
-      <c r="AA27">
-        <v>1187.58750552986</v>
-      </c>
-      <c r="AB27">
-        <v>0.6409218267209931</v>
-      </c>
-    </row>
-    <row r="28" spans="1:28">
+    </row>
+    <row r="28" spans="1:22">
       <c r="A28" s="1">
         <v>0</v>
       </c>
@@ -2641,73 +2410,64 @@
         <v>62</v>
       </c>
       <c r="C28">
-        <v>102.6639619595655</v>
+        <v>102.6586795342155</v>
       </c>
       <c r="D28">
-        <v>1286.303795990711</v>
+        <v>1286.308766032325</v>
       </c>
       <c r="E28">
-        <v>1712.185914462004</v>
+        <v>1691.928968563508</v>
       </c>
       <c r="F28">
-        <v>1286.303795990711</v>
+        <v>1286.308766032325</v>
       </c>
       <c r="G28">
-        <v>3559.244322835998</v>
+        <v>3514.758275791038</v>
       </c>
       <c r="H28">
-        <v>0.8950634432062556</v>
+        <v>0.9039175050013899</v>
       </c>
       <c r="I28">
-        <v>26.21129119804883</v>
+        <v>15.00401029016355</v>
       </c>
       <c r="J28">
-        <v>0.2622535157649745</v>
+        <v>0.2243658488521119</v>
       </c>
       <c r="K28">
-        <v>1.790126886412511</v>
+        <v>1.80783501000278</v>
       </c>
       <c r="L28" t="s">
         <v>73</v>
       </c>
       <c r="M28">
-        <v>1388.967807952776</v>
+        <v>1388.967445566541</v>
       </c>
       <c r="N28">
-        <v>2565.521226392249</v>
+        <v>2566.922665566381</v>
       </c>
       <c r="O28">
-        <v>1388.967757950276</v>
+        <v>1388.967445566541</v>
       </c>
       <c r="P28">
-        <v>5362.204294837574</v>
+        <v>5395.814108685149</v>
       </c>
       <c r="Q28">
-        <v>0.9391910954064502</v>
+        <v>0.9391964357767694</v>
       </c>
       <c r="S28">
-        <v>12.14616007238597</v>
+        <v>9.605549502751808</v>
       </c>
       <c r="T28">
-        <v>0.134604930896488</v>
+        <v>0.1491717830047502</v>
       </c>
       <c r="U28">
-        <v>1.8783821908129</v>
+        <v>1.878392871553539</v>
       </c>
       <c r="V28" t="s">
         <v>73</v>
       </c>
-      <c r="Z28">
-        <v>1410.192000494912</v>
-      </c>
-      <c r="AA28">
-        <v>960.8907294867627</v>
-      </c>
-      <c r="AB28">
-        <v>1.117560447407883</v>
-      </c>
-    </row>
-    <row r="29" spans="1:28">
+    </row>
+    <row r="29" spans="1:22">
       <c r="A29" s="1">
         <v>0</v>
       </c>
@@ -2715,73 +2475,64 @@
         <v>63</v>
       </c>
       <c r="C29">
-        <v>102.662577511966</v>
+        <v>102.6610052410663</v>
       </c>
       <c r="D29">
-        <v>1286.438827943575</v>
+        <v>1286.443841789798</v>
       </c>
       <c r="E29">
-        <v>1272.807999694702</v>
+        <v>1253.014914261975</v>
       </c>
       <c r="F29">
-        <v>1286.438827943575</v>
+        <v>1286.443841789798</v>
       </c>
       <c r="G29">
-        <v>2713.221202814539</v>
+        <v>2626.214412631505</v>
       </c>
       <c r="H29">
-        <v>0.9784985375892965</v>
+        <v>0.9837829529915021</v>
       </c>
       <c r="I29">
-        <v>30.31591643598809</v>
+        <v>20.36114386662127</v>
       </c>
       <c r="J29">
-        <v>0.08908115792623966</v>
+        <v>1.07174863428483E-09</v>
       </c>
       <c r="K29">
-        <v>1.956997075178593</v>
+        <v>1.967565905983004</v>
       </c>
       <c r="L29" t="s">
         <v>73</v>
       </c>
       <c r="M29">
-        <v>1389.101455458041</v>
+        <v>1389.104847030865</v>
       </c>
       <c r="N29">
-        <v>1956.210914480943</v>
+        <v>1974.872603672946</v>
       </c>
       <c r="O29">
-        <v>1389.101405455541</v>
+        <v>1389.104847030865</v>
       </c>
       <c r="P29">
-        <v>4240.98824488428</v>
+        <v>4393.266415067403</v>
       </c>
       <c r="Q29">
-        <v>0.969863641395824</v>
+        <v>0.9654690550557203</v>
       </c>
       <c r="S29">
-        <v>20.33440477409895</v>
+        <v>13.98942389227002</v>
       </c>
       <c r="T29">
-        <v>0.1477413881998527</v>
+        <v>0.2325652338744849</v>
       </c>
       <c r="U29">
-        <v>1.939727282791648</v>
+        <v>1.930938110111441</v>
       </c>
       <c r="V29" t="s">
         <v>73</v>
       </c>
-      <c r="Z29">
-        <v>1410.341829450318</v>
-      </c>
-      <c r="AA29">
-        <v>861.0107278221577</v>
-      </c>
-      <c r="AB29">
-        <v>0.8817577718408127</v>
-      </c>
-    </row>
-    <row r="30" spans="1:28">
+    </row>
+    <row r="30" spans="1:22">
       <c r="A30" s="1">
         <v>0</v>
       </c>
@@ -2789,73 +2540,64 @@
         <v>64</v>
       </c>
       <c r="C30">
-        <v>102.681924145043</v>
+        <v>102.6855932171275</v>
       </c>
       <c r="D30">
-        <v>1286.744269074002</v>
+        <v>1286.74435906581</v>
       </c>
       <c r="E30">
-        <v>2413.627116500184</v>
+        <v>2405.632868100159</v>
       </c>
       <c r="F30">
-        <v>1286.744269074002</v>
+        <v>1286.74435906581</v>
       </c>
       <c r="G30">
-        <v>5114.079446855475</v>
+        <v>5063.691314233622</v>
       </c>
       <c r="H30">
-        <v>0.9878349121952636</v>
+        <v>0.989098364218723</v>
       </c>
       <c r="I30">
-        <v>28.66511700125293</v>
+        <v>17.75515118681095</v>
       </c>
       <c r="J30">
-        <v>0.03046727262352261</v>
+        <v>2.619369954270923E-08</v>
       </c>
       <c r="K30">
-        <v>1.975669824390527</v>
+        <v>1.978196728437446</v>
       </c>
       <c r="L30" t="s">
         <v>73</v>
       </c>
       <c r="M30">
-        <v>1389.426193219045</v>
+        <v>1389.429952282937</v>
       </c>
       <c r="N30">
-        <v>3618.155912745734</v>
+        <v>3724.980030091674</v>
       </c>
       <c r="O30">
-        <v>1389.426193219045</v>
+        <v>1389.429952282937</v>
       </c>
       <c r="P30">
-        <v>7825.790960761151</v>
+        <v>8237.576910512227</v>
       </c>
       <c r="Q30">
-        <v>1.015965028409881</v>
+        <v>0.9960425288043695</v>
       </c>
       <c r="S30">
-        <v>21.16580695894754</v>
+        <v>40.99087207828205</v>
       </c>
       <c r="T30">
-        <v>9.021961511201937E-10</v>
+        <v>0.1287401369705463</v>
       </c>
       <c r="U30">
-        <v>2.031930056819761</v>
+        <v>1.992085057608739</v>
       </c>
       <c r="V30" t="s">
         <v>73</v>
       </c>
-      <c r="Z30">
-        <v>1410.694321054983</v>
-      </c>
-      <c r="AA30">
-        <v>1163.827759507055</v>
-      </c>
-      <c r="AB30">
-        <v>0.9565054663711626</v>
-      </c>
-    </row>
-    <row r="31" spans="1:28">
+    </row>
+    <row r="31" spans="1:22">
       <c r="A31" s="1">
         <v>0</v>
       </c>
@@ -2863,73 +2605,64 @@
         <v>65</v>
       </c>
       <c r="C31">
-        <v>102.6865991423754</v>
+        <v>102.717923863991</v>
       </c>
       <c r="D31">
-        <v>1286.75408522217</v>
+        <v>1286.753687699065</v>
       </c>
       <c r="E31">
-        <v>425.509235291439</v>
+        <v>436.2719867437154</v>
       </c>
       <c r="F31">
-        <v>1286.75408522217</v>
+        <v>1286.753687699065</v>
       </c>
       <c r="G31">
-        <v>761.5968129691551</v>
+        <v>784.7275495677219</v>
       </c>
       <c r="H31">
-        <v>0.8280444065916052</v>
+        <v>0.8433944590710032</v>
       </c>
       <c r="I31">
-        <v>19.79839134639115</v>
+        <v>16.30150067679669</v>
       </c>
       <c r="J31">
-        <v>5.939817526723346E-10</v>
+        <v>2.622757566683731E-09</v>
       </c>
       <c r="K31">
-        <v>1.65608881318321</v>
+        <v>1.686788918142006</v>
       </c>
       <c r="L31" t="s">
         <v>73</v>
       </c>
       <c r="M31">
-        <v>1389.440684364546</v>
+        <v>1389.471611563056</v>
       </c>
       <c r="N31">
-        <v>966.0209908418811</v>
+        <v>2975.57402067405</v>
       </c>
       <c r="O31">
-        <v>1389.440684364546</v>
+        <v>1389.471611563056</v>
       </c>
       <c r="P31">
-        <v>1556.267491003709</v>
+        <v>2784.504970820703</v>
       </c>
       <c r="Q31">
-        <v>0.6199172017598487</v>
+        <v>0.3673562593884666</v>
       </c>
       <c r="S31">
-        <v>16.4487602218505</v>
+        <v>3.38053423590607</v>
       </c>
       <c r="T31">
-        <v>0.5608513433222618</v>
+        <v>0.5087028436323853</v>
       </c>
       <c r="U31">
-        <v>1.239834403519697</v>
+        <v>0.7347125187769332</v>
       </c>
       <c r="V31" t="s">
         <v>73</v>
       </c>
-      <c r="Z31">
-        <v>1409.905351146141</v>
-      </c>
-      <c r="AA31">
-        <v>234.9588758598872</v>
-      </c>
-      <c r="AB31">
-        <v>1.44524167900995</v>
-      </c>
-    </row>
-    <row r="32" spans="1:28">
+    </row>
+    <row r="32" spans="1:22">
       <c r="A32" s="1">
         <v>0</v>
       </c>
@@ -2937,73 +2670,64 @@
         <v>66</v>
       </c>
       <c r="C32">
-        <v>102.6332694475636</v>
+        <v>102.6457409529546</v>
       </c>
       <c r="D32">
-        <v>1286.866372825202</v>
+        <v>1286.852774148351</v>
       </c>
       <c r="E32">
-        <v>401.0023724700132</v>
+        <v>383.1423644978034</v>
       </c>
       <c r="F32">
-        <v>1286.866372825202</v>
+        <v>1286.852774148351</v>
       </c>
       <c r="G32">
-        <v>919.6133131218322</v>
+        <v>795.4900171307439</v>
       </c>
       <c r="H32">
-        <v>0.9380131264769263</v>
+        <v>0.9669203459281408</v>
       </c>
       <c r="I32">
-        <v>27.28075024344447</v>
+        <v>22.78020014811203</v>
       </c>
       <c r="J32">
-        <v>0.4784838304360314</v>
+        <v>0.05629807164194622</v>
       </c>
       <c r="K32">
-        <v>1.876026252953853</v>
+        <v>1.933840691856282</v>
       </c>
       <c r="L32" t="s">
         <v>73</v>
       </c>
       <c r="M32">
-        <v>1389.499642272765</v>
+        <v>1389.498515101306</v>
       </c>
       <c r="N32">
-        <v>1594.74535218923</v>
+        <v>1333.943081459033</v>
       </c>
       <c r="O32">
-        <v>1389.499642272765</v>
+        <v>1389.498515101306</v>
       </c>
       <c r="P32">
-        <v>1699.146052490263</v>
+        <v>1607.457855049009</v>
       </c>
       <c r="Q32">
-        <v>0.50046897138513</v>
+        <v>0.5442476227879888</v>
       </c>
       <c r="S32">
-        <v>21.99203737831031</v>
+        <v>24.22247969460404</v>
       </c>
       <c r="T32">
-        <v>1.083136358381864E-09</v>
+        <v>0.1187005118510622</v>
       </c>
       <c r="U32">
-        <v>1.00093794277026</v>
+        <v>1.088495245575978</v>
       </c>
       <c r="V32" t="s">
         <v>73</v>
       </c>
-      <c r="Z32">
-        <v>1410.498438956173</v>
-      </c>
-      <c r="AA32">
-        <v>365.6429716539507</v>
-      </c>
-      <c r="AB32">
-        <v>1.410556562794754</v>
-      </c>
-    </row>
-    <row r="33" spans="1:28">
+    </row>
+    <row r="33" spans="1:22">
       <c r="A33" s="1">
         <v>0</v>
       </c>
@@ -3011,73 +2735,64 @@
         <v>67</v>
       </c>
       <c r="C33">
-        <v>102.9043638321352</v>
+        <v>102.7151170174334</v>
       </c>
       <c r="D33">
-        <v>1286.160487584043</v>
+        <v>1286.325080304793</v>
       </c>
       <c r="E33">
-        <v>882.6664268862197</v>
+        <v>292.662758739042</v>
       </c>
       <c r="F33">
-        <v>1286.160487584043</v>
+        <v>1286.325080304793</v>
       </c>
       <c r="G33">
-        <v>1016.199635019723</v>
+        <v>595.5724958095668</v>
       </c>
       <c r="H33">
-        <v>0.3684998919442474</v>
+        <v>0.9457475857291223</v>
       </c>
       <c r="I33">
-        <v>18.82122042164864</v>
+        <v>19.45431850640955</v>
       </c>
       <c r="J33">
-        <v>0.9999998991903793</v>
+        <v>0.008474477734637609</v>
       </c>
       <c r="K33">
-        <v>0.7369997838884947</v>
+        <v>1.891495171458245</v>
       </c>
       <c r="L33" t="s">
         <v>73</v>
       </c>
       <c r="M33">
-        <v>1389.064901418679</v>
+        <v>1389.040197322226</v>
       </c>
       <c r="N33">
-        <v>497.9925743413182</v>
+        <v>475.8538967971095</v>
       </c>
       <c r="O33">
-        <v>1389.064851416179</v>
+        <v>1389.040197322226</v>
       </c>
       <c r="P33">
-        <v>1228.002812101328</v>
+        <v>1101.813720542333</v>
       </c>
       <c r="Q33">
-        <v>0.8863072976616817</v>
+        <v>0.9329845126474834</v>
       </c>
       <c r="S33">
-        <v>11.94771064618621</v>
+        <v>2.937278945131641</v>
       </c>
       <c r="T33">
-        <v>0.7287339072625294</v>
+        <v>0.4342633259863893</v>
       </c>
       <c r="U33">
-        <v>1.772614595323363</v>
+        <v>1.865969025294967</v>
       </c>
       <c r="V33" t="s">
         <v>73</v>
       </c>
-      <c r="Z33">
-        <v>1410.197295584168</v>
-      </c>
-      <c r="AA33">
-        <v>1231.594804191964</v>
-      </c>
-      <c r="AB33">
-        <v>0.06736518894886404</v>
-      </c>
-    </row>
-    <row r="34" spans="1:28">
+    </row>
+    <row r="34" spans="1:22">
       <c r="A34" s="1">
         <v>0</v>
       </c>
@@ -3085,73 +2800,64 @@
         <v>68</v>
       </c>
       <c r="C34">
-        <v>102.5432754608757</v>
+        <v>102.5711181290603</v>
       </c>
       <c r="D34">
-        <v>1286.51451680003</v>
+        <v>1286.517595267938</v>
       </c>
       <c r="E34">
-        <v>283.2119814224214</v>
+        <v>278.9451668347227</v>
       </c>
       <c r="F34">
-        <v>1286.51451680003</v>
+        <v>1286.517595267938</v>
       </c>
       <c r="G34">
-        <v>927.5592507691421</v>
+        <v>889.6657643925058</v>
       </c>
       <c r="H34">
-        <v>1.144790539277553</v>
+        <v>1.144758171622188</v>
       </c>
       <c r="I34">
-        <v>13.72803903262949</v>
+        <v>11.53767640798859</v>
       </c>
       <c r="J34">
-        <v>0.809325569310391</v>
+        <v>0.7334759012663874</v>
       </c>
       <c r="K34">
-        <v>2.289581078555107</v>
+        <v>2.289516343244376</v>
       </c>
       <c r="L34" t="s">
         <v>73</v>
       </c>
       <c r="M34">
-        <v>1389.057842263406</v>
+        <v>1389.088713396998</v>
       </c>
       <c r="N34">
-        <v>485.2508251098982</v>
+        <v>506.1114978934063</v>
       </c>
       <c r="O34">
-        <v>1389.057792260906</v>
+        <v>1389.088713396998</v>
       </c>
       <c r="P34">
-        <v>1021.24638218277</v>
+        <v>1135.784952093446</v>
       </c>
       <c r="Q34">
-        <v>0.9194743430169596</v>
+        <v>0.8772224526762343</v>
       </c>
       <c r="S34">
-        <v>10.25730345772888</v>
+        <v>11.53351982042084</v>
       </c>
       <c r="T34">
-        <v>0.2181490498356868</v>
+        <v>0.5096721664907213</v>
       </c>
       <c r="U34">
-        <v>1.838948686033919</v>
+        <v>1.754444905352469</v>
       </c>
       <c r="V34" t="s">
         <v>73</v>
       </c>
-      <c r="Z34">
-        <v>1410.193703586954</v>
-      </c>
-      <c r="AA34">
-        <v>310.7447620624773</v>
-      </c>
-      <c r="AB34">
-        <v>1.057551164800595</v>
-      </c>
-    </row>
-    <row r="35" spans="1:28">
+    </row>
+    <row r="35" spans="1:22">
       <c r="A35" s="1">
         <v>0</v>
       </c>
@@ -3159,73 +2865,64 @@
         <v>69</v>
       </c>
       <c r="C35">
-        <v>102.7733210699271</v>
+        <v>102.9361344889412</v>
       </c>
       <c r="D35">
-        <v>1286.343041295216</v>
+        <v>1286.326097989854</v>
       </c>
       <c r="E35">
-        <v>384.3740614929502</v>
+        <v>389.4424808466852</v>
       </c>
       <c r="F35">
-        <v>1286.343041295216</v>
+        <v>1286.326097989854</v>
       </c>
       <c r="G35">
-        <v>633.6523936443585</v>
+        <v>625.3320945744689</v>
       </c>
       <c r="H35">
-        <v>0.7755780618195408</v>
+        <v>0.7512606291825493</v>
       </c>
       <c r="I35">
-        <v>14.33494270546586</v>
+        <v>10.69678968238389</v>
       </c>
       <c r="J35">
-        <v>6.939794167104552E-08</v>
+        <v>4.293823629986093E-10</v>
       </c>
       <c r="K35">
-        <v>1.551156123639082</v>
+        <v>1.502521258365099</v>
       </c>
       <c r="L35" t="s">
         <v>73</v>
       </c>
       <c r="M35">
-        <v>1389.116362365143</v>
+        <v>1389.262232478796</v>
       </c>
       <c r="N35">
-        <v>483.9282098632985</v>
+        <v>799.9673905688543</v>
       </c>
       <c r="O35">
-        <v>1389.116362365143</v>
+        <v>1389.262232478796</v>
       </c>
       <c r="P35">
-        <v>954.8831002105733</v>
+        <v>1400.130611647862</v>
       </c>
       <c r="Q35">
-        <v>0.9268448925330138</v>
+        <v>0.5536511552870849</v>
       </c>
       <c r="S35">
-        <v>14.88272510582329</v>
+        <v>5.178598632763371</v>
       </c>
       <c r="T35">
-        <v>5.551115123125783E-17</v>
+        <v>0.9999999890736064</v>
       </c>
       <c r="U35">
-        <v>1.853689785066028</v>
+        <v>1.10730231057417</v>
       </c>
       <c r="V35" t="s">
         <v>73</v>
       </c>
-      <c r="Z35">
-        <v>1410.299753181396</v>
-      </c>
-      <c r="AA35">
-        <v>212.9458675888206</v>
-      </c>
-      <c r="AB35">
-        <v>0.5082491533588087</v>
-      </c>
-    </row>
-    <row r="36" spans="1:28">
+    </row>
+    <row r="36" spans="1:22">
       <c r="A36" s="1">
         <v>0</v>
       </c>
@@ -3233,73 +2930,64 @@
         <v>70</v>
       </c>
       <c r="C36">
-        <v>102.5483138073689</v>
+        <v>102.545034079752</v>
       </c>
       <c r="D36">
-        <v>1286.58162761295</v>
+        <v>1286.595990757045</v>
       </c>
       <c r="E36">
-        <v>304.5125878063695</v>
+        <v>299.3493373561901</v>
       </c>
       <c r="F36">
-        <v>1286.58162761295</v>
+        <v>1286.595990757045</v>
       </c>
       <c r="G36">
-        <v>560.0958196601511</v>
+        <v>531.8571980379793</v>
       </c>
       <c r="H36">
-        <v>0.7839402295512677</v>
+        <v>0.8129689023157599</v>
       </c>
       <c r="I36">
-        <v>17.57877995206336</v>
+        <v>14.38790454777996</v>
       </c>
       <c r="J36">
-        <v>0.2957351089440355</v>
+        <v>0.07797473013855843</v>
       </c>
       <c r="K36">
-        <v>1.567880459102535</v>
+        <v>1.62593780463152</v>
       </c>
       <c r="L36" t="s">
         <v>73</v>
       </c>
       <c r="M36">
-        <v>1389.129941420319</v>
+        <v>1389.141024836797</v>
       </c>
       <c r="N36">
-        <v>449.7068045588376</v>
+        <v>453.9696525523763</v>
       </c>
       <c r="O36">
-        <v>1389.129941420319</v>
+        <v>1389.141024836797</v>
       </c>
       <c r="P36">
-        <v>1053.61845823366</v>
+        <v>1085.831887085981</v>
       </c>
       <c r="Q36">
-        <v>1.092070429078097</v>
+        <v>1.079289526628769</v>
       </c>
       <c r="S36">
-        <v>13.26005211134613</v>
+        <v>9.555691118530987</v>
       </c>
       <c r="T36">
-        <v>0.02377480618368411</v>
+        <v>0.1196937677604595</v>
       </c>
       <c r="U36">
-        <v>2.184140858156194</v>
+        <v>2.158579053257537</v>
       </c>
       <c r="V36" t="s">
         <v>73</v>
       </c>
-      <c r="Z36">
-        <v>1410.281560142646</v>
-      </c>
-      <c r="AA36">
-        <v>242.8426312266537</v>
-      </c>
-      <c r="AB36">
-        <v>0.5105049894625041</v>
-      </c>
-    </row>
-    <row r="37" spans="1:28">
+    </row>
+    <row r="37" spans="1:22">
       <c r="A37" s="1">
         <v>0</v>
       </c>
@@ -3307,73 +2995,64 @@
         <v>71</v>
       </c>
       <c r="C37">
-        <v>102.9043638321352</v>
+        <v>102.7151170174334</v>
       </c>
       <c r="D37">
-        <v>1286.160487584043</v>
+        <v>1286.325080304793</v>
       </c>
       <c r="E37">
-        <v>882.6664268862197</v>
+        <v>292.662758739042</v>
       </c>
       <c r="F37">
-        <v>1286.160487584043</v>
+        <v>1286.325080304793</v>
       </c>
       <c r="G37">
-        <v>1016.199635019723</v>
+        <v>595.5724958095668</v>
       </c>
       <c r="H37">
-        <v>0.3684998919442474</v>
+        <v>0.9457475857291223</v>
       </c>
       <c r="I37">
-        <v>18.82122042164864</v>
+        <v>19.45431850640955</v>
       </c>
       <c r="J37">
-        <v>0.9999998991903793</v>
+        <v>0.008474477734637609</v>
       </c>
       <c r="K37">
-        <v>0.7369997838884947</v>
+        <v>1.891495171458245</v>
       </c>
       <c r="L37" t="s">
         <v>73</v>
       </c>
       <c r="M37">
-        <v>1389.064901418679</v>
+        <v>1389.040197322226</v>
       </c>
       <c r="N37">
-        <v>497.9925743413182</v>
+        <v>475.8538967971095</v>
       </c>
       <c r="O37">
-        <v>1389.064851416179</v>
+        <v>1389.040197322226</v>
       </c>
       <c r="P37">
-        <v>1228.002812101328</v>
+        <v>1101.813720542333</v>
       </c>
       <c r="Q37">
-        <v>0.8863072976616817</v>
+        <v>0.9329845126474834</v>
       </c>
       <c r="S37">
-        <v>11.94771064618621</v>
+        <v>2.937278945131641</v>
       </c>
       <c r="T37">
-        <v>0.7287339072625294</v>
+        <v>0.4342633259863893</v>
       </c>
       <c r="U37">
-        <v>1.772614595323363</v>
+        <v>1.865969025294967</v>
       </c>
       <c r="V37" t="s">
         <v>73</v>
       </c>
-      <c r="Z37">
-        <v>1410.197295584168</v>
-      </c>
-      <c r="AA37">
-        <v>1231.594804191964</v>
-      </c>
-      <c r="AB37">
-        <v>0.06736518894886404</v>
-      </c>
-    </row>
-    <row r="38" spans="1:28">
+    </row>
+    <row r="38" spans="1:22">
       <c r="A38" s="1">
         <v>0</v>
       </c>
@@ -3381,70 +3060,61 @@
         <v>72</v>
       </c>
       <c r="C38">
-        <v>102.5153440659615</v>
+        <v>102.4939432402905</v>
       </c>
       <c r="D38">
-        <v>1286.69048693907</v>
+        <v>1286.690689274267</v>
       </c>
       <c r="E38">
-        <v>306.9405931331896</v>
+        <v>305.256516166749</v>
       </c>
       <c r="F38">
-        <v>1286.69048693907</v>
+        <v>1286.690689274267</v>
       </c>
       <c r="G38">
-        <v>623.3592290394365</v>
+        <v>620.8594508184514</v>
       </c>
       <c r="H38">
-        <v>0.9578685601163607</v>
+        <v>0.9557658908568736</v>
       </c>
       <c r="I38">
-        <v>16.35843130826884</v>
+        <v>14.20818540020113</v>
       </c>
       <c r="J38">
-        <v>1.33965352144827E-08</v>
+        <v>1.047669367926218E-08</v>
       </c>
       <c r="K38">
-        <v>1.915737120232721</v>
+        <v>1.911531781713747</v>
       </c>
       <c r="L38" t="s">
         <v>73</v>
       </c>
       <c r="M38">
-        <v>1389.205881007531</v>
+        <v>1389.184632514557</v>
       </c>
       <c r="N38">
-        <v>563.4720043885615</v>
+        <v>538.1900343654454</v>
       </c>
       <c r="O38">
-        <v>1389.205831005031</v>
+        <v>1389.184632514557</v>
       </c>
       <c r="P38">
-        <v>1187.833068788642</v>
+        <v>1139.265918010362</v>
       </c>
       <c r="Q38">
-        <v>0.8159180605700921</v>
+        <v>0.8551421581969396</v>
       </c>
       <c r="S38">
-        <v>10.99085123452996</v>
+        <v>6.727288159856535</v>
       </c>
       <c r="T38">
-        <v>0.5465717620299534</v>
+        <v>0.4299377915496356</v>
       </c>
       <c r="U38">
-        <v>1.631836121140184</v>
+        <v>1.710284316393879</v>
       </c>
       <c r="V38" t="s">
         <v>73</v>
-      </c>
-      <c r="Z38">
-        <v>1410.170902892322</v>
-      </c>
-      <c r="AA38">
-        <v>321.0629493929962</v>
-      </c>
-      <c r="AB38">
-        <v>1.28060615251047</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Examples/Example1c_HORIBA_Calibration/Weak_Diads.xlsx
+++ b/docs/Examples/Example1c_HORIBA_Calibration/Weak_Diads.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM49"/>
+  <dimension ref="A1:AM36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -633,41 +633,41 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>10mol_FID_R1</t>
+          <t>1mol_FIA_R1_CRR_DiadFit</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>102.844031568771</v>
+        <v>102.7672186682478</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04312443879960284</v>
+        <v>0.04447608739755091</v>
       </c>
       <c r="D2" t="n">
-        <v>1285.51761477368</v>
+        <v>1286.315197571258</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01546152222906375</v>
+        <v>0.04249698233553263</v>
       </c>
       <c r="F2" t="n">
-        <v>5501.710880736257</v>
+        <v>2562.841337247529</v>
       </c>
       <c r="G2" t="n">
-        <v>1285.51761477368</v>
+        <v>1286.315197571258</v>
       </c>
       <c r="H2" t="n">
-        <v>14934.89553891512</v>
+        <v>5446.27312448335</v>
       </c>
       <c r="I2" t="n">
-        <v>1.116279025501727</v>
+        <v>0.8442336516310505</v>
       </c>
       <c r="J2" t="n">
-        <v>21.63147885137878</v>
+        <v>13.42186316430338</v>
       </c>
       <c r="K2" t="n">
-        <v>0.3872094698982148</v>
+        <v>0.4767969363722944</v>
       </c>
       <c r="L2" t="n">
-        <v>2.232558051003454</v>
+        <v>1.688467303262101</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -675,34 +675,34 @@
         </is>
       </c>
       <c r="N2" t="n">
-        <v>1388.361696344951</v>
+        <v>1389.082416239506</v>
       </c>
       <c r="O2" t="n">
-        <v>0.04025740369349293</v>
+        <v>0.01311978820591301</v>
       </c>
       <c r="P2" t="n">
-        <v>12834.8109643731</v>
+        <v>3599.834018555902</v>
       </c>
       <c r="Q2" t="n">
-        <v>1388.361646342451</v>
+        <v>1389.082416239506</v>
       </c>
       <c r="R2" t="n">
-        <v>27419.10043466416</v>
+        <v>7877.378380594264</v>
       </c>
       <c r="S2" t="n">
-        <v>0.6930471460481382</v>
+        <v>0.9592279534709636</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>61.16308078767997</v>
+        <v>21.69683847520266</v>
       </c>
       <c r="V2" t="n">
-        <v>0.9599837757198134</v>
+        <v>0.2034268341072035</v>
       </c>
       <c r="W2" t="n">
-        <v>1.386094292096276</v>
+        <v>1.918455906941927</v>
       </c>
       <c r="X2" t="inlineStr">
         <is>
@@ -712,15 +712,9 @@
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="inlineStr"/>
-      <c r="AB2" t="n">
-        <v>1409.858340643254</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>2430.163634732344</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>1.064022227812204</v>
-      </c>
+      <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr"/>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="inlineStr"/>
@@ -734,41 +728,41 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10mol_FID_R1_FIN</t>
+          <t>1mol_FIA_R2_CRR_DiadFit</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>102.9031191533538</v>
+        <v>102.6888485993152</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01878833368032173</v>
+        <v>0.02208932989167337</v>
       </c>
       <c r="D3" t="n">
-        <v>1285.515727982095</v>
+        <v>1286.484420922532</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01626286123569538</v>
+        <v>0.01934058431369875</v>
       </c>
       <c r="F3" t="n">
-        <v>5417.912015570255</v>
+        <v>2137.380236577123</v>
       </c>
       <c r="G3" t="n">
-        <v>1285.515727982095</v>
+        <v>1286.484420922532</v>
       </c>
       <c r="H3" t="n">
-        <v>14466.79097856367</v>
+        <v>4842.994025506425</v>
       </c>
       <c r="I3" t="n">
-        <v>1.100396173764005</v>
+        <v>0.9826872363530623</v>
       </c>
       <c r="J3" t="n">
-        <v>14.83825960313953</v>
+        <v>14.28285533734535</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3825850756360167</v>
+        <v>0.2359211768955854</v>
       </c>
       <c r="L3" t="n">
-        <v>2.20079234752801</v>
+        <v>1.965374472706125</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -776,34 +770,34 @@
         </is>
       </c>
       <c r="N3" t="n">
-        <v>1388.418897137949</v>
+        <v>1389.173269521847</v>
       </c>
       <c r="O3" t="n">
-        <v>0.009408550733860569</v>
+        <v>0.01067147100768608</v>
       </c>
       <c r="P3" t="n">
-        <v>10684.64911026846</v>
+        <v>3288.295812499259</v>
       </c>
       <c r="Q3" t="n">
-        <v>1388.418847135449</v>
+        <v>1389.173269521847</v>
       </c>
       <c r="R3" t="n">
-        <v>24144.6636899201</v>
+        <v>7335.989411322489</v>
       </c>
       <c r="S3" t="n">
-        <v>0.8383874984805073</v>
+        <v>1.020246527499972</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>27.17973372312305</v>
+        <v>14.00963857057352</v>
       </c>
       <c r="V3" t="n">
-        <v>0.6521932761158795</v>
+        <v>0.08095102992795228</v>
       </c>
       <c r="W3" t="n">
-        <v>1.676774996961015</v>
+        <v>2.040493054999943</v>
       </c>
       <c r="X3" t="inlineStr">
         <is>
@@ -813,15 +807,9 @@
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="inlineStr"/>
-      <c r="AB3" t="n">
-        <v>1409.870247239068</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>2057.735213176341</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>1.123108879706445</v>
-      </c>
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="inlineStr"/>
       <c r="AE3" t="inlineStr"/>
       <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="inlineStr"/>
@@ -835,41 +823,41 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>10mol_FID_R2</t>
+          <t>1mol_FIA_R3_CRR_DiadFit</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>102.882286096102</v>
+        <v>102.7401907196638</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01911479820631315</v>
+        <v>0.03193348832935446</v>
       </c>
       <c r="D4" t="n">
-        <v>1285.60953772998</v>
+        <v>1286.53804359327</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01656434054010062</v>
+        <v>0.0282571326230005</v>
       </c>
       <c r="F4" t="n">
-        <v>4726.994013159113</v>
+        <v>1941.160782895406</v>
       </c>
       <c r="G4" t="n">
-        <v>1285.60953772998</v>
+        <v>1286.53804359327</v>
       </c>
       <c r="H4" t="n">
-        <v>12514.92355565385</v>
+        <v>4777.388421883596</v>
       </c>
       <c r="I4" t="n">
-        <v>1.07142528237933</v>
+        <v>1.006703187160731</v>
       </c>
       <c r="J4" t="n">
-        <v>20.05666721797368</v>
+        <v>18.42972082921297</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4317152735776142</v>
+        <v>0.3980000462965602</v>
       </c>
       <c r="L4" t="n">
-        <v>2.14285056475866</v>
+        <v>2.013406374321462</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -877,34 +865,34 @@
         </is>
       </c>
       <c r="N4" t="n">
-        <v>1388.491873828582</v>
+        <v>1389.278234312934</v>
       </c>
       <c r="O4" t="n">
-        <v>0.009539294153114863</v>
+        <v>0.01487555487392583</v>
       </c>
       <c r="P4" t="n">
-        <v>8605.297865527964</v>
+        <v>2942.789911803382</v>
       </c>
       <c r="Q4" t="n">
-        <v>1388.491823826082</v>
+        <v>1389.278234312934</v>
       </c>
       <c r="R4" t="n">
-        <v>21410.08267572475</v>
+        <v>6589.413900945457</v>
       </c>
       <c r="S4" t="n">
-        <v>0.9188520852083386</v>
+        <v>1.030297682124405</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>32.67859106692809</v>
+        <v>25.71371057584098</v>
       </c>
       <c r="V4" t="n">
-        <v>0.6635279816623545</v>
+        <v>0.06403578148226913</v>
       </c>
       <c r="W4" t="n">
-        <v>1.837704170416677</v>
+        <v>2.06059536424881</v>
       </c>
       <c r="X4" t="inlineStr">
         <is>
@@ -914,15 +902,9 @@
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="inlineStr"/>
-      <c r="AB4" t="n">
-        <v>1409.848602760226</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>1904.601911157822</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>1.020119392329626</v>
-      </c>
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="inlineStr"/>
       <c r="AE4" t="inlineStr"/>
       <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="inlineStr"/>
@@ -936,41 +918,41 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>10mol_FID_R2_FIN</t>
+          <t>1mol_FIB_R2_CRR_DiadFit</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>102.9224533201493</v>
+        <v>102.840121727344</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01670101943337086</v>
+        <v>0.2310689757998109</v>
       </c>
       <c r="D5" t="n">
-        <v>1285.558684364772</v>
+        <v>1286.056444127871</v>
       </c>
       <c r="E5" t="n">
-        <v>0.01466968803998303</v>
+        <v>0.2307589326003811</v>
       </c>
       <c r="F5" t="n">
-        <v>5023.448524800909</v>
+        <v>94165.06956292014</v>
       </c>
       <c r="G5" t="n">
-        <v>1285.558684364772</v>
+        <v>1286.056444127871</v>
       </c>
       <c r="H5" t="n">
-        <v>13670.93061210181</v>
+        <v>53955.48542604686</v>
       </c>
       <c r="I5" t="n">
-        <v>1.12808719960687</v>
+        <v>0.2575759750140613</v>
       </c>
       <c r="J5" t="n">
-        <v>16.13965029466703</v>
+        <v>19.77103676388148</v>
       </c>
       <c r="K5" t="n">
-        <v>0.3654839725605785</v>
+        <v>0.1334152271075768</v>
       </c>
       <c r="L5" t="n">
-        <v>2.25617439921374</v>
+        <v>0.5151519500281225</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -978,34 +960,34 @@
         </is>
       </c>
       <c r="N5" t="n">
-        <v>1388.481187687422</v>
+        <v>1388.896565855215</v>
       </c>
       <c r="O5" t="n">
-        <v>0.007982750335780905</v>
+        <v>0.01196606043384251</v>
       </c>
       <c r="P5" t="n">
-        <v>9240.239161841915</v>
+        <v>3511.198745013501</v>
       </c>
       <c r="Q5" t="n">
-        <v>1388.481137684922</v>
+        <v>1388.896565855215</v>
       </c>
       <c r="R5" t="n">
-        <v>22534.30643699208</v>
+        <v>7559.230229420416</v>
       </c>
       <c r="S5" t="n">
-        <v>0.9143133586537657</v>
+        <v>0.9457807818356991</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>29.059205361204</v>
+        <v>16.77643427276746</v>
       </c>
       <c r="V5" t="n">
-        <v>0.6265534292768393</v>
+        <v>0.1945076276302345</v>
       </c>
       <c r="W5" t="n">
-        <v>1.828626717307531</v>
+        <v>1.891561563671398</v>
       </c>
       <c r="X5" t="inlineStr">
         <is>
@@ -1015,15 +997,9 @@
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="inlineStr"/>
-      <c r="AB5" t="n">
-        <v>1409.841656951649</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>2321.957201869551</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>1.19439564082797</v>
-      </c>
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="inlineStr"/>
       <c r="AE5" t="inlineStr"/>
       <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="inlineStr"/>
@@ -1037,41 +1013,41 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>10mol_FID_R3</t>
+          <t>1mol_FIB_R3_CRR_DiadFit</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>102.9796091677263</v>
+        <v>102.7623199045538</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02728942032133963</v>
+        <v>0.07515513846122389</v>
       </c>
       <c r="D6" t="n">
-        <v>1285.528164078405</v>
+        <v>1286.305769416391</v>
       </c>
       <c r="E6" t="n">
-        <v>0.02276845776465436</v>
+        <v>0.07175571373242086</v>
       </c>
       <c r="F6" t="n">
-        <v>2610.886040606456</v>
+        <v>1225.734744936435</v>
       </c>
       <c r="G6" t="n">
-        <v>1285.528164078405</v>
+        <v>1286.305769416391</v>
       </c>
       <c r="H6" t="n">
-        <v>6963.016675688228</v>
+        <v>2754.391122868615</v>
       </c>
       <c r="I6" t="n">
-        <v>1.088701193282442</v>
+        <v>0.8604941194360622</v>
       </c>
       <c r="J6" t="n">
-        <v>21.66020903059755</v>
+        <v>20.66505951622051</v>
       </c>
       <c r="K6" t="n">
-        <v>0.405623636580641</v>
+        <v>0.5693319200170157</v>
       </c>
       <c r="L6" t="n">
-        <v>2.177402386564883</v>
+        <v>1.720988238872124</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -1079,34 +1055,34 @@
         </is>
       </c>
       <c r="N6" t="n">
-        <v>1388.507773246131</v>
+        <v>1389.068089320944</v>
       </c>
       <c r="O6" t="n">
-        <v>0.01504359639494143</v>
+        <v>0.02234753641627202</v>
       </c>
       <c r="P6" t="n">
-        <v>4847.519998098437</v>
+        <v>1776.757581077293</v>
       </c>
       <c r="Q6" t="n">
-        <v>1388.507773246131</v>
+        <v>1389.068089320944</v>
       </c>
       <c r="R6" t="n">
-        <v>11361.98651189344</v>
+        <v>3801.494304202887</v>
       </c>
       <c r="S6" t="n">
-        <v>0.900422594751465</v>
+        <v>0.9470594008656461</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>25.13946730108767</v>
+        <v>8.161799469614232</v>
       </c>
       <c r="V6" t="n">
-        <v>0.5650862750102306</v>
+        <v>0.1778882864244775</v>
       </c>
       <c r="W6" t="n">
-        <v>1.80084518950293</v>
+        <v>1.894118801731292</v>
       </c>
       <c r="X6" t="inlineStr">
         <is>
@@ -1116,15 +1092,9 @@
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="inlineStr"/>
-      <c r="AB6" t="n">
-        <v>1409.780466132128</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>803.0548393637113</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>1.28560041389327</v>
-      </c>
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="inlineStr"/>
+      <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="inlineStr"/>
       <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="inlineStr"/>
@@ -1138,41 +1108,41 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>10mol_FID_R3_FIN</t>
+          <t>4mol_FID_R1_CRR_DiadFit</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>102.9190967246673</v>
+        <v>102.8852748376401</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02268554075829473</v>
+        <v>0.02475327695621314</v>
       </c>
       <c r="D7" t="n">
-        <v>1285.531687429677</v>
+        <v>1286.347964540712</v>
       </c>
       <c r="E7" t="n">
-        <v>0.01943114149651731</v>
+        <v>0.02037232292659647</v>
       </c>
       <c r="F7" t="n">
-        <v>3442.979768570913</v>
+        <v>3430.262633087303</v>
       </c>
       <c r="G7" t="n">
-        <v>1285.531687429677</v>
+        <v>1286.347964540712</v>
       </c>
       <c r="H7" t="n">
-        <v>9386.474073141468</v>
+        <v>8521.164875895694</v>
       </c>
       <c r="I7" t="n">
-        <v>1.093972084044096</v>
+        <v>0.9776656590803532</v>
       </c>
       <c r="J7" t="n">
-        <v>16.17689789605842</v>
+        <v>15.4036319678928</v>
       </c>
       <c r="K7" t="n">
-        <v>0.4544554406730551</v>
+        <v>0.5004469567997272</v>
       </c>
       <c r="L7" t="n">
-        <v>2.187944168088193</v>
+        <v>1.955331318160706</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -1180,34 +1150,34 @@
         </is>
       </c>
       <c r="N7" t="n">
-        <v>1388.450834156844</v>
+        <v>1389.233239378352</v>
       </c>
       <c r="O7" t="n">
-        <v>0.01170745487450515</v>
+        <v>0.014060340630492</v>
       </c>
       <c r="P7" t="n">
-        <v>6534.109211960548</v>
+        <v>5138.074074648453</v>
       </c>
       <c r="Q7" t="n">
-        <v>1388.450784154344</v>
+        <v>1389.233239378352</v>
       </c>
       <c r="R7" t="n">
-        <v>14916.84554603973</v>
+        <v>12254.57309279954</v>
       </c>
       <c r="S7" t="n">
-        <v>0.8586698987808477</v>
+        <v>1.067367776592564</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>20.1778192892466</v>
+        <v>47.97322029887546</v>
       </c>
       <c r="V7" t="n">
-        <v>0.618379253435188</v>
+        <v>0.1449343578553804</v>
       </c>
       <c r="W7" t="n">
-        <v>1.717339797561695</v>
+        <v>2.134735553185128</v>
       </c>
       <c r="X7" t="inlineStr">
         <is>
@@ -1217,15 +1187,9 @@
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="inlineStr"/>
-      <c r="AB7" t="n">
-        <v>1409.924482451495</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>1378.792106457734</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>1.162979809736254</v>
-      </c>
+      <c r="AB7" t="inlineStr"/>
+      <c r="AC7" t="inlineStr"/>
+      <c r="AD7" t="inlineStr"/>
       <c r="AE7" t="inlineStr"/>
       <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="inlineStr"/>
@@ -1239,41 +1203,41 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>10mol_FIE_R1</t>
+          <t>4mol_FID_R2_CRR_DiadFit</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>102.8674565735803</v>
+        <v>102.8568698917477</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05464237562849089</v>
+        <v>0.02793921388534547</v>
       </c>
       <c r="D8" t="n">
-        <v>1285.457743617291</v>
+        <v>1286.233999951354</v>
       </c>
       <c r="E8" t="n">
-        <v>0.01649784067897245</v>
+        <v>0.02616714407578395</v>
       </c>
       <c r="F8" t="n">
-        <v>4517.885452005085</v>
+        <v>7026.089773142851</v>
       </c>
       <c r="G8" t="n">
-        <v>1285.457743617291</v>
+        <v>1286.233999951354</v>
       </c>
       <c r="H8" t="n">
-        <v>11968.84925140889</v>
+        <v>15690.78236420515</v>
       </c>
       <c r="I8" t="n">
-        <v>1.070177854964755</v>
+        <v>0.8703563390866429</v>
       </c>
       <c r="J8" t="n">
-        <v>17.7629820401861</v>
+        <v>17.30503592817739</v>
       </c>
       <c r="K8" t="n">
-        <v>0.4359153245713423</v>
+        <v>0.5290019679263656</v>
       </c>
       <c r="L8" t="n">
-        <v>2.14035570992951</v>
+        <v>1.740712678173286</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -1281,34 +1245,34 @@
         </is>
       </c>
       <c r="N8" t="n">
-        <v>1388.325250193371</v>
+        <v>1389.090869843101</v>
       </c>
       <c r="O8" t="n">
-        <v>0.05209232637592928</v>
+        <v>0.009791845763095226</v>
       </c>
       <c r="P8" t="n">
-        <v>11962.41484787197</v>
+        <v>9820.768283275747</v>
       </c>
       <c r="Q8" t="n">
-        <v>1388.325200190871</v>
+        <v>1389.090869843101</v>
       </c>
       <c r="R8" t="n">
-        <v>22732.36247018209</v>
+        <v>22800.48679384957</v>
       </c>
       <c r="S8" t="n">
-        <v>0.6087625781891042</v>
+        <v>1.002762085553453</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>51.88307602152116</v>
+        <v>48.95296786178817</v>
       </c>
       <c r="V8" t="n">
-        <v>0.9868305615220241</v>
+        <v>0.2441476351634351</v>
       </c>
       <c r="W8" t="n">
-        <v>1.217525156378208</v>
+        <v>2.005524171106906</v>
       </c>
       <c r="X8" t="inlineStr">
         <is>
@@ -1318,15 +1282,9 @@
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="inlineStr"/>
-      <c r="AB8" t="n">
-        <v>1409.817937831517</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>2107.521755883645</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>1.179758412094721</v>
-      </c>
+      <c r="AB8" t="inlineStr"/>
+      <c r="AC8" t="inlineStr"/>
+      <c r="AD8" t="inlineStr"/>
       <c r="AE8" t="inlineStr"/>
       <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="inlineStr"/>
@@ -1340,41 +1298,41 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>10mol_FIE_R1_FIN</t>
+          <t>4mol_FID_R3_CRR_DiadFit</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>102.9336521404271</v>
+        <v>102.871251919074</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01764256660074386</v>
+        <v>0.02561433945834559</v>
       </c>
       <c r="D9" t="n">
-        <v>1285.724140453557</v>
+        <v>1286.333285395908</v>
       </c>
       <c r="E9" t="n">
-        <v>0.01542443681032198</v>
+        <v>0.02167463085645925</v>
       </c>
       <c r="F9" t="n">
-        <v>4697.112657982353</v>
+        <v>3967.6181768135</v>
       </c>
       <c r="G9" t="n">
-        <v>1285.724140453557</v>
+        <v>1286.333285395908</v>
       </c>
       <c r="H9" t="n">
-        <v>12386.44941435393</v>
+        <v>9980.424316600092</v>
       </c>
       <c r="I9" t="n">
-        <v>1.135630454870028</v>
+        <v>0.9794743712265526</v>
       </c>
       <c r="J9" t="n">
-        <v>21.483910894752</v>
+        <v>15.46939481998673</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2601669678033771</v>
+        <v>0.5309888605664549</v>
       </c>
       <c r="L9" t="n">
-        <v>2.271260909740056</v>
+        <v>1.958948742453105</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -1382,34 +1340,34 @@
         </is>
       </c>
       <c r="N9" t="n">
-        <v>1388.657842596484</v>
+        <v>1389.204537314982</v>
       </c>
       <c r="O9" t="n">
-        <v>0.008564280783934357</v>
+        <v>0.01364935028210444</v>
       </c>
       <c r="P9" t="n">
-        <v>8425.240307310039</v>
+        <v>5955.986749371611</v>
       </c>
       <c r="Q9" t="n">
-        <v>1388.657792593984</v>
+        <v>1389.204537314982</v>
       </c>
       <c r="R9" t="n">
-        <v>21166.87829921368</v>
+        <v>14233.51189069291</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9459440936268744</v>
+        <v>1.07331728885913</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>36.73454102446183</v>
+        <v>51.8822051933386</v>
       </c>
       <c r="V9" t="n">
-        <v>0.615933189971029</v>
+        <v>0.1346708789907402</v>
       </c>
       <c r="W9" t="n">
-        <v>1.891888187253749</v>
+        <v>2.14663457771826</v>
       </c>
       <c r="X9" t="inlineStr">
         <is>
@@ -1419,15 +1377,9 @@
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr"/>
       <c r="AA9" t="inlineStr"/>
-      <c r="AB9" t="n">
-        <v>1410.024559976664</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>2134.644737374401</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>1.081034180766043</v>
-      </c>
+      <c r="AB9" t="inlineStr"/>
+      <c r="AC9" t="inlineStr"/>
+      <c r="AD9" t="inlineStr"/>
       <c r="AE9" t="inlineStr"/>
       <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="inlineStr"/>
@@ -1441,41 +1393,41 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>10mol_FIE_R2</t>
+          <t>LL8_404a_r1_CRR_DiadFit</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>102.9606967124625</v>
+        <v>102.6854368771972</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02346681652832334</v>
+        <v>0.02785237135158077</v>
       </c>
       <c r="D10" t="n">
-        <v>1285.823874544832</v>
+        <v>1286.744346402032</v>
       </c>
       <c r="E10" t="n">
-        <v>0.01973883231193178</v>
+        <v>0.02539603249172841</v>
       </c>
       <c r="F10" t="n">
-        <v>1844.847181160897</v>
+        <v>2403.398695511774</v>
       </c>
       <c r="G10" t="n">
-        <v>1285.823874544832</v>
+        <v>1286.744346402032</v>
       </c>
       <c r="H10" t="n">
-        <v>5346.89822913207</v>
+        <v>5052.888430755374</v>
       </c>
       <c r="I10" t="n">
-        <v>1.190291759698412</v>
+        <v>0.9879390497547973</v>
       </c>
       <c r="J10" t="n">
-        <v>15.85836686882211</v>
+        <v>16.85610526249206</v>
       </c>
       <c r="K10" t="n">
-        <v>0.3913729313970242</v>
+        <v>7.339778729242852e-09</v>
       </c>
       <c r="L10" t="n">
-        <v>2.380583519396825</v>
+        <v>1.975878099509595</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1483,34 +1435,34 @@
         </is>
       </c>
       <c r="N10" t="n">
-        <v>1388.784621259794</v>
+        <v>1389.429783279229</v>
       </c>
       <c r="O10" t="n">
-        <v>0.01269133471843791</v>
+        <v>0.01143661329176745</v>
       </c>
       <c r="P10" t="n">
-        <v>3106.013187437548</v>
+        <v>3702.882335207473</v>
       </c>
       <c r="Q10" t="n">
-        <v>1388.784571257294</v>
+        <v>1389.429783279229</v>
       </c>
       <c r="R10" t="n">
-        <v>9143.516352766337</v>
+        <v>8147.825031772213</v>
       </c>
       <c r="S10" t="n">
-        <v>1.080894080920465</v>
+        <v>0.9995812885186928</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>22.06911739656482</v>
+        <v>38.47298837758419</v>
       </c>
       <c r="V10" t="n">
-        <v>0.6776734738270032</v>
+        <v>0.1026711850291308</v>
       </c>
       <c r="W10" t="n">
-        <v>2.161788161840929</v>
+        <v>1.999162577037386</v>
       </c>
       <c r="X10" t="inlineStr">
         <is>
@@ -1520,15 +1472,9 @@
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr"/>
       <c r="AA10" t="inlineStr"/>
-      <c r="AB10" t="n">
-        <v>1410.138654282468</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>878.5933916149637</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>1.25433292136414</v>
-      </c>
+      <c r="AB10" t="inlineStr"/>
+      <c r="AC10" t="inlineStr"/>
+      <c r="AD10" t="inlineStr"/>
       <c r="AE10" t="inlineStr"/>
       <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="inlineStr"/>
@@ -1542,41 +1488,41 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>10mol_FIE_R2_FIN</t>
+          <t>LL8_404a_r2_CRR_DiadFit</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>102.8897514517616</v>
+        <v>102.6805257686278</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02042018680038481</v>
+        <v>0.04339698858000761</v>
       </c>
       <c r="D11" t="n">
-        <v>1285.609238696204</v>
+        <v>1286.733899680436</v>
       </c>
       <c r="E11" t="n">
-        <v>0.01564596407360968</v>
+        <v>0.03752658389293735</v>
       </c>
       <c r="F11" t="n">
-        <v>5381.105918775143</v>
+        <v>1606.036870304258</v>
       </c>
       <c r="G11" t="n">
-        <v>1285.609238696204</v>
+        <v>1286.733899680436</v>
       </c>
       <c r="H11" t="n">
-        <v>14231.31622127008</v>
+        <v>3191.938810493188</v>
       </c>
       <c r="I11" t="n">
-        <v>1.102655066371028</v>
+        <v>0.9289809268969043</v>
       </c>
       <c r="J11" t="n">
-        <v>23.28292452732064</v>
+        <v>22.16598863089714</v>
       </c>
       <c r="K11" t="n">
-        <v>0.3505758676689117</v>
+        <v>0.007900000279346953</v>
       </c>
       <c r="L11" t="n">
-        <v>2.205310132742055</v>
+        <v>1.857961853793809</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1584,34 +1530,34 @@
         </is>
       </c>
       <c r="N11" t="n">
-        <v>1388.499040150465</v>
+        <v>1389.414425449064</v>
       </c>
       <c r="O11" t="n">
-        <v>0.01312203631948659</v>
+        <v>0.0217957362605544</v>
       </c>
       <c r="P11" t="n">
-        <v>10184.46531904596</v>
+        <v>2441.320065699356</v>
       </c>
       <c r="Q11" t="n">
-        <v>1388.498990147965</v>
+        <v>1389.414425449064</v>
       </c>
       <c r="R11" t="n">
-        <v>24361.50882522249</v>
+        <v>5232.824878040671</v>
       </c>
       <c r="S11" t="n">
-        <v>0.8571765250330876</v>
+        <v>0.9882622608690368</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>42.93557559255984</v>
+        <v>33.67592739055537</v>
       </c>
       <c r="V11" t="n">
-        <v>0.7359504256498015</v>
+        <v>0.05873526526790068</v>
       </c>
       <c r="W11" t="n">
-        <v>1.714353050066175</v>
+        <v>1.976524521738074</v>
       </c>
       <c r="X11" t="inlineStr">
         <is>
@@ -1621,15 +1567,9 @@
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="inlineStr"/>
-      <c r="AB11" t="n">
-        <v>1409.925269355226</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>2449.613640809564</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>1.100333597217776</v>
-      </c>
+      <c r="AB11" t="inlineStr"/>
+      <c r="AC11" t="inlineStr"/>
+      <c r="AD11" t="inlineStr"/>
       <c r="AE11" t="inlineStr"/>
       <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="inlineStr"/>
@@ -1643,41 +1583,41 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>10mol_FIE_R3</t>
+          <t>LL8_404a_r3_CRR_DiadFit</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>102.7979161378832</v>
+        <v>102.731890439379</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0560317578998794</v>
+        <v>0.03159615080395878</v>
       </c>
       <c r="D12" t="n">
-        <v>1285.961205597209</v>
+        <v>1286.791840911039</v>
       </c>
       <c r="E12" t="n">
-        <v>0.02633251937032876</v>
+        <v>0.03001954279406344</v>
       </c>
       <c r="F12" t="n">
-        <v>941.6667899870855</v>
+        <v>1798.209919645518</v>
       </c>
       <c r="G12" t="n">
-        <v>1285.961205597209</v>
+        <v>1286.791840911039</v>
       </c>
       <c r="H12" t="n">
-        <v>2649.233850316614</v>
+        <v>4042.252277371163</v>
       </c>
       <c r="I12" t="n">
-        <v>1.117595462939234</v>
+        <v>0.9635797048276935</v>
       </c>
       <c r="J12" t="n">
-        <v>20.52656820546427</v>
+        <v>8.654891333549216</v>
       </c>
       <c r="K12" t="n">
-        <v>0.4816828478371167</v>
+        <v>0.2744222597782285</v>
       </c>
       <c r="L12" t="n">
-        <v>2.235190925878468</v>
+        <v>1.927159409655387</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1685,34 +1625,34 @@
         </is>
       </c>
       <c r="N12" t="n">
-        <v>1388.759171737592</v>
+        <v>1389.523731350418</v>
       </c>
       <c r="O12" t="n">
-        <v>0.04945863238062652</v>
+        <v>0.009856155237307238</v>
       </c>
       <c r="P12" t="n">
-        <v>1531.632859257583</v>
+        <v>2935.332749453641</v>
       </c>
       <c r="Q12" t="n">
-        <v>1388.759121735092</v>
+        <v>1389.523731350418</v>
       </c>
       <c r="R12" t="n">
-        <v>5634.29987901583</v>
+        <v>6322.211696360191</v>
       </c>
       <c r="S12" t="n">
-        <v>1.171228427940855</v>
+        <v>0.9088394447581252</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>36.51140711985986</v>
+        <v>27.66363744604449</v>
       </c>
       <c r="V12" t="n">
-        <v>0.9999999999727688</v>
+        <v>0.3083892062689283</v>
       </c>
       <c r="W12" t="n">
-        <v>2.34245685588171</v>
+        <v>1.81767888951625</v>
       </c>
       <c r="X12" t="inlineStr">
         <is>
@@ -1722,15 +1662,9 @@
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr"/>
       <c r="AA12" t="inlineStr"/>
-      <c r="AB12" t="n">
-        <v>1410.173314136817</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>462.7069074246799</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>1.169395629701673</v>
-      </c>
+      <c r="AB12" t="inlineStr"/>
+      <c r="AC12" t="inlineStr"/>
+      <c r="AD12" t="inlineStr"/>
       <c r="AE12" t="inlineStr"/>
       <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="inlineStr"/>
@@ -1744,41 +1678,41 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>10mol_FIE_R3_FIN</t>
+          <t>LL8_612_a_r1_CRR_DiadFit</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>102.8936328421867</v>
+        <v>102.7852042163431</v>
       </c>
       <c r="C13" t="n">
-        <v>0.02074656635330674</v>
+        <v>0.4092448941037493</v>
       </c>
       <c r="D13" t="n">
-        <v>1285.683698994399</v>
+        <v>1286.641793114226</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0162312129033582</v>
+        <v>0.1199073573131681</v>
       </c>
       <c r="F13" t="n">
-        <v>3675.272229009853</v>
+        <v>425.1996961854238</v>
       </c>
       <c r="G13" t="n">
-        <v>1285.683698994399</v>
+        <v>1286.641793114226</v>
       </c>
       <c r="H13" t="n">
-        <v>10115.46248883543</v>
+        <v>1091.328952452254</v>
       </c>
       <c r="I13" t="n">
-        <v>1.164143846472985</v>
+        <v>0.9085744091158967</v>
       </c>
       <c r="J13" t="n">
-        <v>19.52998575521772</v>
+        <v>16.35784734110393</v>
       </c>
       <c r="K13" t="n">
-        <v>0.3103489946830535</v>
+        <v>0.7584638604846561</v>
       </c>
       <c r="L13" t="n">
-        <v>2.32828769294597</v>
+        <v>1.817148818231793</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -1786,34 +1720,34 @@
         </is>
       </c>
       <c r="N13" t="n">
-        <v>1388.577381839085</v>
+        <v>1389.426997330569</v>
       </c>
       <c r="O13" t="n">
-        <v>0.01292159986758674</v>
+        <v>0.3912845627061733</v>
       </c>
       <c r="P13" t="n">
-        <v>6506.358321526648</v>
+        <v>1076.708745793441</v>
       </c>
       <c r="Q13" t="n">
-        <v>1388.577331836585</v>
+        <v>1389.426997330569</v>
       </c>
       <c r="R13" t="n">
-        <v>17148.66185366718</v>
+        <v>1652.891130155883</v>
       </c>
       <c r="S13" t="n">
-        <v>0.9416464206830442</v>
+        <v>0.6246694388610978</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>36.31445776392012</v>
+        <v>7.776750628199585</v>
       </c>
       <c r="V13" t="n">
-        <v>0.7432100408644975</v>
+        <v>0.4148601193331678</v>
       </c>
       <c r="W13" t="n">
-        <v>1.883292841366088</v>
+        <v>1.249338877722196</v>
       </c>
       <c r="X13" t="inlineStr">
         <is>
@@ -1823,15 +1757,9 @@
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr"/>
       <c r="AA13" t="inlineStr"/>
-      <c r="AB13" t="n">
-        <v>1410.003838077638</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>1928.614718175243</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>1.112927280490617</v>
-      </c>
+      <c r="AB13" t="inlineStr"/>
+      <c r="AC13" t="inlineStr"/>
+      <c r="AD13" t="inlineStr"/>
       <c r="AE13" t="inlineStr"/>
       <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="inlineStr"/>
@@ -1845,41 +1773,41 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1mol_FIA_R1</t>
+          <t>LL8_612_a_r2_CRR_DiadFit</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>102.7467191935154</v>
+        <v>102.8048949230649</v>
       </c>
       <c r="C14" t="n">
-        <v>0.04129483295141292</v>
+        <v>0.2160237509314807</v>
       </c>
       <c r="D14" t="n">
-        <v>1286.323589887471</v>
+        <v>1286.496810804795</v>
       </c>
       <c r="E14" t="n">
-        <v>0.03921900739398194</v>
+        <v>0.2065767460930486</v>
       </c>
       <c r="F14" t="n">
-        <v>2523.059248134275</v>
+        <v>446.0125966264513</v>
       </c>
       <c r="G14" t="n">
-        <v>1286.323589887471</v>
+        <v>1286.496810804795</v>
       </c>
       <c r="H14" t="n">
-        <v>5393.654951929124</v>
+        <v>893.6140106488764</v>
       </c>
       <c r="I14" t="n">
-        <v>0.8615790110199665</v>
+        <v>0.7804458034633932</v>
       </c>
       <c r="J14" t="n">
-        <v>15.55097301896178</v>
+        <v>18.53118749478137</v>
       </c>
       <c r="K14" t="n">
-        <v>0.4383090302858411</v>
+        <v>0.5222709515543323</v>
       </c>
       <c r="L14" t="n">
-        <v>1.723158022039933</v>
+        <v>1.560891606926786</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1887,34 +1815,34 @@
         </is>
       </c>
       <c r="N14" t="n">
-        <v>1389.070309080987</v>
+        <v>1389.30170572786</v>
       </c>
       <c r="O14" t="n">
-        <v>0.01292798079809404</v>
+        <v>0.06318472078053783</v>
       </c>
       <c r="P14" t="n">
-        <v>3534.869562270197</v>
+        <v>599.7337608340822</v>
       </c>
       <c r="Q14" t="n">
-        <v>1389.070309080987</v>
+        <v>1389.30170572786</v>
       </c>
       <c r="R14" t="n">
-        <v>7337.471096510713</v>
+        <v>1261.435141075445</v>
       </c>
       <c r="S14" t="n">
-        <v>0.9750121506606693</v>
+        <v>0.9797294152960174</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>25.03921883214291</v>
+        <v>10.90291524976137</v>
       </c>
       <c r="V14" t="n">
-        <v>5.544069446417055e-06</v>
+        <v>1.157407503171726e-13</v>
       </c>
       <c r="W14" t="n">
-        <v>1.950024301321339</v>
+        <v>1.959458830592035</v>
       </c>
       <c r="X14" t="inlineStr">
         <is>
@@ -1924,15 +1852,9 @@
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr"/>
       <c r="AA14" t="inlineStr"/>
-      <c r="AB14" t="n">
-        <v>1410.324123507723</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>1150.069151808142</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>0.4111441575334727</v>
-      </c>
+      <c r="AB14" t="inlineStr"/>
+      <c r="AC14" t="inlineStr"/>
+      <c r="AD14" t="inlineStr"/>
       <c r="AE14" t="inlineStr"/>
       <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="inlineStr"/>
@@ -1946,41 +1868,41 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1mol_FIA_R2</t>
+          <t>LL8_612_a_r3_CRR_DiadFit</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>102.6906978631141</v>
+        <v>102.8765505714416</v>
       </c>
       <c r="C15" t="n">
-        <v>0.02324070309816544</v>
+        <v>0.3404656547504936</v>
       </c>
       <c r="D15" t="n">
-        <v>1286.484420902115</v>
+        <v>1286.477000334763</v>
       </c>
       <c r="E15" t="n">
-        <v>0.01934046322584283</v>
+        <v>0.1320520423732791</v>
       </c>
       <c r="F15" t="n">
-        <v>2137.380284757951</v>
+        <v>351.6697068418433</v>
       </c>
       <c r="G15" t="n">
-        <v>1286.484420902115</v>
+        <v>1286.477000334763</v>
       </c>
       <c r="H15" t="n">
-        <v>4842.994129572497</v>
+        <v>655.5479699561403</v>
       </c>
       <c r="I15" t="n">
-        <v>0.9826871827519605</v>
+        <v>0.877546391440948</v>
       </c>
       <c r="J15" t="n">
-        <v>14.28284980678283</v>
+        <v>13.21253736484591</v>
       </c>
       <c r="K15" t="n">
-        <v>0.2359213288733987</v>
+        <v>6.520506357077238e-12</v>
       </c>
       <c r="L15" t="n">
-        <v>1.965374365503921</v>
+        <v>1.755092782881896</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1988,34 +1910,34 @@
         </is>
       </c>
       <c r="N15" t="n">
-        <v>1389.175118765229</v>
+        <v>1389.353550906205</v>
       </c>
       <c r="O15" t="n">
-        <v>0.01288707735318207</v>
+        <v>0.3138138304309229</v>
       </c>
       <c r="P15" t="n">
-        <v>3308.020846564004</v>
+        <v>920.1086925902524</v>
       </c>
       <c r="Q15" t="n">
-        <v>1389.175118765229</v>
+        <v>1389.353550906205</v>
       </c>
       <c r="R15" t="n">
-        <v>7471.89454441956</v>
+        <v>1372.330841650153</v>
       </c>
       <c r="S15" t="n">
-        <v>1.016584908204706</v>
+        <v>0.6008483743926692</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>21.22204187733369</v>
+        <v>2.818457198072661</v>
       </c>
       <c r="V15" t="n">
-        <v>0.1297646388321201</v>
+        <v>0.4393827888687092</v>
       </c>
       <c r="W15" t="n">
-        <v>2.033169816409413</v>
+        <v>1.201696748785338</v>
       </c>
       <c r="X15" t="inlineStr">
         <is>
@@ -2025,15 +1947,9 @@
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr"/>
       <c r="AA15" t="inlineStr"/>
-      <c r="AB15" t="n">
-        <v>1410.403122632047</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>703.8052783746604</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>1.522844828710743</v>
-      </c>
+      <c r="AB15" t="inlineStr"/>
+      <c r="AC15" t="inlineStr"/>
+      <c r="AD15" t="inlineStr"/>
       <c r="AE15" t="inlineStr"/>
       <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="inlineStr"/>
@@ -2047,41 +1963,41 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1mol_FIA_R3</t>
+          <t>LL8_612_c_r1_CRR_DiadFit</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>102.7301808805521</v>
+        <v>102.5871957794993</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02975902773390756</v>
+        <v>0.1346432674030542</v>
       </c>
       <c r="D16" t="n">
-        <v>1286.544823203786</v>
+        <v>1286.799675421866</v>
       </c>
       <c r="E16" t="n">
-        <v>0.02560672577880273</v>
+        <v>0.1142419185475007</v>
       </c>
       <c r="F16" t="n">
-        <v>1935.500089838564</v>
+        <v>387.0369317042683</v>
       </c>
       <c r="G16" t="n">
-        <v>1286.544823203786</v>
+        <v>1286.799675421866</v>
       </c>
       <c r="H16" t="n">
-        <v>4672.379912466051</v>
+        <v>841.5067545566388</v>
       </c>
       <c r="I16" t="n">
-        <v>1.016851588367512</v>
+        <v>0.9381424776863645</v>
       </c>
       <c r="J16" t="n">
-        <v>19.28725510436237</v>
+        <v>15.72423183970741</v>
       </c>
       <c r="K16" t="n">
-        <v>0.3183452506403155</v>
+        <v>0.2498044592920328</v>
       </c>
       <c r="L16" t="n">
-        <v>2.033703176735024</v>
+        <v>1.876284955372729</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -2089,34 +2005,34 @@
         </is>
       </c>
       <c r="N16" t="n">
-        <v>1389.275054086839</v>
+        <v>1389.386871201365</v>
       </c>
       <c r="O16" t="n">
-        <v>0.01516229951414622</v>
+        <v>0.07125723474536866</v>
       </c>
       <c r="P16" t="n">
-        <v>2920.297047818374</v>
+        <v>684.5345075167297</v>
       </c>
       <c r="Q16" t="n">
-        <v>1389.275004084338</v>
+        <v>1389.386871201365</v>
       </c>
       <c r="R16" t="n">
-        <v>6481.527440271836</v>
+        <v>1463.962993163068</v>
       </c>
       <c r="S16" t="n">
-        <v>1.03727437467682</v>
+        <v>0.9332998685048206</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>23.07807719114319</v>
+        <v>26.38678660122</v>
       </c>
       <c r="V16" t="n">
-        <v>0.01584660840853469</v>
+        <v>0.2239840265945469</v>
       </c>
       <c r="W16" t="n">
-        <v>2.07454874935364</v>
+        <v>1.866599737009641</v>
       </c>
       <c r="X16" t="inlineStr">
         <is>
@@ -2126,15 +2042,9 @@
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr"/>
       <c r="AA16" t="inlineStr"/>
-      <c r="AB16" t="n">
-        <v>1410.390334446135</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>5394.68084164481</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>0.05163404901757748</v>
-      </c>
+      <c r="AB16" t="inlineStr"/>
+      <c r="AC16" t="inlineStr"/>
+      <c r="AD16" t="inlineStr"/>
       <c r="AE16" t="inlineStr"/>
       <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="inlineStr"/>
@@ -2148,41 +2058,41 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1mol_FIB_R1</t>
+          <t>LL8_612_c_r2_CRR_DiadFit</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>102.7351360214145</v>
+        <v>102.6846642471148</v>
       </c>
       <c r="C17" t="n">
-        <v>0.02174283746382436</v>
+        <v>0.0772987158030444</v>
       </c>
       <c r="D17" t="n">
-        <v>1285.149924450792</v>
+        <v>1286.570529670355</v>
       </c>
       <c r="E17" t="n">
-        <v>0.01898841832434964</v>
+        <v>0.05852176673054855</v>
       </c>
       <c r="F17" t="n">
-        <v>2027.954494163057</v>
+        <v>982.0898765745586</v>
       </c>
       <c r="G17" t="n">
-        <v>1285.149924450792</v>
+        <v>1286.570529670355</v>
       </c>
       <c r="H17" t="n">
-        <v>5115.279175913892</v>
+        <v>2043.369388788253</v>
       </c>
       <c r="I17" t="n">
-        <v>1.057459662694412</v>
+        <v>0.9154150040245386</v>
       </c>
       <c r="J17" t="n">
-        <v>12.45637019737096</v>
+        <v>16.59536828882748</v>
       </c>
       <c r="K17" t="n">
-        <v>0.3338178663803339</v>
+        <v>0.1887785152180236</v>
       </c>
       <c r="L17" t="n">
-        <v>2.114919325388824</v>
+        <v>1.830830008049077</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -2190,34 +2100,34 @@
         </is>
       </c>
       <c r="N17" t="n">
-        <v>1387.885110474706</v>
+        <v>1389.255193917469</v>
       </c>
       <c r="O17" t="n">
-        <v>0.01059202296626036</v>
+        <v>0.0505004384489391</v>
       </c>
       <c r="P17" t="n">
-        <v>3029.797307363398</v>
+        <v>1668.811025385501</v>
       </c>
       <c r="Q17" t="n">
-        <v>1387.885060472206</v>
+        <v>1389.255193917469</v>
       </c>
       <c r="R17" t="n">
-        <v>7321.025631434493</v>
+        <v>3351.452052711646</v>
       </c>
       <c r="S17" t="n">
-        <v>1.135070070573289</v>
+        <v>0.8427169851667056</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>18.59851539722028</v>
+        <v>11.46370931494675</v>
       </c>
       <c r="V17" t="n">
-        <v>1.505260915912743e-10</v>
+        <v>0.3264620009351936</v>
       </c>
       <c r="W17" t="n">
-        <v>2.270140141146578</v>
+        <v>1.685433970333411</v>
       </c>
       <c r="X17" t="inlineStr">
         <is>
@@ -2227,15 +2137,9 @@
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr"/>
       <c r="AA17" t="inlineStr"/>
-      <c r="AB17" t="n">
-        <v>1408.971185889343</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>5056.94120484578</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>0.05694402191111741</v>
-      </c>
+      <c r="AB17" t="inlineStr"/>
+      <c r="AC17" t="inlineStr"/>
+      <c r="AD17" t="inlineStr"/>
       <c r="AE17" t="inlineStr"/>
       <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="inlineStr"/>
@@ -2249,41 +2153,41 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1mol_FIB_R2</t>
+          <t>LL8_612_c_r3_CRR_DiadFit</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>102.8403913844634</v>
+        <v>102.6204724555653</v>
       </c>
       <c r="C18" t="n">
-        <v>0.232467260401549</v>
+        <v>1.08265452891255</v>
       </c>
       <c r="D18" t="n">
-        <v>1286.060029638602</v>
+        <v>1286.781155474842</v>
       </c>
       <c r="E18" t="n">
-        <v>0.2317215470751164</v>
+        <v>0.1014648608293972</v>
       </c>
       <c r="F18" t="n">
-        <v>45487.65921364275</v>
+        <v>366.3335117127892</v>
       </c>
       <c r="G18" t="n">
-        <v>1286.060029638602</v>
+        <v>1286.781155474842</v>
       </c>
       <c r="H18" t="n">
-        <v>29431.41105739952</v>
+        <v>754.7459399420727</v>
       </c>
       <c r="I18" t="n">
-        <v>0.2819975420333984</v>
+        <v>0.9685421350720136</v>
       </c>
       <c r="J18" t="n">
-        <v>19.8229594815527</v>
+        <v>15.76623836405202</v>
       </c>
       <c r="K18" t="n">
-        <v>0.2239170312172251</v>
+        <v>1.269035154738418e-09</v>
       </c>
       <c r="L18" t="n">
-        <v>0.5639950840667969</v>
+        <v>1.937084270144027</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
@@ -2291,34 +2195,34 @@
         </is>
       </c>
       <c r="N18" t="n">
-        <v>1388.900471025565</v>
+        <v>1389.401627930407</v>
       </c>
       <c r="O18" t="n">
-        <v>0.0186051546544558</v>
+        <v>1.077889470674859</v>
       </c>
       <c r="P18" t="n">
-        <v>3538.498649050769</v>
+        <v>893.5130615309948</v>
       </c>
       <c r="Q18" t="n">
-        <v>1388.900421023065</v>
+        <v>1389.401627930407</v>
       </c>
       <c r="R18" t="n">
-        <v>7780.747419893542</v>
+        <v>1691.429401566805</v>
       </c>
       <c r="S18" t="n">
-        <v>0.9415991042148024</v>
+        <v>0.6571467027827149</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>28.54715125076789</v>
+        <v>12.58048108714795</v>
       </c>
       <c r="V18" t="n">
-        <v>0.2742617259059267</v>
+        <v>0.8020673736252441</v>
       </c>
       <c r="W18" t="n">
-        <v>1.883198208429605</v>
+        <v>1.31429340556543</v>
       </c>
       <c r="X18" t="inlineStr">
         <is>
@@ -2328,15 +2232,9 @@
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr"/>
       <c r="AA18" t="inlineStr"/>
-      <c r="AB18" t="n">
-        <v>1410.257489737427</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>7811.671119317652</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>0.2505118359330871</v>
-      </c>
+      <c r="AB18" t="inlineStr"/>
+      <c r="AC18" t="inlineStr"/>
+      <c r="AD18" t="inlineStr"/>
       <c r="AE18" t="inlineStr"/>
       <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="inlineStr"/>
@@ -2350,41 +2248,41 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1mol_FIB_R3</t>
+          <t>LL8_615_r1_CRR_DiadFit</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>102.7567672390637</v>
+        <v>102.6667186111806</v>
       </c>
       <c r="C19" t="n">
-        <v>0.07637204208242358</v>
+        <v>0.04737605957199902</v>
       </c>
       <c r="D19" t="n">
-        <v>1286.305769125604</v>
+        <v>1286.479472669802</v>
       </c>
       <c r="E19" t="n">
-        <v>0.07175496012856246</v>
+        <v>0.04193836983729061</v>
       </c>
       <c r="F19" t="n">
-        <v>1225.735417461289</v>
+        <v>2026.115011317762</v>
       </c>
       <c r="G19" t="n">
-        <v>1286.305769125604</v>
+        <v>1286.479472669802</v>
       </c>
       <c r="H19" t="n">
-        <v>2754.391787481559</v>
+        <v>3984.853359635498</v>
       </c>
       <c r="I19" t="n">
-        <v>0.8604935158055</v>
+        <v>0.9241169675304295</v>
       </c>
       <c r="J19" t="n">
-        <v>20.66505108963336</v>
+        <v>24.8891716289462</v>
       </c>
       <c r="K19" t="n">
-        <v>0.5693329119240542</v>
+        <v>9.642051990166323e-09</v>
       </c>
       <c r="L19" t="n">
-        <v>1.720987031611</v>
+        <v>1.848233935060859</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
@@ -2392,34 +2290,34 @@
         </is>
       </c>
       <c r="N19" t="n">
-        <v>1389.062536364668</v>
+        <v>1389.146191280983</v>
       </c>
       <c r="O19" t="n">
-        <v>0.02615175919107338</v>
+        <v>0.02203778927116403</v>
       </c>
       <c r="P19" t="n">
-        <v>1763.937314676462</v>
+        <v>3121.387029374644</v>
       </c>
       <c r="Q19" t="n">
-        <v>1389.062536364668</v>
+        <v>1389.146191280983</v>
       </c>
       <c r="R19" t="n">
-        <v>3699.349035422255</v>
+        <v>6672.321406574699</v>
       </c>
       <c r="S19" t="n">
-        <v>0.9550937961838617</v>
+        <v>0.9515085385364133</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>19.10757949421176</v>
+        <v>22.33006410598106</v>
       </c>
       <c r="V19" t="n">
-        <v>0.09449437532764771</v>
+        <v>0.1609440287139927</v>
       </c>
       <c r="W19" t="n">
-        <v>1.910187592367723</v>
+        <v>1.903017077072827</v>
       </c>
       <c r="X19" t="inlineStr">
         <is>
@@ -2429,15 +2327,9 @@
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr"/>
       <c r="AA19" t="inlineStr"/>
-      <c r="AB19" t="n">
-        <v>1410.606821386711</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>415.0287458505148</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>1.292758564525509</v>
-      </c>
+      <c r="AB19" t="inlineStr"/>
+      <c r="AC19" t="inlineStr"/>
+      <c r="AD19" t="inlineStr"/>
       <c r="AE19" t="inlineStr"/>
       <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="inlineStr"/>
@@ -2451,41 +2343,41 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4mol_FID_R1</t>
+          <t>LL8_615_r2_CRR_DiadFit</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>102.895082355582</v>
+        <v>102.6368709756237</v>
       </c>
       <c r="C20" t="n">
-        <v>0.02359357360306307</v>
+        <v>0.04004454220246977</v>
       </c>
       <c r="D20" t="n">
-        <v>1286.347096943808</v>
+        <v>1286.424664480441</v>
       </c>
       <c r="E20" t="n">
-        <v>0.02157254114488248</v>
+        <v>0.03647328601732818</v>
       </c>
       <c r="F20" t="n">
-        <v>3436.285193760775</v>
+        <v>2454.536713161382</v>
       </c>
       <c r="G20" t="n">
-        <v>1286.347096943808</v>
+        <v>1286.424664480441</v>
       </c>
       <c r="H20" t="n">
-        <v>8539.969129763389</v>
+        <v>5156.380529431124</v>
       </c>
       <c r="I20" t="n">
-        <v>0.9757432988087347</v>
+        <v>0.9620970054702922</v>
       </c>
       <c r="J20" t="n">
-        <v>18.10020963622473</v>
+        <v>19.31729284113915</v>
       </c>
       <c r="K20" t="n">
-        <v>0.5076018054763293</v>
+        <v>0.07757068574731829</v>
       </c>
       <c r="L20" t="n">
-        <v>1.951486597617469</v>
+        <v>1.924194010940584</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
@@ -2493,34 +2385,34 @@
         </is>
       </c>
       <c r="N20" t="n">
-        <v>1389.24222930189</v>
+        <v>1389.061535456065</v>
       </c>
       <c r="O20" t="n">
-        <v>0.009554171021889182</v>
+        <v>0.01653072192324204</v>
       </c>
       <c r="P20" t="n">
-        <v>5250.134200110638</v>
+        <v>3784.152929484899</v>
       </c>
       <c r="Q20" t="n">
-        <v>1389.24217929939</v>
+        <v>1389.061535456065</v>
       </c>
       <c r="R20" t="n">
-        <v>12917.10738537489</v>
+        <v>8046.673992654616</v>
       </c>
       <c r="S20" t="n">
-        <v>1.051221424300645</v>
+        <v>0.936534282683738</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>23.92658557583777</v>
+        <v>4.921272658418252</v>
       </c>
       <c r="V20" t="n">
-        <v>0.2807403749226361</v>
+        <v>0.1900677069409558</v>
       </c>
       <c r="W20" t="n">
-        <v>2.102442848601289</v>
+        <v>1.873068565367476</v>
       </c>
       <c r="X20" t="inlineStr">
         <is>
@@ -2530,15 +2422,9 @@
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr"/>
       <c r="AA20" t="inlineStr"/>
-      <c r="AB20" t="n">
-        <v>1410.422299324386</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>1317.714147703909</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>0.7223020793007799</v>
-      </c>
+      <c r="AB20" t="inlineStr"/>
+      <c r="AC20" t="inlineStr"/>
+      <c r="AD20" t="inlineStr"/>
       <c r="AE20" t="inlineStr"/>
       <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="inlineStr"/>
@@ -2552,41 +2438,41 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>4mol_FID_R2</t>
+          <t>LL8_615_r3_CRR_DiadFit</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>102.8626271890198</v>
+        <v>102.6815123744454</v>
       </c>
       <c r="C21" t="n">
-        <v>0.02671867846953562</v>
+        <v>0.03101937937380129</v>
       </c>
       <c r="D21" t="n">
-        <v>1286.232713741053</v>
+        <v>1286.457351753791</v>
       </c>
       <c r="E21" t="n">
-        <v>0.02607758694040361</v>
+        <v>0.0274390278517755</v>
       </c>
       <c r="F21" t="n">
-        <v>7053.022885432133</v>
+        <v>2604.283662663594</v>
       </c>
       <c r="G21" t="n">
-        <v>1286.232713741053</v>
+        <v>1286.457351753791</v>
       </c>
       <c r="H21" t="n">
-        <v>15731.61179701149</v>
+        <v>5602.889990622875</v>
       </c>
       <c r="I21" t="n">
-        <v>0.866816521964051</v>
+        <v>0.9528321694899682</v>
       </c>
       <c r="J21" t="n">
-        <v>16.80312379239221</v>
+        <v>18.87717205527056</v>
       </c>
       <c r="K21" t="n">
-        <v>0.5362669597285495</v>
+        <v>0.174485312331416</v>
       </c>
       <c r="L21" t="n">
-        <v>1.733633043928102</v>
+        <v>1.905664338979936</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -2594,34 +2480,34 @@
         </is>
       </c>
       <c r="N21" t="n">
-        <v>1389.095390932573</v>
+        <v>1389.138864128236</v>
       </c>
       <c r="O21" t="n">
-        <v>0.00581783795959609</v>
+        <v>0.01446726122268128</v>
       </c>
       <c r="P21" t="n">
-        <v>9920.874156549635</v>
+        <v>3994.698795680819</v>
       </c>
       <c r="Q21" t="n">
-        <v>1389.095340930073</v>
+        <v>1389.138864128236</v>
       </c>
       <c r="R21" t="n">
-        <v>23441.73118242007</v>
+        <v>8733.508288942301</v>
       </c>
       <c r="S21" t="n">
-        <v>0.9965281103672741</v>
+        <v>0.9518403829625639</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>28.80195607094083</v>
+        <v>21.59097590018086</v>
       </c>
       <c r="V21" t="n">
-        <v>0.3171127206654084</v>
+        <v>0.2232544305747899</v>
       </c>
       <c r="W21" t="n">
-        <v>1.993056220734548</v>
+        <v>1.903680765925128</v>
       </c>
       <c r="X21" t="inlineStr">
         <is>
@@ -2631,15 +2517,9 @@
       <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr"/>
       <c r="AA21" t="inlineStr"/>
-      <c r="AB21" t="n">
-        <v>1410.369319477464</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>2464.846169047345</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>0.5414610852730157</v>
-      </c>
+      <c r="AB21" t="inlineStr"/>
+      <c r="AC21" t="inlineStr"/>
+      <c r="AD21" t="inlineStr"/>
       <c r="AE21" t="inlineStr"/>
       <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="inlineStr"/>
@@ -2653,41 +2533,41 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>4mol_FID_R3</t>
+          <t>LL8_622B_R1_CRR_DiadFit</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>102.8829726179197</v>
+        <v>102.6287330780706</v>
       </c>
       <c r="C22" t="n">
-        <v>0.02308548984524269</v>
+        <v>0.1709107724958259</v>
       </c>
       <c r="D22" t="n">
-        <v>1286.333841695587</v>
+        <v>1286.752288047125</v>
       </c>
       <c r="E22" t="n">
-        <v>0.02169052648359944</v>
+        <v>0.08664878431178141</v>
       </c>
       <c r="F22" t="n">
-        <v>3966.366101294858</v>
+        <v>439.6362017206875</v>
       </c>
       <c r="G22" t="n">
-        <v>1286.333841695587</v>
+        <v>1286.752288047125</v>
       </c>
       <c r="H22" t="n">
-        <v>9983.974157247987</v>
+        <v>798.4465699506975</v>
       </c>
       <c r="I22" t="n">
-        <v>0.9811012229357242</v>
+        <v>0.8523556398266814</v>
       </c>
       <c r="J22" t="n">
-        <v>17.42799798015345</v>
+        <v>11.85415556359602</v>
       </c>
       <c r="K22" t="n">
-        <v>0.5287636296658851</v>
+        <v>1.696029988673686e-08</v>
       </c>
       <c r="L22" t="n">
-        <v>1.962202445871448</v>
+        <v>1.704711279653363</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
@@ -2695,52 +2575,46 @@
         </is>
       </c>
       <c r="N22" t="n">
-        <v>1389.216864316007</v>
+        <v>1389.381021125196</v>
       </c>
       <c r="O22" t="n">
-        <v>0.007903221005329052</v>
+        <v>0.147317617182774</v>
       </c>
       <c r="P22" t="n">
-        <v>6122.617971146184</v>
+        <v>436.6187690961698</v>
       </c>
       <c r="Q22" t="n">
-        <v>1389.216814313507</v>
+        <v>1389.381021125196</v>
       </c>
       <c r="R22" t="n">
-        <v>15321.26863897528</v>
+        <v>1512.436891720322</v>
       </c>
       <c r="S22" t="n">
-        <v>1.053952791814984</v>
+        <v>1.600000000011854</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>26.17670371515721</v>
+        <v>43.95835212914818</v>
       </c>
       <c r="V22" t="n">
-        <v>0.3208577455563519</v>
+        <v>8.087627884068027e-08</v>
       </c>
       <c r="W22" t="n">
-        <v>2.107905583629968</v>
+        <v>3.200000000023708</v>
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>Flagged Warnings:</t>
+          <t>Flagged Warnings: V_Sigma_too_High</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr"/>
       <c r="AA22" t="inlineStr"/>
-      <c r="AB22" t="n">
-        <v>1410.393503119163</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>1621.441859236859</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>0.5220797431796521</v>
-      </c>
+      <c r="AB22" t="inlineStr"/>
+      <c r="AC22" t="inlineStr"/>
+      <c r="AD22" t="inlineStr"/>
       <c r="AE22" t="inlineStr"/>
       <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="inlineStr"/>
@@ -2754,41 +2628,41 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>LL8_404a_r1</t>
+          <t>LL8_622B_R2_CRR_DiadFit</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>102.6815606303608</v>
+        <v>102.605050005471</v>
       </c>
       <c r="C23" t="n">
-        <v>0.02630662639149717</v>
+        <v>0.2544383191588113</v>
       </c>
       <c r="D23" t="n">
-        <v>1286.744358329764</v>
+        <v>1286.91516889066</v>
       </c>
       <c r="E23" t="n">
-        <v>0.02523817517000726</v>
+        <v>0.2429691332125441</v>
       </c>
       <c r="F23" t="n">
-        <v>2405.63402954659</v>
+        <v>362.8039865117877</v>
       </c>
       <c r="G23" t="n">
-        <v>1286.744358329764</v>
+        <v>1286.91516889066</v>
       </c>
       <c r="H23" t="n">
-        <v>5063.693242045299</v>
+        <v>1129.479931823171</v>
       </c>
       <c r="I23" t="n">
-        <v>0.9890982417923664</v>
+        <v>0.9886331258069501</v>
       </c>
       <c r="J23" t="n">
-        <v>17.7550874089669</v>
+        <v>17.6983290842945</v>
       </c>
       <c r="K23" t="n">
-        <v>6.557490178638048e-08</v>
+        <v>0.9999999916508922</v>
       </c>
       <c r="L23" t="n">
-        <v>1.978196483584733</v>
+        <v>1.9772662516139</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
@@ -2796,34 +2670,34 @@
         </is>
       </c>
       <c r="N23" t="n">
-        <v>1389.425968962625</v>
+        <v>1389.52021889613</v>
       </c>
       <c r="O23" t="n">
-        <v>0.00742112566864655</v>
+        <v>0.07553051411387403</v>
       </c>
       <c r="P23" t="n">
-        <v>3616.516674542424</v>
+        <v>515.0358490879566</v>
       </c>
       <c r="Q23" t="n">
-        <v>1389.425918960125</v>
+        <v>1389.52021889613</v>
       </c>
       <c r="R23" t="n">
-        <v>7840.737836713734</v>
+        <v>1174.280492719044</v>
       </c>
       <c r="S23" t="n">
-        <v>1.018366851991055</v>
+        <v>1.065531540785656</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>21.4018060936705</v>
+        <v>32.25715009434939</v>
       </c>
       <c r="V23" t="n">
-        <v>8.39291081078386e-10</v>
+        <v>4.396841549736408e-07</v>
       </c>
       <c r="W23" t="n">
-        <v>2.036733703982111</v>
+        <v>2.131063081571313</v>
       </c>
       <c r="X23" t="inlineStr">
         <is>
@@ -2833,15 +2707,9 @@
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr"/>
       <c r="AA23" t="inlineStr"/>
-      <c r="AB23" t="n">
-        <v>1410.699543630132</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>1186.669782436438</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>0.9709662908165299</v>
-      </c>
+      <c r="AB23" t="inlineStr"/>
+      <c r="AC23" t="inlineStr"/>
+      <c r="AD23" t="inlineStr"/>
       <c r="AE23" t="inlineStr"/>
       <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="inlineStr"/>
@@ -2855,41 +2723,41 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>LL8_404a_r2</t>
+          <t>LL8_622B_R3_CRR_DiadFit</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>102.6792242411395</v>
+        <v>102.6885256490377</v>
       </c>
       <c r="C24" t="n">
-        <v>0.04087487615714225</v>
+        <v>0.1295266753233024</v>
       </c>
       <c r="D24" t="n">
-        <v>1286.733899791355</v>
+        <v>1286.663797611005</v>
       </c>
       <c r="E24" t="n">
-        <v>0.03751388317411645</v>
+        <v>0.1132529463485255</v>
       </c>
       <c r="F24" t="n">
-        <v>1606.036923440594</v>
+        <v>422.6214049492904</v>
       </c>
       <c r="G24" t="n">
-        <v>1286.733899791355</v>
+        <v>1286.663797611005</v>
       </c>
       <c r="H24" t="n">
-        <v>3191.938694649152</v>
+        <v>981.3115588141853</v>
       </c>
       <c r="I24" t="n">
-        <v>0.9289809186900339</v>
+        <v>1.087720540264212</v>
       </c>
       <c r="J24" t="n">
-        <v>22.16598499416191</v>
+        <v>19.02214423071366</v>
       </c>
       <c r="K24" t="n">
-        <v>0.007899815449588177</v>
+        <v>2.895128581315021e-12</v>
       </c>
       <c r="L24" t="n">
-        <v>1.857961837380068</v>
+        <v>2.175441080528425</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
@@ -2897,34 +2765,34 @@
         </is>
       </c>
       <c r="N24" t="n">
-        <v>1389.413174034994</v>
+        <v>1389.352323260042</v>
       </c>
       <c r="O24" t="n">
-        <v>0.01623157632703794</v>
+        <v>0.06285642181739437</v>
       </c>
       <c r="P24" t="n">
-        <v>2412.940767160169</v>
+        <v>659.9456092164058</v>
       </c>
       <c r="Q24" t="n">
-        <v>1389.413124032494</v>
+        <v>1389.352323260042</v>
       </c>
       <c r="R24" t="n">
-        <v>5080.68748943007</v>
+        <v>1849.089288141955</v>
       </c>
       <c r="S24" t="n">
-        <v>0.9890394501074211</v>
+        <v>1.222890950252191</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>24.83300953622602</v>
+        <v>7.558751145437931</v>
       </c>
       <c r="V24" t="n">
-        <v>1.025091622697261e-09</v>
+        <v>0.2103134316477338</v>
       </c>
       <c r="W24" t="n">
-        <v>1.978078900214842</v>
+        <v>2.445781900504383</v>
       </c>
       <c r="X24" t="inlineStr">
         <is>
@@ -2934,15 +2802,9 @@
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr"/>
       <c r="AA24" t="inlineStr"/>
-      <c r="AB24" t="n">
-        <v>1410.612202805112</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>995.9270790527208</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>0.8212497049316115</v>
-      </c>
+      <c r="AB24" t="inlineStr"/>
+      <c r="AC24" t="inlineStr"/>
+      <c r="AD24" t="inlineStr"/>
       <c r="AE24" t="inlineStr"/>
       <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="inlineStr"/>
@@ -2956,41 +2818,41 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>LL8_404a_r3</t>
+          <t>LL8_624_r1_CRR_DiadFit</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>102.7353582360458</v>
+        <v>102.6841320755391</v>
       </c>
       <c r="C25" t="n">
-        <v>0.02925198434250133</v>
+        <v>0.06651493303745425</v>
       </c>
       <c r="D25" t="n">
-        <v>1286.788711936323</v>
+        <v>1286.321099860673</v>
       </c>
       <c r="E25" t="n">
-        <v>0.02843903789327995</v>
+        <v>0.06358152032549769</v>
       </c>
       <c r="F25" t="n">
-        <v>1796.449815762355</v>
+        <v>1912.222276309629</v>
       </c>
       <c r="G25" t="n">
-        <v>1286.788711936323</v>
+        <v>1286.321099860673</v>
       </c>
       <c r="H25" t="n">
-        <v>3938.73177308317</v>
+        <v>3774.611711844524</v>
       </c>
       <c r="I25" t="n">
-        <v>0.9739116219898103</v>
+        <v>0.830177780046389</v>
       </c>
       <c r="J25" t="n">
-        <v>9.778446396900982</v>
+        <v>13.88161631173519</v>
       </c>
       <c r="K25" t="n">
-        <v>0.172244663148104</v>
+        <v>0.3276128129666201</v>
       </c>
       <c r="L25" t="n">
-        <v>1.947823243979621</v>
+        <v>1.660355560092778</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
@@ -2998,34 +2860,34 @@
         </is>
       </c>
       <c r="N25" t="n">
-        <v>1389.524120174869</v>
+        <v>1389.005231936212</v>
       </c>
       <c r="O25" t="n">
-        <v>0.006848336416862837</v>
+        <v>0.01953526529319085</v>
       </c>
       <c r="P25" t="n">
-        <v>2701.421175047143</v>
+        <v>2636.125894521214</v>
       </c>
       <c r="Q25" t="n">
-        <v>1389.524070172369</v>
+        <v>1389.005231936212</v>
       </c>
       <c r="R25" t="n">
-        <v>5884.466078044069</v>
+        <v>5600.192396661275</v>
       </c>
       <c r="S25" t="n">
-        <v>0.9950971120841183</v>
+        <v>0.9530728600200875</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>15.26175386430905</v>
+        <v>12.98516599745287</v>
       </c>
       <c r="V25" t="n">
-        <v>0.08519551787288038</v>
+        <v>0.1372319768353812</v>
       </c>
       <c r="W25" t="n">
-        <v>1.990194224168237</v>
+        <v>1.906145720040175</v>
       </c>
       <c r="X25" t="inlineStr">
         <is>
@@ -3035,15 +2897,9 @@
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr"/>
       <c r="AA25" t="inlineStr"/>
-      <c r="AB25" t="n">
-        <v>1410.621445146513</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>797.0274923619111</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>0.7673260335775909</v>
-      </c>
+      <c r="AB25" t="inlineStr"/>
+      <c r="AC25" t="inlineStr"/>
+      <c r="AD25" t="inlineStr"/>
       <c r="AE25" t="inlineStr"/>
       <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="inlineStr"/>
@@ -3057,41 +2913,41 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>LL8_612_a_r1</t>
+          <t>LL8_624_r2_CRR_DiadFit</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>102.7914379757117</v>
+        <v>102.6694106363359</v>
       </c>
       <c r="C26" t="n">
-        <v>0.5672196509385417</v>
+        <v>0.05812359383373652</v>
       </c>
       <c r="D26" t="n">
-        <v>1286.641407513199</v>
+        <v>1286.298120918549</v>
       </c>
       <c r="E26" t="n">
-        <v>0.1262768511107424</v>
+        <v>0.05671854487053735</v>
       </c>
       <c r="F26" t="n">
-        <v>426.9464839757032</v>
+        <v>1715.587028930298</v>
       </c>
       <c r="G26" t="n">
-        <v>1286.641407513199</v>
+        <v>1286.298120918549</v>
       </c>
       <c r="H26" t="n">
-        <v>1110.566973641369</v>
+        <v>3538.552160702737</v>
       </c>
       <c r="I26" t="n">
-        <v>0.9012736957940884</v>
+        <v>0.880845946918499</v>
       </c>
       <c r="J26" t="n">
-        <v>16.27879396035936</v>
+        <v>13.94735712319369</v>
       </c>
       <c r="K26" t="n">
-        <v>0.8092476789373861</v>
+        <v>0.2764915807474594</v>
       </c>
       <c r="L26" t="n">
-        <v>1.802547391588177</v>
+        <v>1.761691893836998</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
@@ -3099,34 +2955,34 @@
         </is>
       </c>
       <c r="N26" t="n">
-        <v>1389.432845488911</v>
+        <v>1388.967531554885</v>
       </c>
       <c r="O26" t="n">
-        <v>0.5529848906474719</v>
+        <v>0.01270270947152673</v>
       </c>
       <c r="P26" t="n">
-        <v>1110.780473532825</v>
+        <v>2563.5143183071</v>
       </c>
       <c r="Q26" t="n">
-        <v>1389.432845488911</v>
+        <v>1388.967531554885</v>
       </c>
       <c r="R26" t="n">
-        <v>1537.065627110992</v>
+        <v>5345.022375841903</v>
       </c>
       <c r="S26" t="n">
-        <v>0.6087827086259392</v>
+        <v>0.9404853676549334</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>17.14723088644111</v>
+        <v>8.210387146491183</v>
       </c>
       <c r="V26" t="n">
-        <v>0.1966457786713589</v>
+        <v>0.1220927714982128</v>
       </c>
       <c r="W26" t="n">
-        <v>1.217565417251878</v>
+        <v>1.880970735309867</v>
       </c>
       <c r="X26" t="inlineStr">
         <is>
@@ -3136,15 +2992,9 @@
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr"/>
       <c r="AA26" t="inlineStr"/>
-      <c r="AB26" t="n">
-        <v>1410.46426829752</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>260.4325304968932</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>1.154016019608482</v>
-      </c>
+      <c r="AB26" t="inlineStr"/>
+      <c r="AC26" t="inlineStr"/>
+      <c r="AD26" t="inlineStr"/>
       <c r="AE26" t="inlineStr"/>
       <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="inlineStr"/>
@@ -3158,41 +3008,41 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>LL8_612_a_r2</t>
+          <t>LL8_624_r3_CRR_DiadFit</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>102.810154250461</v>
+        <v>102.6585198172079</v>
       </c>
       <c r="C27" t="n">
-        <v>0.2161931600961313</v>
+        <v>0.05805670507265245</v>
       </c>
       <c r="D27" t="n">
-        <v>1286.496745955653</v>
+        <v>1286.443841291869</v>
       </c>
       <c r="E27" t="n">
-        <v>0.2064273588438827</v>
+        <v>0.05282623360813724</v>
       </c>
       <c r="F27" t="n">
-        <v>446.0375256943291</v>
+        <v>1253.017510927646</v>
       </c>
       <c r="G27" t="n">
-        <v>1286.496745955653</v>
+        <v>1286.443841291869</v>
       </c>
       <c r="H27" t="n">
-        <v>893.6432554859911</v>
+        <v>2626.218153286567</v>
       </c>
       <c r="I27" t="n">
-        <v>0.7803489740164135</v>
+        <v>0.9837822450501628</v>
       </c>
       <c r="J27" t="n">
-        <v>18.5311865790093</v>
+        <v>20.36123715896325</v>
       </c>
       <c r="K27" t="n">
-        <v>0.5225296235009682</v>
+        <v>1.378137532981327e-07</v>
       </c>
       <c r="L27" t="n">
-        <v>1.560697948032827</v>
+        <v>1.967564490100326</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
@@ -3200,34 +3050,34 @@
         </is>
       </c>
       <c r="N27" t="n">
-        <v>1389.306900206114</v>
+        <v>1389.102361109077</v>
       </c>
       <c r="O27" t="n">
-        <v>0.06424350545456185</v>
+        <v>0.02408256727742</v>
       </c>
       <c r="P27" t="n">
-        <v>606.6628775333216</v>
+        <v>1958.979272550918</v>
       </c>
       <c r="Q27" t="n">
-        <v>1389.306900206114</v>
+        <v>1389.102361109077</v>
       </c>
       <c r="R27" t="n">
-        <v>1237.982936495034</v>
+        <v>4261.763174354736</v>
       </c>
       <c r="S27" t="n">
-        <v>0.9585285003274817</v>
+        <v>0.9699779610152819</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>18.40041072369789</v>
+        <v>10.48897602140728</v>
       </c>
       <c r="V27" t="n">
-        <v>6.234809613037129e-09</v>
+        <v>0.1564326653242868</v>
       </c>
       <c r="W27" t="n">
-        <v>1.917057000654963</v>
+        <v>1.939955922030564</v>
       </c>
       <c r="X27" t="inlineStr">
         <is>
@@ -3237,15 +3087,9 @@
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr"/>
       <c r="AA27" t="inlineStr"/>
-      <c r="AB27" t="n">
-        <v>1410.256499633075</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>304.4513183055084</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>1.147918588555012</v>
-      </c>
+      <c r="AB27" t="inlineStr"/>
+      <c r="AC27" t="inlineStr"/>
+      <c r="AD27" t="inlineStr"/>
       <c r="AE27" t="inlineStr"/>
       <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="inlineStr"/>
@@ -3259,41 +3103,41 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>LL8_612_a_r3</t>
+          <t>LL8_626_MI_r1_CRR_DiadFit</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>102.793244132539</v>
+        <v>102.6854368771972</v>
       </c>
       <c r="C28" t="n">
-        <v>0.1749597059326986</v>
+        <v>0.02785237135158077</v>
       </c>
       <c r="D28" t="n">
-        <v>1286.47700229888</v>
+        <v>1286.744346402032</v>
       </c>
       <c r="E28" t="n">
-        <v>0.1320536890042573</v>
+        <v>0.02539603249172841</v>
       </c>
       <c r="F28" t="n">
-        <v>351.6668208140498</v>
+        <v>2403.398695511774</v>
       </c>
       <c r="G28" t="n">
-        <v>1286.47700229888</v>
+        <v>1286.744346402032</v>
       </c>
       <c r="H28" t="n">
-        <v>655.5449439444535</v>
+        <v>5052.888430755374</v>
       </c>
       <c r="I28" t="n">
-        <v>0.8775496394237854</v>
+        <v>0.9879390497547973</v>
       </c>
       <c r="J28" t="n">
-        <v>13.21268002351002</v>
+        <v>16.85610526249206</v>
       </c>
       <c r="K28" t="n">
-        <v>2.078744443245739e-08</v>
+        <v>7.339778729242852e-09</v>
       </c>
       <c r="L28" t="n">
-        <v>1.755099278847571</v>
+        <v>1.975878099509595</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
@@ -3301,34 +3145,34 @@
         </is>
       </c>
       <c r="N28" t="n">
-        <v>1389.270246431419</v>
+        <v>1389.429783279229</v>
       </c>
       <c r="O28" t="n">
-        <v>0.1147724789329884</v>
+        <v>0.01143661329176745</v>
       </c>
       <c r="P28" t="n">
-        <v>616.4615219293652</v>
+        <v>3702.882335207473</v>
       </c>
       <c r="Q28" t="n">
-        <v>1389.270246431419</v>
+        <v>1389.429783279229</v>
       </c>
       <c r="R28" t="n">
-        <v>1074.513710418245</v>
+        <v>8147.825031772213</v>
       </c>
       <c r="S28" t="n">
-        <v>0.81873574658082</v>
+        <v>0.9995812885186928</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>14.30336189623506</v>
+        <v>38.47298837758419</v>
       </c>
       <c r="V28" t="n">
-        <v>1.986642773066372e-07</v>
+        <v>0.1026711850291308</v>
       </c>
       <c r="W28" t="n">
-        <v>1.63747149316164</v>
+        <v>1.999162577037386</v>
       </c>
       <c r="X28" t="inlineStr">
         <is>
@@ -3338,15 +3182,9 @@
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr"/>
       <c r="AA28" t="inlineStr"/>
-      <c r="AB28" t="n">
-        <v>1410.274337034134</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>274.7365548253268</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>0.5882339905928071</v>
-      </c>
+      <c r="AB28" t="inlineStr"/>
+      <c r="AC28" t="inlineStr"/>
+      <c r="AD28" t="inlineStr"/>
       <c r="AE28" t="inlineStr"/>
       <c r="AF28" t="inlineStr"/>
       <c r="AG28" t="inlineStr"/>
@@ -3360,41 +3198,41 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>LL8_612_c_r1</t>
+          <t>LL8_626_MI_r2_CRR_DiadFit</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>102.5768221253315</v>
+        <v>102.6287330780706</v>
       </c>
       <c r="C29" t="n">
-        <v>0.1311691699374791</v>
+        <v>0.1709107724958259</v>
       </c>
       <c r="D29" t="n">
-        <v>1286.800139847055</v>
+        <v>1286.752288047125</v>
       </c>
       <c r="E29" t="n">
-        <v>0.1201800438007781</v>
+        <v>0.08664878431178141</v>
       </c>
       <c r="F29" t="n">
-        <v>386.8735520318256</v>
+        <v>439.6362017206875</v>
       </c>
       <c r="G29" t="n">
-        <v>1286.800139847055</v>
+        <v>1286.752288047125</v>
       </c>
       <c r="H29" t="n">
-        <v>837.8175432940561</v>
+        <v>798.4465699506975</v>
       </c>
       <c r="I29" t="n">
-        <v>0.9393094681649421</v>
+        <v>0.8523556398266814</v>
       </c>
       <c r="J29" t="n">
-        <v>15.90046029205275</v>
+        <v>11.85415556359602</v>
       </c>
       <c r="K29" t="n">
-        <v>0.2348950817966796</v>
+        <v>1.696029988673686e-08</v>
       </c>
       <c r="L29" t="n">
-        <v>1.878618936329884</v>
+        <v>1.704711279653363</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
@@ -3402,52 +3240,46 @@
         </is>
       </c>
       <c r="N29" t="n">
-        <v>1389.376961972386</v>
+        <v>1389.381021125196</v>
       </c>
       <c r="O29" t="n">
-        <v>0.05255576290123036</v>
+        <v>0.147317617182774</v>
       </c>
       <c r="P29" t="n">
-        <v>646.2308458182462</v>
+        <v>436.6187690961698</v>
       </c>
       <c r="Q29" t="n">
-        <v>1389.376961972386</v>
+        <v>1389.381021125196</v>
       </c>
       <c r="R29" t="n">
-        <v>1333.567006572128</v>
+        <v>1512.436891720322</v>
       </c>
       <c r="S29" t="n">
-        <v>0.9693133681278148</v>
+        <v>1.600000000011854</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>19.18642175578458</v>
+        <v>43.95835212914818</v>
       </c>
       <c r="V29" t="n">
-        <v>5.353305346789128e-06</v>
+        <v>8.087627884068027e-08</v>
       </c>
       <c r="W29" t="n">
-        <v>1.93862673625563</v>
+        <v>3.200000000023708</v>
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>Flagged Warnings:</t>
+          <t>Flagged Warnings: V_Sigma_too_High</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr"/>
       <c r="AA29" t="inlineStr"/>
-      <c r="AB29" t="n">
-        <v>1410.309431152796</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>343.4837946114702</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>1.291124683211222</v>
-      </c>
+      <c r="AB29" t="inlineStr"/>
+      <c r="AC29" t="inlineStr"/>
+      <c r="AD29" t="inlineStr"/>
       <c r="AE29" t="inlineStr"/>
       <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="inlineStr"/>
@@ -3461,41 +3293,41 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>LL8_612_c_r2</t>
+          <t>LL8_626_MI_r3_CRR_DiadFit</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>102.641945623855</v>
+        <v>102.5262222298384</v>
       </c>
       <c r="C30" t="n">
-        <v>0.06368253323165877</v>
+        <v>0.2000433611122522</v>
       </c>
       <c r="D30" t="n">
-        <v>1286.575726269135</v>
+        <v>1286.852975202331</v>
       </c>
       <c r="E30" t="n">
-        <v>0.05566030459732967</v>
+        <v>0.1277022995744835</v>
       </c>
       <c r="F30" t="n">
-        <v>980.3646517029445</v>
+        <v>377.34244472212</v>
       </c>
       <c r="G30" t="n">
-        <v>1286.575726269135</v>
+        <v>1286.852975202331</v>
       </c>
       <c r="H30" t="n">
-        <v>1988.264511184212</v>
+        <v>762.9385379407049</v>
       </c>
       <c r="I30" t="n">
-        <v>0.9286363574665779</v>
+        <v>0.9568095933925831</v>
       </c>
       <c r="J30" t="n">
-        <v>21.85676651848379</v>
+        <v>21.38756160782245</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0729817665836896</v>
+        <v>1.328659371413465e-08</v>
       </c>
       <c r="L30" t="n">
-        <v>1.857272714933156</v>
+        <v>1.913619186785166</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
@@ -3503,34 +3335,34 @@
         </is>
       </c>
       <c r="N30" t="n">
-        <v>1389.21767189299</v>
+        <v>1389.37919743217</v>
       </c>
       <c r="O30" t="n">
-        <v>0.03094180878574821</v>
+        <v>0.1539787940220205</v>
       </c>
       <c r="P30" t="n">
-        <v>1536.460853552787</v>
+        <v>486.6116007015842</v>
       </c>
       <c r="Q30" t="n">
-        <v>1389.21767189299</v>
+        <v>1389.37919743217</v>
       </c>
       <c r="R30" t="n">
-        <v>3014.915391004151</v>
+        <v>1982.304014619976</v>
       </c>
       <c r="S30" t="n">
-        <v>0.9181534804537783</v>
+        <v>1.861428426632766</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>19.19308431984919</v>
+        <v>12.08134895737964</v>
       </c>
       <c r="V30" t="n">
-        <v>0.01195017810524962</v>
+        <v>0.07174907750703385</v>
       </c>
       <c r="W30" t="n">
-        <v>1.836306960907557</v>
+        <v>3.722856853265532</v>
       </c>
       <c r="X30" t="inlineStr">
         <is>
@@ -3540,15 +3372,9 @@
       <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr"/>
       <c r="AA30" t="inlineStr"/>
-      <c r="AB30" t="n">
-        <v>1410.334514292076</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>857.9389923465341</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>0.5196721709880298</v>
-      </c>
+      <c r="AB30" t="inlineStr"/>
+      <c r="AC30" t="inlineStr"/>
+      <c r="AD30" t="inlineStr"/>
       <c r="AE30" t="inlineStr"/>
       <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="inlineStr"/>
@@ -3562,41 +3388,41 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>LL8_612_c_r3</t>
+          <t>LL8_631_a_r1_CRR_DiadFit</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>102.5819022944956</v>
+        <v>102.9147246735795</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1295766382696148</v>
+        <v>0.3861137611513631</v>
       </c>
       <c r="D31" t="n">
-        <v>1286.781155197842</v>
+        <v>1286.125042240752</v>
       </c>
       <c r="E31" t="n">
-        <v>0.1014519968583185</v>
+        <v>0.3799154584228296</v>
       </c>
       <c r="F31" t="n">
-        <v>366.3343660971351</v>
+        <v>1742.125051484057</v>
       </c>
       <c r="G31" t="n">
-        <v>1286.781155197842</v>
+        <v>1286.125042240752</v>
       </c>
       <c r="H31" t="n">
-        <v>754.7499880224847</v>
+        <v>1418.261206333053</v>
       </c>
       <c r="I31" t="n">
-        <v>0.9685448908541782</v>
+        <v>0.2928718557191567</v>
       </c>
       <c r="J31" t="n">
-        <v>15.76618571187344</v>
+        <v>12.45032616293534</v>
       </c>
       <c r="K31" t="n">
-        <v>1.973512731012761e-08</v>
+        <v>0.7241959875058358</v>
       </c>
       <c r="L31" t="n">
-        <v>1.937089781708356</v>
+        <v>0.5857437114383135</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
@@ -3604,34 +3430,34 @@
         </is>
       </c>
       <c r="N31" t="n">
-        <v>1389.363057492337</v>
+        <v>1389.039766914331</v>
       </c>
       <c r="O31" t="n">
-        <v>0.0806076765495343</v>
+        <v>0.06890632047804506</v>
       </c>
       <c r="P31" t="n">
-        <v>637.5308835862321</v>
+        <v>475.5663717646071</v>
       </c>
       <c r="Q31" t="n">
-        <v>1389.363057492337</v>
+        <v>1389.039766914331</v>
       </c>
       <c r="R31" t="n">
-        <v>1176.394503182402</v>
+        <v>1097.271135912763</v>
       </c>
       <c r="S31" t="n">
-        <v>0.8667414211971609</v>
+        <v>0.9339809701455175</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>18.04665715465007</v>
+        <v>2.852712814155501</v>
       </c>
       <c r="V31" t="n">
-        <v>1.542138639010204e-11</v>
+        <v>0.4235537537404873</v>
       </c>
       <c r="W31" t="n">
-        <v>1.733482842394322</v>
+        <v>1.867961940291035</v>
       </c>
       <c r="X31" t="inlineStr">
         <is>
@@ -3641,15 +3467,9 @@
       <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr"/>
       <c r="AA31" t="inlineStr"/>
-      <c r="AB31" t="n">
-        <v>1410.303386921462</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>403.7248174571861</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>0.525882593482935</v>
-      </c>
+      <c r="AB31" t="inlineStr"/>
+      <c r="AC31" t="inlineStr"/>
+      <c r="AD31" t="inlineStr"/>
       <c r="AE31" t="inlineStr"/>
       <c r="AF31" t="inlineStr"/>
       <c r="AG31" t="inlineStr"/>
@@ -3663,41 +3483,41 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>LL8_615_r1</t>
+          <t>LL8_631_a_r2_CRR_DiadFit</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>102.6624986473087</v>
+        <v>102.5499144647836</v>
       </c>
       <c r="C32" t="n">
-        <v>0.04738611086399342</v>
+        <v>0.13624310335338</v>
       </c>
       <c r="D32" t="n">
-        <v>1286.479471480962</v>
+        <v>1286.526955737034</v>
       </c>
       <c r="E32" t="n">
-        <v>0.04193633607544175</v>
+        <v>0.117833739117806</v>
       </c>
       <c r="F32" t="n">
-        <v>2026.123532661513</v>
+        <v>276.376101553683</v>
       </c>
       <c r="G32" t="n">
-        <v>1286.479471480962</v>
+        <v>1286.526955737034</v>
       </c>
       <c r="H32" t="n">
-        <v>3984.864312929534</v>
+        <v>926.6672876617854</v>
       </c>
       <c r="I32" t="n">
-        <v>0.9241155646968719</v>
+        <v>1.125806425826468</v>
       </c>
       <c r="J32" t="n">
-        <v>24.88952055014102</v>
+        <v>11.64838032773378</v>
       </c>
       <c r="K32" t="n">
-        <v>2.020377420919317e-09</v>
+        <v>0.8816205336481501</v>
       </c>
       <c r="L32" t="n">
-        <v>1.848231129393744</v>
+        <v>2.251612851652936</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
@@ -3705,34 +3525,34 @@
         </is>
       </c>
       <c r="N32" t="n">
-        <v>1389.14197012827</v>
+        <v>1389.076870201818</v>
       </c>
       <c r="O32" t="n">
-        <v>0.02206325495891931</v>
+        <v>0.06839146976689879</v>
       </c>
       <c r="P32" t="n">
-        <v>3097.999817527384</v>
+        <v>495.9371788219498</v>
       </c>
       <c r="Q32" t="n">
-        <v>1389.14197012827</v>
+        <v>1389.076870201818</v>
       </c>
       <c r="R32" t="n">
-        <v>6534.592964997841</v>
+        <v>1093.510535997564</v>
       </c>
       <c r="S32" t="n">
-        <v>0.957981450978479</v>
+        <v>0.8977966681047787</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>27.0125266315814</v>
+        <v>7.892751967137867</v>
       </c>
       <c r="V32" t="n">
-        <v>0.1026827444373086</v>
+        <v>0.3976075088988079</v>
       </c>
       <c r="W32" t="n">
-        <v>1.915962901956958</v>
+        <v>1.795593336209557</v>
       </c>
       <c r="X32" t="inlineStr">
         <is>
@@ -3742,15 +3562,9 @@
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr"/>
       <c r="AA32" t="inlineStr"/>
-      <c r="AB32" t="n">
-        <v>1410.491875249487</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>624.7026632082925</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>1.078972455089974</v>
-      </c>
+      <c r="AB32" t="inlineStr"/>
+      <c r="AC32" t="inlineStr"/>
+      <c r="AD32" t="inlineStr"/>
       <c r="AE32" t="inlineStr"/>
       <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="inlineStr"/>
@@ -3764,41 +3578,41 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>LL8_615_r2</t>
+          <t>LL8_631_a_r3_CRR_DiadFit</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>102.6302871847363</v>
+        <v>102.9426750700372</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0354163162024755</v>
+        <v>0.3582570207236638</v>
       </c>
       <c r="D33" t="n">
-        <v>1286.429439974698</v>
+        <v>1286.321238022815</v>
       </c>
       <c r="E33" t="n">
-        <v>0.03253173535006645</v>
+        <v>0.2325300177114534</v>
       </c>
       <c r="F33" t="n">
-        <v>2445.473612412393</v>
+        <v>392.54201478091</v>
       </c>
       <c r="G33" t="n">
-        <v>1286.429439974698</v>
+        <v>1286.321238022815</v>
       </c>
       <c r="H33" t="n">
-        <v>5078.114320201512</v>
+        <v>623.3756708434119</v>
       </c>
       <c r="I33" t="n">
-        <v>0.9692789481696008</v>
+        <v>0.7442574108386257</v>
       </c>
       <c r="J33" t="n">
-        <v>19.57895870401862</v>
+        <v>8.663677719145248</v>
       </c>
       <c r="K33" t="n">
-        <v>0.02000731689887647</v>
+        <v>2.475389746514622e-07</v>
       </c>
       <c r="L33" t="n">
-        <v>1.938557896339202</v>
+        <v>1.488514821677251</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
@@ -3806,34 +3620,34 @@
         </is>
       </c>
       <c r="N33" t="n">
-        <v>1389.059727159434</v>
+        <v>1389.263913092852</v>
       </c>
       <c r="O33" t="n">
-        <v>0.01400005887369641</v>
+        <v>0.2725396920833859</v>
       </c>
       <c r="P33" t="n">
-        <v>3774.804427497942</v>
+        <v>811.297536524288</v>
       </c>
       <c r="Q33" t="n">
-        <v>1389.059727159434</v>
+        <v>1389.263913092852</v>
       </c>
       <c r="R33" t="n">
-        <v>7947.303900318859</v>
+        <v>1401.440923711847</v>
       </c>
       <c r="S33" t="n">
-        <v>0.9393295524559453</v>
+        <v>0.5476233167531172</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>22.60643094551269</v>
+        <v>5.077033096670729</v>
       </c>
       <c r="V33" t="n">
-        <v>0.1555827771361032</v>
+        <v>0.9999999991661102</v>
       </c>
       <c r="W33" t="n">
-        <v>1.878659104911891</v>
+        <v>1.095246633506234</v>
       </c>
       <c r="X33" t="inlineStr">
         <is>
@@ -3843,15 +3657,9 @@
       <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr"/>
       <c r="AA33" t="inlineStr"/>
-      <c r="AB33" t="n">
-        <v>1410.374048059347</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>930.7193235312604</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>0.9240004906058716</v>
-      </c>
+      <c r="AB33" t="inlineStr"/>
+      <c r="AC33" t="inlineStr"/>
+      <c r="AD33" t="inlineStr"/>
       <c r="AE33" t="inlineStr"/>
       <c r="AF33" t="inlineStr"/>
       <c r="AG33" t="inlineStr"/>
@@ -3865,41 +3673,41 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>LL8_615_r3</t>
+          <t>LL8_631_b_r1_CRR_DiadFit</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>102.6665582161047</v>
+        <v>102.543740025008</v>
       </c>
       <c r="C34" t="n">
-        <v>0.02826940308325173</v>
+        <v>0.1777780909658302</v>
       </c>
       <c r="D34" t="n">
-        <v>1286.459979788031</v>
+        <v>1286.597372539</v>
       </c>
       <c r="E34" t="n">
-        <v>0.02598528791180839</v>
+        <v>0.1680402427779805</v>
       </c>
       <c r="F34" t="n">
-        <v>2601.074980185415</v>
+        <v>296.5294558731907</v>
       </c>
       <c r="G34" t="n">
-        <v>1286.459979788031</v>
+        <v>1286.597372539</v>
       </c>
       <c r="H34" t="n">
-        <v>5570.133946543918</v>
+        <v>513.1433783377495</v>
       </c>
       <c r="I34" t="n">
-        <v>0.9580961699095804</v>
+        <v>0.812095398986612</v>
       </c>
       <c r="J34" t="n">
-        <v>19.15594913383653</v>
+        <v>14.09690317593916</v>
       </c>
       <c r="K34" t="n">
-        <v>0.1452158282170961</v>
+        <v>1.896066637030458e-11</v>
       </c>
       <c r="L34" t="n">
-        <v>1.916192339819161</v>
+        <v>1.624190797973224</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -3907,34 +3715,34 @@
         </is>
       </c>
       <c r="N34" t="n">
-        <v>1389.126588006635</v>
+        <v>1389.141112564008</v>
       </c>
       <c r="O34" t="n">
-        <v>0.01113211403210492</v>
+        <v>0.05803039233515794</v>
       </c>
       <c r="P34" t="n">
-        <v>3910.455801031101</v>
+        <v>460.4138807165269</v>
       </c>
       <c r="Q34" t="n">
-        <v>1389.126538004135</v>
+        <v>1389.141112564008</v>
       </c>
       <c r="R34" t="n">
-        <v>8216.717156347398</v>
+        <v>1153.028787997478</v>
       </c>
       <c r="S34" t="n">
-        <v>0.9697797162608168</v>
+        <v>1.075213403804352</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>21.79438878645873</v>
+        <v>10.32569404780127</v>
       </c>
       <c r="V34" t="n">
-        <v>0.05423000301051717</v>
+        <v>0.2605663900448443</v>
       </c>
       <c r="W34" t="n">
-        <v>1.939559432521634</v>
+        <v>2.150426807608705</v>
       </c>
       <c r="X34" t="inlineStr">
         <is>
@@ -3944,15 +3752,9 @@
       <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="inlineStr"/>
       <c r="AA34" t="inlineStr"/>
-      <c r="AB34" t="n">
-        <v>1410.308208902326</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>1299.243218641458</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>0.6238438837790994</v>
-      </c>
+      <c r="AB34" t="inlineStr"/>
+      <c r="AC34" t="inlineStr"/>
+      <c r="AD34" t="inlineStr"/>
       <c r="AE34" t="inlineStr"/>
       <c r="AF34" t="inlineStr"/>
       <c r="AG34" t="inlineStr"/>
@@ -3966,41 +3768,41 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>LL8_622B_R1</t>
+          <t>LL8_631_b_r2_CRR_DiadFit</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>102.6324138486166</v>
+        <v>102.9147246735795</v>
       </c>
       <c r="C35" t="n">
-        <v>0.1209461146302671</v>
+        <v>0.3861137611513631</v>
       </c>
       <c r="D35" t="n">
-        <v>1286.753687575307</v>
+        <v>1286.125042240752</v>
       </c>
       <c r="E35" t="n">
-        <v>0.1015864485025638</v>
+        <v>0.3799154584228296</v>
       </c>
       <c r="F35" t="n">
-        <v>436.2736180341115</v>
+        <v>1742.125051484057</v>
       </c>
       <c r="G35" t="n">
-        <v>1286.753687575307</v>
+        <v>1286.125042240752</v>
       </c>
       <c r="H35" t="n">
-        <v>784.7292454288106</v>
+        <v>1418.261206333053</v>
       </c>
       <c r="I35" t="n">
-        <v>0.8433930936760456</v>
+        <v>0.2928718557191567</v>
       </c>
       <c r="J35" t="n">
-        <v>16.30158604093542</v>
+        <v>12.45032616293534</v>
       </c>
       <c r="K35" t="n">
-        <v>8.238931092918733e-09</v>
+        <v>0.7241959875058358</v>
       </c>
       <c r="L35" t="n">
-        <v>1.686786187352091</v>
+        <v>0.5857437114383135</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
@@ -4008,34 +3810,34 @@
         </is>
       </c>
       <c r="N35" t="n">
-        <v>1389.386101423923</v>
+        <v>1389.039766914331</v>
       </c>
       <c r="O35" t="n">
-        <v>0.06563654564946018</v>
+        <v>0.06890632047804506</v>
       </c>
       <c r="P35" t="n">
-        <v>601.8594766497331</v>
+        <v>475.5663717646071</v>
       </c>
       <c r="Q35" t="n">
-        <v>1389.386101423923</v>
+        <v>1389.039766914331</v>
       </c>
       <c r="R35" t="n">
-        <v>1174.438531926462</v>
+        <v>1097.271135912763</v>
       </c>
       <c r="S35" t="n">
-        <v>0.9165846354105647</v>
+        <v>0.9339809701455175</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>16.45913415942871</v>
+        <v>2.852712814155501</v>
       </c>
       <c r="V35" t="n">
-        <v>2.91927333029296e-06</v>
+        <v>0.4235537537404873</v>
       </c>
       <c r="W35" t="n">
-        <v>1.833169270821129</v>
+        <v>1.867961940291035</v>
       </c>
       <c r="X35" t="inlineStr">
         <is>
@@ -4045,15 +3847,9 @@
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr"/>
       <c r="AA35" t="inlineStr"/>
-      <c r="AB35" t="n">
-        <v>1409.97538149405</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>192.9301561702462</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>1.329173287980641</v>
-      </c>
+      <c r="AB35" t="inlineStr"/>
+      <c r="AC35" t="inlineStr"/>
+      <c r="AD35" t="inlineStr"/>
       <c r="AE35" t="inlineStr"/>
       <c r="AF35" t="inlineStr"/>
       <c r="AG35" t="inlineStr"/>
@@ -4067,41 +3863,41 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>LL8_622B_R2</t>
+          <t>LL8_631_b_r3_CRR_DiadFit</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>102.6203147135739</v>
+        <v>102.6093492699154</v>
       </c>
       <c r="C36" t="n">
-        <v>0.2634961406098965</v>
+        <v>0.637284805458872</v>
       </c>
       <c r="D36" t="n">
-        <v>1286.911551540764</v>
+        <v>1286.689513491246</v>
       </c>
       <c r="E36" t="n">
-        <v>0.2543735081990101</v>
+        <v>0.07101315095849692</v>
       </c>
       <c r="F36" t="n">
-        <v>363.9876697987773</v>
+        <v>302.6958895961486</v>
       </c>
       <c r="G36" t="n">
-        <v>1286.911551540764</v>
+        <v>1286.689513491246</v>
       </c>
       <c r="H36" t="n">
-        <v>1146.383664865333</v>
+        <v>613.0329975104128</v>
       </c>
       <c r="I36" t="n">
-        <v>0.9969812544669605</v>
+        <v>0.9500789510815761</v>
       </c>
       <c r="J36" t="n">
-        <v>22.34686740316644</v>
+        <v>12.2095320637696</v>
       </c>
       <c r="K36" t="n">
-        <v>0.9999999909005816</v>
+        <v>1.055116549686375e-10</v>
       </c>
       <c r="L36" t="n">
-        <v>1.993962508933921</v>
+        <v>1.900157902163152</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
@@ -4109,34 +3905,34 @@
         </is>
       </c>
       <c r="N36" t="n">
-        <v>1389.531866254338</v>
+        <v>1389.298862761161</v>
       </c>
       <c r="O36" t="n">
-        <v>0.06873379403785636</v>
+        <v>0.6333159208954865</v>
       </c>
       <c r="P36" t="n">
-        <v>530.2691418475749</v>
+        <v>908.0025815162269</v>
       </c>
       <c r="Q36" t="n">
-        <v>1389.531866254338</v>
+        <v>1389.298862761161</v>
       </c>
       <c r="R36" t="n">
-        <v>1112.345377045747</v>
+        <v>1418.398341588354</v>
       </c>
       <c r="S36" t="n">
-        <v>0.9853286092385702</v>
+        <v>0.5121335608854348</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>24.48577083293176</v>
+        <v>4.05006395564503</v>
       </c>
       <c r="V36" t="n">
-        <v>1.542160843470697e-11</v>
+        <v>0.9314580837692872</v>
       </c>
       <c r="W36" t="n">
-        <v>1.97065721847714</v>
+        <v>1.02426712177087</v>
       </c>
       <c r="X36" t="inlineStr">
         <is>
@@ -4146,15 +3942,9 @@
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr"/>
       <c r="AA36" t="inlineStr"/>
-      <c r="AB36" t="n">
-        <v>1410.409759216959</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>315.3756283770192</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>0.5102268083374464</v>
-      </c>
+      <c r="AB36" t="inlineStr"/>
+      <c r="AC36" t="inlineStr"/>
+      <c r="AD36" t="inlineStr"/>
       <c r="AE36" t="inlineStr"/>
       <c r="AF36" t="inlineStr"/>
       <c r="AG36" t="inlineStr"/>
@@ -4165,1319 +3955,6 @@
       <c r="AL36" t="inlineStr"/>
       <c r="AM36" t="inlineStr"/>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>LL8_622B_R3</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>102.6747060562645</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0.1334395730939306</v>
-      </c>
-      <c r="D37" t="n">
-        <v>1286.663798505647</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0.1132442971954167</v>
-      </c>
-      <c r="F37" t="n">
-        <v>422.6214522189676</v>
-      </c>
-      <c r="G37" t="n">
-        <v>1286.663798505647</v>
-      </c>
-      <c r="H37" t="n">
-        <v>981.3130437592392</v>
-      </c>
-      <c r="I37" t="n">
-        <v>1.087721987331944</v>
-      </c>
-      <c r="J37" t="n">
-        <v>19.02210146952839</v>
-      </c>
-      <c r="K37" t="n">
-        <v>3.273303850193088e-11</v>
-      </c>
-      <c r="L37" t="n">
-        <v>2.175443974663889</v>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>Flagged Warnings:</t>
-        </is>
-      </c>
-      <c r="N37" t="n">
-        <v>1389.338504561912</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0.07058221319997403</v>
-      </c>
-      <c r="P37" t="n">
-        <v>668.3788534183926</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>1389.338504561912</v>
-      </c>
-      <c r="R37" t="n">
-        <v>1534.85080407322</v>
-      </c>
-      <c r="S37" t="n">
-        <v>1.078651765317638</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>28.35145778649192</v>
-      </c>
-      <c r="V37" t="n">
-        <v>3.43107320333047e-10</v>
-      </c>
-      <c r="W37" t="n">
-        <v>2.157303530635277</v>
-      </c>
-      <c r="X37" t="inlineStr">
-        <is>
-          <t>Flagged Warnings:</t>
-        </is>
-      </c>
-      <c r="Y37" t="inlineStr"/>
-      <c r="Z37" t="inlineStr"/>
-      <c r="AA37" t="inlineStr"/>
-      <c r="AB37" t="n">
-        <v>1410.499341056964</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>359.9534871487988</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>0.6656280634683546</v>
-      </c>
-      <c r="AE37" t="inlineStr"/>
-      <c r="AF37" t="inlineStr"/>
-      <c r="AG37" t="inlineStr"/>
-      <c r="AH37" t="inlineStr"/>
-      <c r="AI37" t="inlineStr"/>
-      <c r="AJ37" t="inlineStr"/>
-      <c r="AK37" t="inlineStr"/>
-      <c r="AL37" t="inlineStr"/>
-      <c r="AM37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>LL8_624_r1</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>102.6829339622336</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0.06417236202358657</v>
-      </c>
-      <c r="D38" t="n">
-        <v>1286.322140520632</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0.06266378288376834</v>
-      </c>
-      <c r="F38" t="n">
-        <v>1907.95218719801</v>
-      </c>
-      <c r="G38" t="n">
-        <v>1286.322140520632</v>
-      </c>
-      <c r="H38" t="n">
-        <v>3764.885914609149</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0.8320522330099586</v>
-      </c>
-      <c r="J38" t="n">
-        <v>13.90078054006875</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.3202361836992089</v>
-      </c>
-      <c r="L38" t="n">
-        <v>1.664104466019917</v>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>Flagged Warnings:</t>
-        </is>
-      </c>
-      <c r="N38" t="n">
-        <v>1389.005124485366</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0.01383265565183344</v>
-      </c>
-      <c r="P38" t="n">
-        <v>2634.854876223637</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>1389.005074482865</v>
-      </c>
-      <c r="R38" t="n">
-        <v>5564.961516261732</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0.954113518650122</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>17.47023864629076</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0.1188818813441663</v>
-      </c>
-      <c r="W38" t="n">
-        <v>1.908227037300244</v>
-      </c>
-      <c r="X38" t="inlineStr">
-        <is>
-          <t>Flagged Warnings:</t>
-        </is>
-      </c>
-      <c r="Y38" t="inlineStr"/>
-      <c r="Z38" t="inlineStr"/>
-      <c r="AA38" t="inlineStr"/>
-      <c r="AB38" t="n">
-        <v>1410.282632879505</v>
-      </c>
-      <c r="AC38" t="n">
-        <v>1120.446274771927</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>0.6259510039750494</v>
-      </c>
-      <c r="AE38" t="inlineStr"/>
-      <c r="AF38" t="inlineStr"/>
-      <c r="AG38" t="inlineStr"/>
-      <c r="AH38" t="inlineStr"/>
-      <c r="AI38" t="inlineStr"/>
-      <c r="AJ38" t="inlineStr"/>
-      <c r="AK38" t="inlineStr"/>
-      <c r="AL38" t="inlineStr"/>
-      <c r="AM38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>LL8_624_r2</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>102.657712777735</v>
-      </c>
-      <c r="C39" t="n">
-        <v>0.05015254596442061</v>
-      </c>
-      <c r="D39" t="n">
-        <v>1286.308767333662</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0.04844954149469126</v>
-      </c>
-      <c r="F39" t="n">
-        <v>1691.925326506853</v>
-      </c>
-      <c r="G39" t="n">
-        <v>1286.308767333662</v>
-      </c>
-      <c r="H39" t="n">
-        <v>3514.752807505014</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0.9039202946996177</v>
-      </c>
-      <c r="J39" t="n">
-        <v>15.00404576056324</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.2243587507041656</v>
-      </c>
-      <c r="L39" t="n">
-        <v>1.807840589399235</v>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>Flagged Warnings:</t>
-        </is>
-      </c>
-      <c r="N39" t="n">
-        <v>1388.966530113897</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0.0129583870781634</v>
-      </c>
-      <c r="P39" t="n">
-        <v>2560.234664799596</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>1388.966480111397</v>
-      </c>
-      <c r="R39" t="n">
-        <v>5306.230829442092</v>
-      </c>
-      <c r="S39" t="n">
-        <v>0.941428425728756</v>
-      </c>
-      <c r="T39" t="n">
-        <v>0</v>
-      </c>
-      <c r="U39" t="n">
-        <v>13.8034801235299</v>
-      </c>
-      <c r="V39" t="n">
-        <v>0.1024588646920438</v>
-      </c>
-      <c r="W39" t="n">
-        <v>1.882856851457512</v>
-      </c>
-      <c r="X39" t="inlineStr">
-        <is>
-          <t>Flagged Warnings:</t>
-        </is>
-      </c>
-      <c r="Y39" t="inlineStr"/>
-      <c r="Z39" t="inlineStr"/>
-      <c r="AA39" t="inlineStr"/>
-      <c r="AB39" t="n">
-        <v>1410.198888665647</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>999.0999759550185</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>1.089899947691881</v>
-      </c>
-      <c r="AE39" t="inlineStr"/>
-      <c r="AF39" t="inlineStr"/>
-      <c r="AG39" t="inlineStr"/>
-      <c r="AH39" t="inlineStr"/>
-      <c r="AI39" t="inlineStr"/>
-      <c r="AJ39" t="inlineStr"/>
-      <c r="AK39" t="inlineStr"/>
-      <c r="AL39" t="inlineStr"/>
-      <c r="AM39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>LL8_624_r3</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>102.6504658231763</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0.05710802767534489</v>
-      </c>
-      <c r="D40" t="n">
-        <v>1286.443841440878</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.0528283894008751</v>
-      </c>
-      <c r="F40" t="n">
-        <v>1253.016659906073</v>
-      </c>
-      <c r="G40" t="n">
-        <v>1286.443841440878</v>
-      </c>
-      <c r="H40" t="n">
-        <v>2626.217118750661</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0.9837825334484983</v>
-      </c>
-      <c r="J40" t="n">
-        <v>20.36120160927621</v>
-      </c>
-      <c r="K40" t="n">
-        <v>1.350313267312053e-07</v>
-      </c>
-      <c r="L40" t="n">
-        <v>1.967565066896997</v>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>Flagged Warnings:</t>
-        </is>
-      </c>
-      <c r="N40" t="n">
-        <v>1389.094307264055</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0.02169073761487758</v>
-      </c>
-      <c r="P40" t="n">
-        <v>1922.624444560917</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>1389.094307264055</v>
-      </c>
-      <c r="R40" t="n">
-        <v>4000.712545908902</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0.9774187825545169</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>20.67994785513518</v>
-      </c>
-      <c r="V40" t="n">
-        <v>1.021892986896589e-08</v>
-      </c>
-      <c r="W40" t="n">
-        <v>1.954837565109034</v>
-      </c>
-      <c r="X40" t="inlineStr">
-        <is>
-          <t>Flagged Warnings:</t>
-        </is>
-      </c>
-      <c r="Y40" t="inlineStr"/>
-      <c r="Z40" t="inlineStr"/>
-      <c r="AA40" t="inlineStr"/>
-      <c r="AB40" t="n">
-        <v>1410.335288534017</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>794.9187428909904</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>0.7839169221724357</v>
-      </c>
-      <c r="AE40" t="inlineStr"/>
-      <c r="AF40" t="inlineStr"/>
-      <c r="AG40" t="inlineStr"/>
-      <c r="AH40" t="inlineStr"/>
-      <c r="AI40" t="inlineStr"/>
-      <c r="AJ40" t="inlineStr"/>
-      <c r="AK40" t="inlineStr"/>
-      <c r="AL40" t="inlineStr"/>
-      <c r="AM40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>LL8_626_MI_r1</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>102.6815606303608</v>
-      </c>
-      <c r="C41" t="n">
-        <v>0.02630662639149717</v>
-      </c>
-      <c r="D41" t="n">
-        <v>1286.744358329764</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0.02523817517000726</v>
-      </c>
-      <c r="F41" t="n">
-        <v>2405.63402954659</v>
-      </c>
-      <c r="G41" t="n">
-        <v>1286.744358329764</v>
-      </c>
-      <c r="H41" t="n">
-        <v>5063.693242045299</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0.9890982417923664</v>
-      </c>
-      <c r="J41" t="n">
-        <v>17.7550874089669</v>
-      </c>
-      <c r="K41" t="n">
-        <v>6.557490178638048e-08</v>
-      </c>
-      <c r="L41" t="n">
-        <v>1.978196483584733</v>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>Flagged Warnings:</t>
-        </is>
-      </c>
-      <c r="N41" t="n">
-        <v>1389.425968962625</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0.00742112566864655</v>
-      </c>
-      <c r="P41" t="n">
-        <v>3616.516674542424</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>1389.425918960125</v>
-      </c>
-      <c r="R41" t="n">
-        <v>7840.737836713734</v>
-      </c>
-      <c r="S41" t="n">
-        <v>1.018366851991055</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>21.4018060936705</v>
-      </c>
-      <c r="V41" t="n">
-        <v>8.39291081078386e-10</v>
-      </c>
-      <c r="W41" t="n">
-        <v>2.036733703982111</v>
-      </c>
-      <c r="X41" t="inlineStr">
-        <is>
-          <t>Flagged Warnings:</t>
-        </is>
-      </c>
-      <c r="Y41" t="inlineStr"/>
-      <c r="Z41" t="inlineStr"/>
-      <c r="AA41" t="inlineStr"/>
-      <c r="AB41" t="n">
-        <v>1410.699543630132</v>
-      </c>
-      <c r="AC41" t="n">
-        <v>1186.669782436438</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>0.9709662908165299</v>
-      </c>
-      <c r="AE41" t="inlineStr"/>
-      <c r="AF41" t="inlineStr"/>
-      <c r="AG41" t="inlineStr"/>
-      <c r="AH41" t="inlineStr"/>
-      <c r="AI41" t="inlineStr"/>
-      <c r="AJ41" t="inlineStr"/>
-      <c r="AK41" t="inlineStr"/>
-      <c r="AL41" t="inlineStr"/>
-      <c r="AM41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>LL8_626_MI_r2</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>102.6324138486166</v>
-      </c>
-      <c r="C42" t="n">
-        <v>0.1209461146302671</v>
-      </c>
-      <c r="D42" t="n">
-        <v>1286.753687575307</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0.1015864485025638</v>
-      </c>
-      <c r="F42" t="n">
-        <v>436.2736180341115</v>
-      </c>
-      <c r="G42" t="n">
-        <v>1286.753687575307</v>
-      </c>
-      <c r="H42" t="n">
-        <v>784.7292454288106</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0.8433930936760456</v>
-      </c>
-      <c r="J42" t="n">
-        <v>16.30158604093542</v>
-      </c>
-      <c r="K42" t="n">
-        <v>8.238931092918733e-09</v>
-      </c>
-      <c r="L42" t="n">
-        <v>1.686786187352091</v>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>Flagged Warnings:</t>
-        </is>
-      </c>
-      <c r="N42" t="n">
-        <v>1389.386101423923</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0.06563654564946018</v>
-      </c>
-      <c r="P42" t="n">
-        <v>601.8594766497331</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>1389.386101423923</v>
-      </c>
-      <c r="R42" t="n">
-        <v>1174.438531926462</v>
-      </c>
-      <c r="S42" t="n">
-        <v>0.9165846354105647</v>
-      </c>
-      <c r="T42" t="n">
-        <v>0</v>
-      </c>
-      <c r="U42" t="n">
-        <v>16.45913415942871</v>
-      </c>
-      <c r="V42" t="n">
-        <v>2.91927333029296e-06</v>
-      </c>
-      <c r="W42" t="n">
-        <v>1.833169270821129</v>
-      </c>
-      <c r="X42" t="inlineStr">
-        <is>
-          <t>Flagged Warnings:</t>
-        </is>
-      </c>
-      <c r="Y42" t="inlineStr"/>
-      <c r="Z42" t="inlineStr"/>
-      <c r="AA42" t="inlineStr"/>
-      <c r="AB42" t="n">
-        <v>1409.97538149405</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>192.9301561702462</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>1.329173287980641</v>
-      </c>
-      <c r="AE42" t="inlineStr"/>
-      <c r="AF42" t="inlineStr"/>
-      <c r="AG42" t="inlineStr"/>
-      <c r="AH42" t="inlineStr"/>
-      <c r="AI42" t="inlineStr"/>
-      <c r="AJ42" t="inlineStr"/>
-      <c r="AK42" t="inlineStr"/>
-      <c r="AL42" t="inlineStr"/>
-      <c r="AM42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>LL8_626_MI_r3</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>102.646707709893</v>
-      </c>
-      <c r="C43" t="n">
-        <v>1.927513011470276</v>
-      </c>
-      <c r="D43" t="n">
-        <v>1286.852774054421</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0.1460651606805593</v>
-      </c>
-      <c r="F43" t="n">
-        <v>383.1422943793153</v>
-      </c>
-      <c r="G43" t="n">
-        <v>1286.852774054421</v>
-      </c>
-      <c r="H43" t="n">
-        <v>795.4894153161292</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0.966921202506968</v>
-      </c>
-      <c r="J43" t="n">
-        <v>22.78019041989195</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.05629368394733963</v>
-      </c>
-      <c r="L43" t="n">
-        <v>1.933842405013936</v>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>Flagged Warnings:</t>
-        </is>
-      </c>
-      <c r="N43" t="n">
-        <v>1389.499531766814</v>
-      </c>
-      <c r="O43" t="n">
-        <v>1.921970701707645</v>
-      </c>
-      <c r="P43" t="n">
-        <v>1515.242893455246</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>1389.499481764314</v>
-      </c>
-      <c r="R43" t="n">
-        <v>1655.482169999993</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0.5132899938484891</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>22.92795890826951</v>
-      </c>
-      <c r="V43" t="n">
-        <v>1.169466468109448e-09</v>
-      </c>
-      <c r="W43" t="n">
-        <v>1.026579987696978</v>
-      </c>
-      <c r="X43" t="inlineStr">
-        <is>
-          <t>Flagged Warnings:</t>
-        </is>
-      </c>
-      <c r="Y43" t="inlineStr"/>
-      <c r="Z43" t="inlineStr"/>
-      <c r="AA43" t="inlineStr"/>
-      <c r="AB43" t="n">
-        <v>1410.263261615269</v>
-      </c>
-      <c r="AC43" t="n">
-        <v>490.4072303110253</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>0.7985412375802958</v>
-      </c>
-      <c r="AE43" t="inlineStr"/>
-      <c r="AF43" t="inlineStr"/>
-      <c r="AG43" t="inlineStr"/>
-      <c r="AH43" t="inlineStr"/>
-      <c r="AI43" t="inlineStr"/>
-      <c r="AJ43" t="inlineStr"/>
-      <c r="AK43" t="inlineStr"/>
-      <c r="AL43" t="inlineStr"/>
-      <c r="AM43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>LL8_631_a_r1</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>102.6873793875693</v>
-      </c>
-      <c r="C44" t="n">
-        <v>0.1586261241906833</v>
-      </c>
-      <c r="D44" t="n">
-        <v>1286.325109345181</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0.1416019974707381</v>
-      </c>
-      <c r="F44" t="n">
-        <v>292.6464640190729</v>
-      </c>
-      <c r="G44" t="n">
-        <v>1286.325109345181</v>
-      </c>
-      <c r="H44" t="n">
-        <v>595.5427675442191</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0.9458319100702398</v>
-      </c>
-      <c r="J44" t="n">
-        <v>19.45510666100455</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.008217852081233823</v>
-      </c>
-      <c r="L44" t="n">
-        <v>1.89166382014048</v>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>Flagged Warnings:</t>
-        </is>
-      </c>
-      <c r="N44" t="n">
-        <v>1389.012488732751</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0.07149210857189181</v>
-      </c>
-      <c r="P44" t="n">
-        <v>455.5420290034893</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>1389.012488732751</v>
-      </c>
-      <c r="R44" t="n">
-        <v>935.9797829442549</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0.9651077645799866</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>15.44870573955698</v>
-      </c>
-      <c r="V44" t="n">
-        <v>1.542138639010204e-11</v>
-      </c>
-      <c r="W44" t="n">
-        <v>1.930215529159973</v>
-      </c>
-      <c r="X44" t="inlineStr">
-        <is>
-          <t>Flagged Warnings:</t>
-        </is>
-      </c>
-      <c r="Y44" t="inlineStr"/>
-      <c r="Z44" t="inlineStr"/>
-      <c r="AA44" t="inlineStr"/>
-      <c r="AB44" t="n">
-        <v>1410.197350225329</v>
-      </c>
-      <c r="AC44" t="n">
-        <v>164.881280421249</v>
-      </c>
-      <c r="AD44" t="n">
-        <v>0.5037968909012087</v>
-      </c>
-      <c r="AE44" t="inlineStr"/>
-      <c r="AF44" t="inlineStr"/>
-      <c r="AG44" t="inlineStr"/>
-      <c r="AH44" t="inlineStr"/>
-      <c r="AI44" t="inlineStr"/>
-      <c r="AJ44" t="inlineStr"/>
-      <c r="AK44" t="inlineStr"/>
-      <c r="AL44" t="inlineStr"/>
-      <c r="AM44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>LL8_631_a_r2</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>102.5384411334894</v>
-      </c>
-      <c r="C45" t="n">
-        <v>0.1429016193621773</v>
-      </c>
-      <c r="D45" t="n">
-        <v>1286.517596293172</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0.1233020130201025</v>
-      </c>
-      <c r="F45" t="n">
-        <v>278.9448582948458</v>
-      </c>
-      <c r="G45" t="n">
-        <v>1286.517596293172</v>
-      </c>
-      <c r="H45" t="n">
-        <v>889.6644943336593</v>
-      </c>
-      <c r="I45" t="n">
-        <v>1.144762080518142</v>
-      </c>
-      <c r="J45" t="n">
-        <v>11.53762247970696</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.7334671614363241</v>
-      </c>
-      <c r="L45" t="n">
-        <v>2.289524161036285</v>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>Flagged Warnings:</t>
-        </is>
-      </c>
-      <c r="N45" t="n">
-        <v>1389.056037426662</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0.07223217012884975</v>
-      </c>
-      <c r="P45" t="n">
-        <v>469.5703263347918</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>1389.056037426662</v>
-      </c>
-      <c r="R45" t="n">
-        <v>909.6801347532227</v>
-      </c>
-      <c r="S45" t="n">
-        <v>0.9099674538226952</v>
-      </c>
-      <c r="T45" t="n">
-        <v>0</v>
-      </c>
-      <c r="U45" t="n">
-        <v>12.27622825486358</v>
-      </c>
-      <c r="V45" t="n">
-        <v>1.422362227998519e-12</v>
-      </c>
-      <c r="W45" t="n">
-        <v>1.81993490764539</v>
-      </c>
-      <c r="X45" t="inlineStr">
-        <is>
-          <t>Flagged Warnings:</t>
-        </is>
-      </c>
-      <c r="Y45" t="inlineStr"/>
-      <c r="Z45" t="inlineStr"/>
-      <c r="AA45" t="inlineStr"/>
-      <c r="AB45" t="n">
-        <v>1410.154140995603</v>
-      </c>
-      <c r="AC45" t="n">
-        <v>188.8013587590873</v>
-      </c>
-      <c r="AD45" t="n">
-        <v>1.179276282319978</v>
-      </c>
-      <c r="AE45" t="inlineStr"/>
-      <c r="AF45" t="inlineStr"/>
-      <c r="AG45" t="inlineStr"/>
-      <c r="AH45" t="inlineStr"/>
-      <c r="AI45" t="inlineStr"/>
-      <c r="AJ45" t="inlineStr"/>
-      <c r="AK45" t="inlineStr"/>
-      <c r="AL45" t="inlineStr"/>
-      <c r="AM45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>LL8_631_a_r3</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>102.8148726464201</v>
-      </c>
-      <c r="C46" t="n">
-        <v>0.2492852154776279</v>
-      </c>
-      <c r="D46" t="n">
-        <v>1286.326121392218</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0.2371065539234666</v>
-      </c>
-      <c r="F46" t="n">
-        <v>389.4287684823771</v>
-      </c>
-      <c r="G46" t="n">
-        <v>1286.326121392218</v>
-      </c>
-      <c r="H46" t="n">
-        <v>625.3329427263191</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0.7512879202629014</v>
-      </c>
-      <c r="J46" t="n">
-        <v>10.69665896315968</v>
-      </c>
-      <c r="K46" t="n">
-        <v>4.302008749235142e-11</v>
-      </c>
-      <c r="L46" t="n">
-        <v>1.502575840525803</v>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>Flagged Warnings:</t>
-        </is>
-      </c>
-      <c r="N46" t="n">
-        <v>1389.140994038638</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0.07696493189931125</v>
-      </c>
-      <c r="P46" t="n">
-        <v>506.8075075590651</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>1389.140994038638</v>
-      </c>
-      <c r="R46" t="n">
-        <v>1060.906888109645</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0.8910658507254561</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>13.6169563107008</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0.29090894983393</v>
-      </c>
-      <c r="W46" t="n">
-        <v>1.782131701450912</v>
-      </c>
-      <c r="X46" t="inlineStr">
-        <is>
-          <t>Flagged Warnings:</t>
-        </is>
-      </c>
-      <c r="Y46" t="inlineStr"/>
-      <c r="Z46" t="inlineStr"/>
-      <c r="AA46" t="inlineStr"/>
-      <c r="AB46" t="n">
-        <v>1410.295419660288</v>
-      </c>
-      <c r="AC46" t="n">
-        <v>288.3716715031149</v>
-      </c>
-      <c r="AD46" t="n">
-        <v>0.4572601898693011</v>
-      </c>
-      <c r="AE46" t="inlineStr"/>
-      <c r="AF46" t="inlineStr"/>
-      <c r="AG46" t="inlineStr"/>
-      <c r="AH46" t="inlineStr"/>
-      <c r="AI46" t="inlineStr"/>
-      <c r="AJ46" t="inlineStr"/>
-      <c r="AK46" t="inlineStr"/>
-      <c r="AL46" t="inlineStr"/>
-      <c r="AM46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>LL8_631_b_r1</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>102.5439364972513</v>
-      </c>
-      <c r="C47" t="n">
-        <v>0.1959830985405898</v>
-      </c>
-      <c r="D47" t="n">
-        <v>1286.595967492909</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0.1825783656269652</v>
-      </c>
-      <c r="F47" t="n">
-        <v>299.3514289956342</v>
-      </c>
-      <c r="G47" t="n">
-        <v>1286.595967492909</v>
-      </c>
-      <c r="H47" t="n">
-        <v>531.8683809148694</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0.8129417919544587</v>
-      </c>
-      <c r="J47" t="n">
-        <v>14.38805547640399</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.07811651018089877</v>
-      </c>
-      <c r="L47" t="n">
-        <v>1.625883583908917</v>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>Flagged Warnings:</t>
-        </is>
-      </c>
-      <c r="N47" t="n">
-        <v>1389.139903990161</v>
-      </c>
-      <c r="O47" t="n">
-        <v>0.0712356323658095</v>
-      </c>
-      <c r="P47" t="n">
-        <v>443.1649659630549</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>1389.139903990161</v>
-      </c>
-      <c r="R47" t="n">
-        <v>997.9446790634878</v>
-      </c>
-      <c r="S47" t="n">
-        <v>1.057739785566117</v>
-      </c>
-      <c r="T47" t="n">
-        <v>0</v>
-      </c>
-      <c r="U47" t="n">
-        <v>16.62064511842465</v>
-      </c>
-      <c r="V47" t="n">
-        <v>1.542138639010204e-11</v>
-      </c>
-      <c r="W47" t="n">
-        <v>2.115479571132234</v>
-      </c>
-      <c r="X47" t="inlineStr">
-        <is>
-          <t>Flagged Warnings:</t>
-        </is>
-      </c>
-      <c r="Y47" t="inlineStr"/>
-      <c r="Z47" t="inlineStr"/>
-      <c r="AA47" t="inlineStr"/>
-      <c r="AB47" t="n">
-        <v>1410.282475694504</v>
-      </c>
-      <c r="AC47" t="n">
-        <v>215.1768110008266</v>
-      </c>
-      <c r="AD47" t="n">
-        <v>0.530291838381524</v>
-      </c>
-      <c r="AE47" t="inlineStr"/>
-      <c r="AF47" t="inlineStr"/>
-      <c r="AG47" t="inlineStr"/>
-      <c r="AH47" t="inlineStr"/>
-      <c r="AI47" t="inlineStr"/>
-      <c r="AJ47" t="inlineStr"/>
-      <c r="AK47" t="inlineStr"/>
-      <c r="AL47" t="inlineStr"/>
-      <c r="AM47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>LL8_631_b_r2</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>102.6873793875693</v>
-      </c>
-      <c r="C48" t="n">
-        <v>0.1586261241906833</v>
-      </c>
-      <c r="D48" t="n">
-        <v>1286.325109345181</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0.1416019974707381</v>
-      </c>
-      <c r="F48" t="n">
-        <v>292.6464640190729</v>
-      </c>
-      <c r="G48" t="n">
-        <v>1286.325109345181</v>
-      </c>
-      <c r="H48" t="n">
-        <v>595.5427675442191</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0.9458319100702398</v>
-      </c>
-      <c r="J48" t="n">
-        <v>19.45510666100455</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.008217852081233823</v>
-      </c>
-      <c r="L48" t="n">
-        <v>1.89166382014048</v>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>Flagged Warnings:</t>
-        </is>
-      </c>
-      <c r="N48" t="n">
-        <v>1389.012488732751</v>
-      </c>
-      <c r="O48" t="n">
-        <v>0.07149210857189181</v>
-      </c>
-      <c r="P48" t="n">
-        <v>455.5420290034893</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>1389.012488732751</v>
-      </c>
-      <c r="R48" t="n">
-        <v>935.9797829442549</v>
-      </c>
-      <c r="S48" t="n">
-        <v>0.9651077645799866</v>
-      </c>
-      <c r="T48" t="n">
-        <v>0</v>
-      </c>
-      <c r="U48" t="n">
-        <v>15.44870573955698</v>
-      </c>
-      <c r="V48" t="n">
-        <v>1.542138639010204e-11</v>
-      </c>
-      <c r="W48" t="n">
-        <v>1.930215529159973</v>
-      </c>
-      <c r="X48" t="inlineStr">
-        <is>
-          <t>Flagged Warnings:</t>
-        </is>
-      </c>
-      <c r="Y48" t="inlineStr"/>
-      <c r="Z48" t="inlineStr"/>
-      <c r="AA48" t="inlineStr"/>
-      <c r="AB48" t="n">
-        <v>1410.197350225329</v>
-      </c>
-      <c r="AC48" t="n">
-        <v>164.881280421249</v>
-      </c>
-      <c r="AD48" t="n">
-        <v>0.5037968909012087</v>
-      </c>
-      <c r="AE48" t="inlineStr"/>
-      <c r="AF48" t="inlineStr"/>
-      <c r="AG48" t="inlineStr"/>
-      <c r="AH48" t="inlineStr"/>
-      <c r="AI48" t="inlineStr"/>
-      <c r="AJ48" t="inlineStr"/>
-      <c r="AK48" t="inlineStr"/>
-      <c r="AL48" t="inlineStr"/>
-      <c r="AM48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>LL8_631_b_r3</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>102.4699886059018</v>
-      </c>
-      <c r="C49" t="n">
-        <v>0.106012709815048</v>
-      </c>
-      <c r="D49" t="n">
-        <v>1286.690695847668</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0.08710112897840268</v>
-      </c>
-      <c r="F49" t="n">
-        <v>305.2604444390822</v>
-      </c>
-      <c r="G49" t="n">
-        <v>1286.690695847668</v>
-      </c>
-      <c r="H49" t="n">
-        <v>620.8775861996895</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0.9557806727610917</v>
-      </c>
-      <c r="J49" t="n">
-        <v>14.20792741998617</v>
-      </c>
-      <c r="K49" t="n">
-        <v>5.71516323155663e-09</v>
-      </c>
-      <c r="L49" t="n">
-        <v>1.911561345522183</v>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>Flagged Warnings:</t>
-        </is>
-      </c>
-      <c r="N49" t="n">
-        <v>1389.16073445607</v>
-      </c>
-      <c r="O49" t="n">
-        <v>0.06043250758505096</v>
-      </c>
-      <c r="P49" t="n">
-        <v>508.7011736007594</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>1389.16068445357</v>
-      </c>
-      <c r="R49" t="n">
-        <v>1021.394288023764</v>
-      </c>
-      <c r="S49" t="n">
-        <v>0.8999613498414638</v>
-      </c>
-      <c r="T49" t="n">
-        <v>0</v>
-      </c>
-      <c r="U49" t="n">
-        <v>11.08688862178559</v>
-      </c>
-      <c r="V49" t="n">
-        <v>0.1419774861933388</v>
-      </c>
-      <c r="W49" t="n">
-        <v>1.799922699682928</v>
-      </c>
-      <c r="X49" t="inlineStr">
-        <is>
-          <t>Flagged Warnings:</t>
-        </is>
-      </c>
-      <c r="Y49" t="inlineStr"/>
-      <c r="Z49" t="inlineStr"/>
-      <c r="AA49" t="inlineStr"/>
-      <c r="AB49" t="n">
-        <v>1410.167226185621</v>
-      </c>
-      <c r="AC49" t="n">
-        <v>241.6858942043901</v>
-      </c>
-      <c r="AD49" t="n">
-        <v>1.220188462237285</v>
-      </c>
-      <c r="AE49" t="inlineStr"/>
-      <c r="AF49" t="inlineStr"/>
-      <c r="AG49" t="inlineStr"/>
-      <c r="AH49" t="inlineStr"/>
-      <c r="AI49" t="inlineStr"/>
-      <c r="AJ49" t="inlineStr"/>
-      <c r="AK49" t="inlineStr"/>
-      <c r="AL49" t="inlineStr"/>
-      <c r="AM49" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
